--- a/data/btc_data.xlsx
+++ b/data/btc_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>weighted_ISD</t>
+  </si>
+  <si>
+    <t>maxmin_ratio</t>
   </si>
 </sst>
 </file>
@@ -411,13 +414,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L505"/>
+  <dimension ref="A1:M505"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,8 +457,11 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2">
         <v>43025</v>
       </c>
@@ -492,8 +498,11 @@
       <c r="L2">
         <v>0.5337937810591779</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>1.03894213482107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>43026</v>
       </c>
@@ -530,8 +539,11 @@
       <c r="L3">
         <v>0.4898628407342375</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>1.048513305019906</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>43027</v>
       </c>
@@ -568,8 +580,11 @@
       <c r="L4">
         <v>0.5274062619244864</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>1.02617208170327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>43028</v>
       </c>
@@ -606,8 +621,11 @@
       <c r="L5">
         <v>0.6791190184279399</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>1.028792787916983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>43029</v>
       </c>
@@ -641,8 +659,11 @@
       <c r="K6">
         <v>1.976300450372469</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>1.028234422823834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>43030</v>
       </c>
@@ -676,8 +697,11 @@
       <c r="K7">
         <v>1.952892329879661</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>1.027362528277747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>43031</v>
       </c>
@@ -714,8 +738,11 @@
       <c r="L8">
         <v>0.9823539703265092</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>1.028370176370099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>43032</v>
       </c>
@@ -752,8 +779,11 @@
       <c r="L9">
         <v>0.7295736266987723</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>1.040414076216062</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>43033</v>
       </c>
@@ -790,8 +820,11 @@
       <c r="L10">
         <v>1.113620618405296</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>1.027084568466698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>43034</v>
       </c>
@@ -828,8 +861,11 @@
       <c r="L11">
         <v>0.7969292926514975</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>1.033509386404909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>43035</v>
       </c>
@@ -866,8 +902,11 @@
       <c r="L12">
         <v>0.6309425345606529</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>1.034200424412412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>43036</v>
       </c>
@@ -901,8 +940,11 @@
       <c r="K13">
         <v>3.623403415873502</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>1.028976792407763</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>43037</v>
       </c>
@@ -936,8 +978,11 @@
       <c r="K14">
         <v>2.602332513257141</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>1.046309851713302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>43038</v>
       </c>
@@ -974,8 +1019,11 @@
       <c r="L15">
         <v>0.6956670805733582</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>1.02618277266953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="2">
         <v>43039</v>
       </c>
@@ -1009,8 +1057,11 @@
       <c r="K16">
         <v>2.315616859613647</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>1.019573086816105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="2">
         <v>43040</v>
       </c>
@@ -1047,8 +1098,11 @@
       <c r="L17">
         <v>0.9498229689350616</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>1.019466410536396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="2">
         <v>43041</v>
       </c>
@@ -1082,8 +1136,11 @@
       <c r="K18">
         <v>1.945194836417374</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>1.033173804128119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="2">
         <v>43042</v>
       </c>
@@ -1120,8 +1177,11 @@
       <c r="L19">
         <v>3.270738136534184</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>1.035015143912767</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="2">
         <v>43043</v>
       </c>
@@ -1155,8 +1215,11 @@
       <c r="K20">
         <v>2.252651815707987</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>1.035491872000923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="2">
         <v>43044</v>
       </c>
@@ -1190,8 +1253,11 @@
       <c r="K21">
         <v>2.221548949650653</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>1.041553978359165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="2">
         <v>43045</v>
       </c>
@@ -1228,8 +1294,11 @@
       <c r="L22">
         <v>1.038990859731872</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>1.047455700030619</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="2">
         <v>43046</v>
       </c>
@@ -1266,8 +1335,11 @@
       <c r="L23">
         <v>0.5557645611523719</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>1.052536437481902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="2">
         <v>43047</v>
       </c>
@@ -1302,10 +1374,13 @@
         <v>1.630839866422082</v>
       </c>
       <c r="L24">
-        <v>0.929115942649324</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.9291159426493237</v>
+      </c>
+      <c r="M24">
+        <v>1.032916894086315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="2">
         <v>43048</v>
       </c>
@@ -1339,8 +1414,11 @@
       <c r="K25">
         <v>1.185220429125765</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25">
+        <v>1.028433232191035</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="2">
         <v>43049</v>
       </c>
@@ -1377,8 +1455,11 @@
       <c r="L26">
         <v>0.7371874872032307</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26">
+        <v>1.042230605978984</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="2">
         <v>43050</v>
       </c>
@@ -1415,8 +1496,11 @@
       <c r="L27">
         <v>0.596944150496803</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27">
+        <v>1.044271312748839</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="2">
         <v>43051</v>
       </c>
@@ -1453,8 +1537,11 @@
       <c r="L28">
         <v>0.997155786767755</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28">
+        <v>1.048799600090004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="2">
         <v>43052</v>
       </c>
@@ -1489,10 +1576,13 @@
         <v>-0.3207291791494929</v>
       </c>
       <c r="L29">
-        <v>0.648975045684888</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>0.6489750456848878</v>
+      </c>
+      <c r="M29">
+        <v>1.055297132392146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="2">
         <v>43053</v>
       </c>
@@ -1529,8 +1619,11 @@
       <c r="L30">
         <v>0.7183666829079451</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30">
+        <v>1.050482268963113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="2">
         <v>43054</v>
       </c>
@@ -1565,10 +1658,13 @@
         <v>-0.3118021826034744</v>
       </c>
       <c r="L31">
-        <v>0.73145248680463</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>0.7314524868046299</v>
+      </c>
+      <c r="M31">
+        <v>1.043030403279685</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="2">
         <v>43055</v>
       </c>
@@ -1605,8 +1701,11 @@
       <c r="L32">
         <v>0.711158140396243</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32">
+        <v>1.048558625395656</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="2">
         <v>43056</v>
       </c>
@@ -1643,8 +1742,11 @@
       <c r="L33">
         <v>1.052250792614836</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33">
+        <v>1.033727510735897</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="2">
         <v>43057</v>
       </c>
@@ -1681,8 +1783,11 @@
       <c r="L34">
         <v>0.7729354039949319</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34">
+        <v>1.036884275703118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="2">
         <v>43058</v>
       </c>
@@ -1719,8 +1824,11 @@
       <c r="L35">
         <v>0.8881702079905344</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35">
+        <v>1.032786046915833</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="2">
         <v>43059</v>
       </c>
@@ -1757,8 +1865,11 @@
       <c r="L36">
         <v>0.8786717630980753</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36">
+        <v>1.034465346478362</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="2">
         <v>43060</v>
       </c>
@@ -1795,8 +1906,11 @@
       <c r="L37">
         <v>1.178530058176851</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37">
+        <v>1.030829380351123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="2">
         <v>43061</v>
       </c>
@@ -1830,8 +1944,11 @@
       <c r="K38">
         <v>-0.4155295742073014</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38">
+        <v>1.129565647678338</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="2">
         <v>43062</v>
       </c>
@@ -1865,8 +1982,11 @@
       <c r="K39">
         <v>-0.3074379986574016</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39">
+        <v>1.028219563103363</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="2">
         <v>43063</v>
       </c>
@@ -1903,8 +2023,11 @@
       <c r="L40">
         <v>1.66431609388024</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40">
+        <v>1.026611540751408</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="2">
         <v>43064</v>
       </c>
@@ -1941,8 +2064,11 @@
       <c r="L41">
         <v>0.9595746065806643</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41">
+        <v>1.028605825525063</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="2">
         <v>43065</v>
       </c>
@@ -1979,8 +2105,11 @@
       <c r="L42">
         <v>0.8182236018027951</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42">
+        <v>1.038713047206259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="2">
         <v>43066</v>
       </c>
@@ -2014,8 +2143,11 @@
       <c r="K43">
         <v>-0.4419705269729863</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43">
+        <v>1.045113364785541</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="2">
         <v>43067</v>
       </c>
@@ -2052,8 +2184,11 @@
       <c r="L44">
         <v>0.8910046211632141</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44">
+        <v>1.047738396299529</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="2">
         <v>43068</v>
       </c>
@@ -2090,8 +2225,11 @@
       <c r="L45">
         <v>1.282074283293139</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45">
+        <v>1.072076320993058</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="2">
         <v>43069</v>
       </c>
@@ -2125,8 +2263,11 @@
       <c r="K46">
         <v>-0.2988209652601831</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46">
+        <v>1.069193568464566</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="2">
         <v>43070</v>
       </c>
@@ -2163,8 +2304,11 @@
       <c r="L47">
         <v>0.8254562797031066</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47">
+        <v>1.062861043163756</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="2">
         <v>43071</v>
       </c>
@@ -2198,8 +2342,11 @@
       <c r="K48">
         <v>-0.3572821803662553</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48">
+        <v>1.09066962742207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="2">
         <v>43072</v>
       </c>
@@ -2233,8 +2380,11 @@
       <c r="K49">
         <v>-0.3593297562815059</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49">
+        <v>1.054250005305119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="2">
         <v>43073</v>
       </c>
@@ -2271,8 +2421,11 @@
       <c r="L50">
         <v>1.358998481242353</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50">
+        <v>1.115483265849143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="2">
         <v>43074</v>
       </c>
@@ -2309,8 +2462,11 @@
       <c r="L51">
         <v>0.977129153162436</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51">
+        <v>1.065469312421961</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="2">
         <v>43075</v>
       </c>
@@ -2347,8 +2503,11 @@
       <c r="L52">
         <v>1.773017600918141</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52">
+        <v>1.093257521540695</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="2">
         <v>43076</v>
       </c>
@@ -2385,8 +2544,11 @@
       <c r="L53">
         <v>2.25798801530936</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53">
+        <v>1.1134615416717</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="2">
         <v>43077</v>
       </c>
@@ -2423,8 +2585,11 @@
       <c r="L54">
         <v>2.32437142071045</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54">
+        <v>1.104292850303349</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="2">
         <v>43078</v>
       </c>
@@ -2461,8 +2626,11 @@
       <c r="L55">
         <v>1.082502345151752</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55">
+        <v>1.084581173617583</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="2">
         <v>43079</v>
       </c>
@@ -2499,8 +2667,11 @@
       <c r="L56">
         <v>1.384932925450595</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56">
+        <v>1.091624760823588</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="2">
         <v>43080</v>
       </c>
@@ -2537,8 +2708,11 @@
       <c r="L57">
         <v>2.209195869430994</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57">
+        <v>1.077152050484166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="2">
         <v>43081</v>
       </c>
@@ -2575,8 +2749,11 @@
       <c r="L58">
         <v>1.530865181096964</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58">
+        <v>1.055724886902415</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="2">
         <v>43082</v>
       </c>
@@ -2613,8 +2790,11 @@
       <c r="L59">
         <v>1.670720986214234</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59">
+        <v>1.116392770147889</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="2">
         <v>43083</v>
       </c>
@@ -2648,8 +2828,11 @@
       <c r="K60">
         <v>2.615208113156316</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60">
+        <v>1.07357984857124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="2">
         <v>43084</v>
       </c>
@@ -2683,8 +2866,11 @@
       <c r="K61">
         <v>2.975663673905979</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61">
+        <v>1.148466183740518</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="2">
         <v>43085</v>
       </c>
@@ -2721,8 +2907,11 @@
       <c r="L62">
         <v>2.103311513756069</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62">
+        <v>1.156574766374094</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="2">
         <v>43086</v>
       </c>
@@ -2759,8 +2948,11 @@
       <c r="L63">
         <v>1.577401467303795</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63">
+        <v>1.097499083596828</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="2">
         <v>43087</v>
       </c>
@@ -2797,8 +2989,11 @@
       <c r="L64">
         <v>1.964277006453284</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64">
+        <v>1.129883505519101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="2">
         <v>43088</v>
       </c>
@@ -2832,8 +3027,11 @@
       <c r="K65">
         <v>2.218827468297833</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65">
+        <v>1.120966370928684</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="2">
         <v>43089</v>
       </c>
@@ -2870,8 +3068,11 @@
       <c r="L66">
         <v>1.482660113014721</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66">
+        <v>1.151476918828819</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="2">
         <v>43090</v>
       </c>
@@ -2905,8 +3106,11 @@
       <c r="K67">
         <v>1.701426485038912</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67">
+        <v>1.131283115126605</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="2">
         <v>43091</v>
       </c>
@@ -2943,8 +3147,11 @@
       <c r="L68">
         <v>2.231747644802363</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68">
+        <v>1.155351013000651</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="2">
         <v>43092</v>
       </c>
@@ -2978,8 +3185,11 @@
       <c r="K69">
         <v>1.211466001801228</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69">
+        <v>1.190162461652872</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="2">
         <v>43093</v>
       </c>
@@ -3013,8 +3223,11 @@
       <c r="K70">
         <v>1.054319046763975</v>
       </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="M70">
+        <v>1.203937922326163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="2">
         <v>43094</v>
       </c>
@@ -3051,8 +3264,11 @@
       <c r="L71">
         <v>1.182176808021072</v>
       </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="M71">
+        <v>1.165703044795297</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="2">
         <v>43095</v>
       </c>
@@ -3086,8 +3302,11 @@
       <c r="K72">
         <v>0.7435177863382901</v>
       </c>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="M72">
+        <v>1.118326863364333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="2">
         <v>43096</v>
       </c>
@@ -3121,8 +3340,11 @@
       <c r="K73">
         <v>0.8281863310232719</v>
       </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="M73">
+        <v>1.116707152825138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="2">
         <v>43097</v>
       </c>
@@ -3157,10 +3379,13 @@
         <v>0.660114284968211</v>
       </c>
       <c r="L74">
-        <v>1.754981451847616</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>1.754981451847617</v>
+      </c>
+      <c r="M74">
+        <v>1.145883342205924</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="2">
         <v>43098</v>
       </c>
@@ -3197,8 +3422,11 @@
       <c r="L75">
         <v>1.696193204501041</v>
       </c>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="M75">
+        <v>1.088035936389968</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="2">
         <v>43099</v>
       </c>
@@ -3232,8 +3460,11 @@
       <c r="K76">
         <v>0.4684626920491901</v>
       </c>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="M76">
+        <v>1.151821090101831</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="2">
         <v>43100</v>
       </c>
@@ -3270,8 +3501,11 @@
       <c r="L77">
         <v>1.551071015867133</v>
       </c>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="M77">
+        <v>1.209420567118876</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="2">
         <v>43101</v>
       </c>
@@ -3305,8 +3539,11 @@
       <c r="K78">
         <v>0.361028493497649</v>
       </c>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="M78">
+        <v>1.145437231783298</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="2">
         <v>43102</v>
       </c>
@@ -3341,10 +3578,13 @@
         <v>0.09197362296148394</v>
       </c>
       <c r="L79">
-        <v>1.093142433136</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>1.093142433136001</v>
+      </c>
+      <c r="M79">
+        <v>1.131187839294234</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="2">
         <v>43103</v>
       </c>
@@ -3379,10 +3619,13 @@
         <v>0.1188776083834986</v>
       </c>
       <c r="L80">
-        <v>1.667211832136783</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+        <v>1.667211832136782</v>
+      </c>
+      <c r="M80">
+        <v>1.087179532182131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="2">
         <v>43104</v>
       </c>
@@ -3419,8 +3662,11 @@
       <c r="L81">
         <v>1.566408585243089</v>
       </c>
-    </row>
-    <row r="82" spans="1:12">
+      <c r="M81">
+        <v>1.091120837793743</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="2">
         <v>43105</v>
       </c>
@@ -3457,8 +3703,11 @@
       <c r="L82">
         <v>1.435181231255983</v>
       </c>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="M82">
+        <v>1.093376644177765</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="2">
         <v>43106</v>
       </c>
@@ -3495,8 +3744,11 @@
       <c r="L83">
         <v>1.387602901878703</v>
       </c>
-    </row>
-    <row r="84" spans="1:12">
+      <c r="M83">
+        <v>1.096320380248174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="2">
         <v>43107</v>
       </c>
@@ -3533,8 +3785,11 @@
       <c r="L84">
         <v>1.453209229731478</v>
       </c>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="M84">
+        <v>1.09756133327795</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="2">
         <v>43108</v>
       </c>
@@ -3571,8 +3826,11 @@
       <c r="L85">
         <v>1.242513277315604</v>
       </c>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="M85">
+        <v>1.124458242767323</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="2">
         <v>43109</v>
       </c>
@@ -3609,8 +3867,11 @@
       <c r="L86">
         <v>1.306159940698201</v>
       </c>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="M86">
+        <v>1.110621775560936</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="2">
         <v>43110</v>
       </c>
@@ -3647,8 +3908,11 @@
       <c r="L87">
         <v>1.319476127177362</v>
       </c>
-    </row>
-    <row r="88" spans="1:12">
+      <c r="M87">
+        <v>1.194965183820528</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="2">
         <v>43111</v>
       </c>
@@ -3685,8 +3949,11 @@
       <c r="L88">
         <v>1.759015203674794</v>
       </c>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="M88">
+        <v>1.113282530916619</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="2">
         <v>43112</v>
       </c>
@@ -3723,8 +3990,11 @@
       <c r="L89">
         <v>1.242042417154467</v>
       </c>
-    </row>
-    <row r="90" spans="1:12">
+      <c r="M89">
+        <v>1.179130360620804</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="2">
         <v>43113</v>
       </c>
@@ -3761,8 +4031,11 @@
       <c r="L90">
         <v>1.054012074897954</v>
       </c>
-    </row>
-    <row r="91" spans="1:12">
+      <c r="M90">
+        <v>1.140407635390397</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="2">
         <v>43114</v>
       </c>
@@ -3799,8 +4072,11 @@
       <c r="L91">
         <v>1.659469504305007</v>
       </c>
-    </row>
-    <row r="92" spans="1:12">
+      <c r="M91">
+        <v>1.101180392993917</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="2">
         <v>43115</v>
       </c>
@@ -3837,8 +4113,11 @@
       <c r="L92">
         <v>1.480956954691722</v>
       </c>
-    </row>
-    <row r="93" spans="1:12">
+      <c r="M92">
+        <v>1.103792487152142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="2">
         <v>43116</v>
       </c>
@@ -3875,8 +4154,11 @@
       <c r="L93">
         <v>1.175764417027213</v>
       </c>
-    </row>
-    <row r="94" spans="1:12">
+      <c r="M93">
+        <v>1.160132328234265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="2">
         <v>43117</v>
       </c>
@@ -3913,8 +4195,11 @@
       <c r="L94">
         <v>1.570293204841233</v>
       </c>
-    </row>
-    <row r="95" spans="1:12">
+      <c r="M94">
+        <v>1.11731762814299</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="2">
         <v>43118</v>
       </c>
@@ -3951,8 +4236,11 @@
       <c r="L95">
         <v>1.467063248189543</v>
       </c>
-    </row>
-    <row r="96" spans="1:12">
+      <c r="M95">
+        <v>1.115253637346062</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="2">
         <v>43119</v>
       </c>
@@ -3989,8 +4277,11 @@
       <c r="L96">
         <v>1.467633057849023</v>
       </c>
-    </row>
-    <row r="97" spans="1:12">
+      <c r="M96">
+        <v>1.134745110933317</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="2">
         <v>43120</v>
       </c>
@@ -4027,8 +4318,11 @@
       <c r="L97">
         <v>1.528979653809659</v>
       </c>
-    </row>
-    <row r="98" spans="1:12">
+      <c r="M97">
+        <v>1.103568232741998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="2">
         <v>43121</v>
       </c>
@@ -4065,8 +4359,11 @@
       <c r="L98">
         <v>1.541192254019038</v>
       </c>
-    </row>
-    <row r="99" spans="1:12">
+      <c r="M98">
+        <v>1.11603417970154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="2">
         <v>43122</v>
       </c>
@@ -4103,8 +4400,11 @@
       <c r="L99">
         <v>1.403306867539194</v>
       </c>
-    </row>
-    <row r="100" spans="1:12">
+      <c r="M99">
+        <v>1.123792587938829</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="2">
         <v>43123</v>
       </c>
@@ -4139,10 +4439,13 @@
         <v>0.041957009351918</v>
       </c>
       <c r="L100">
-        <v>1.429388122418198</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
+        <v>1.429388122418197</v>
+      </c>
+      <c r="M100">
+        <v>1.081982740857093</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="2">
         <v>43124</v>
       </c>
@@ -4179,8 +4482,11 @@
       <c r="L101">
         <v>1.707420023903137</v>
       </c>
-    </row>
-    <row r="102" spans="1:12">
+      <c r="M101">
+        <v>1.085307415664864</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="2">
         <v>43125</v>
       </c>
@@ -4217,8 +4523,11 @@
       <c r="L102">
         <v>1.240665939566049</v>
       </c>
-    </row>
-    <row r="103" spans="1:12">
+      <c r="M102">
+        <v>1.080014342097242</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="2">
         <v>43126</v>
       </c>
@@ -4255,8 +4564,11 @@
       <c r="L103">
         <v>1.374328728142037</v>
       </c>
-    </row>
-    <row r="104" spans="1:12">
+      <c r="M103">
+        <v>1.091166577095946</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="2">
         <v>43127</v>
       </c>
@@ -4293,8 +4605,11 @@
       <c r="L104">
         <v>1.373271189197504</v>
       </c>
-    </row>
-    <row r="105" spans="1:12">
+      <c r="M104">
+        <v>1.077457078617866</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="2">
         <v>43128</v>
       </c>
@@ -4331,8 +4646,11 @@
       <c r="L105">
         <v>1.611062013148057</v>
       </c>
-    </row>
-    <row r="106" spans="1:12">
+      <c r="M105">
+        <v>1.126653169589122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="2">
         <v>43129</v>
       </c>
@@ -4369,8 +4687,11 @@
       <c r="L106">
         <v>1.411567651762444</v>
       </c>
-    </row>
-    <row r="107" spans="1:12">
+      <c r="M106">
+        <v>1.120700172277122</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="2">
         <v>43130</v>
       </c>
@@ -4407,8 +4728,11 @@
       <c r="L107">
         <v>1.598232109998764</v>
       </c>
-    </row>
-    <row r="108" spans="1:12">
+      <c r="M107">
+        <v>1.116827372990645</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="2">
         <v>43131</v>
       </c>
@@ -4445,8 +4769,11 @@
       <c r="L108">
         <v>1.583407037775779</v>
       </c>
-    </row>
-    <row r="109" spans="1:12">
+      <c r="M108">
+        <v>1.07908343448582</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="2">
         <v>43132</v>
       </c>
@@ -4483,8 +4810,11 @@
       <c r="L109">
         <v>1.409598958134283</v>
       </c>
-    </row>
-    <row r="110" spans="1:12">
+      <c r="M109">
+        <v>1.070388104516514</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="2">
         <v>43133</v>
       </c>
@@ -4521,8 +4851,11 @@
       <c r="L110">
         <v>1.278111547703957</v>
       </c>
-    </row>
-    <row r="111" spans="1:12">
+      <c r="M110">
+        <v>1.102732248826254</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="2">
         <v>43134</v>
       </c>
@@ -4559,8 +4892,11 @@
       <c r="L111">
         <v>1.271286533925858</v>
       </c>
-    </row>
-    <row r="112" spans="1:12">
+      <c r="M111">
+        <v>1.087406988333765</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="2">
         <v>43135</v>
       </c>
@@ -4597,8 +4933,11 @@
       <c r="L112">
         <v>1.130541838575444</v>
       </c>
-    </row>
-    <row r="113" spans="1:12">
+      <c r="M112">
+        <v>1.08824857418872</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" s="2">
         <v>43136</v>
       </c>
@@ -4635,8 +4974,11 @@
       <c r="L113">
         <v>1.393986195870157</v>
       </c>
-    </row>
-    <row r="114" spans="1:12">
+      <c r="M113">
+        <v>1.161535331857852</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" s="2">
         <v>43137</v>
       </c>
@@ -4673,8 +5015,11 @@
       <c r="L114">
         <v>1.349961523624935</v>
       </c>
-    </row>
-    <row r="115" spans="1:12">
+      <c r="M114">
+        <v>1.080058071963988</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" s="2">
         <v>43138</v>
       </c>
@@ -4711,8 +5056,11 @@
       <c r="L115">
         <v>1.468602903740703</v>
       </c>
-    </row>
-    <row r="116" spans="1:12">
+      <c r="M115">
+        <v>1.045020613784591</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" s="2">
         <v>43139</v>
       </c>
@@ -4746,8 +5094,11 @@
       <c r="K116">
         <v>-0.1048033367012053</v>
       </c>
-    </row>
-    <row r="117" spans="1:12">
+      <c r="M116">
+        <v>1.053492899612181</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" s="2">
         <v>43140</v>
       </c>
@@ -4784,8 +5135,11 @@
       <c r="L117">
         <v>1.134157375665974</v>
       </c>
-    </row>
-    <row r="118" spans="1:12">
+      <c r="M117">
+        <v>1.046184034519503</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" s="2">
         <v>43141</v>
       </c>
@@ -4819,8 +5173,11 @@
       <c r="K118">
         <v>0.1985271843426806</v>
       </c>
-    </row>
-    <row r="119" spans="1:12">
+      <c r="M118">
+        <v>1.0564825102862</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" s="2">
         <v>43142</v>
       </c>
@@ -4857,8 +5214,11 @@
       <c r="L119">
         <v>1.484626230625993</v>
       </c>
-    </row>
-    <row r="120" spans="1:12">
+      <c r="M119">
+        <v>1.038271926769177</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" s="2">
         <v>43143</v>
       </c>
@@ -4895,8 +5255,11 @@
       <c r="L120">
         <v>1.485199687394109</v>
       </c>
-    </row>
-    <row r="121" spans="1:12">
+      <c r="M120">
+        <v>1.046656740582506</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" s="2">
         <v>43144</v>
       </c>
@@ -4933,8 +5296,11 @@
       <c r="L121">
         <v>1.043158986537796</v>
       </c>
-    </row>
-    <row r="122" spans="1:12">
+      <c r="M121">
+        <v>1.030809729455541</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" s="2">
         <v>43145</v>
       </c>
@@ -4971,8 +5337,11 @@
       <c r="L122">
         <v>1.18210904127625</v>
       </c>
-    </row>
-    <row r="123" spans="1:12">
+      <c r="M122">
+        <v>1.031860281540766</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" s="2">
         <v>43146</v>
       </c>
@@ -5007,10 +5376,13 @@
         <v>-0.2987234551703462</v>
       </c>
       <c r="L123">
-        <v>0.9634452849956225</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
+        <v>0.9634452849956228</v>
+      </c>
+      <c r="M123">
+        <v>1.073202199019439</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" s="2">
         <v>43147</v>
       </c>
@@ -5044,8 +5416,11 @@
       <c r="K124">
         <v>-0.2552730188566707</v>
       </c>
-    </row>
-    <row r="125" spans="1:12">
+      <c r="M124">
+        <v>1.025741282364365</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" s="2">
         <v>43148</v>
       </c>
@@ -5082,8 +5457,11 @@
       <c r="L125">
         <v>1.010042850305365</v>
       </c>
-    </row>
-    <row r="126" spans="1:12">
+      <c r="M125">
+        <v>1.029841337612731</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" s="2">
         <v>43149</v>
       </c>
@@ -5120,8 +5498,11 @@
       <c r="L126">
         <v>1.184897959812041</v>
       </c>
-    </row>
-    <row r="127" spans="1:12">
+      <c r="M126">
+        <v>1.031436919814899</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" s="2">
         <v>43150</v>
       </c>
@@ -5158,8 +5539,11 @@
       <c r="L127">
         <v>1.652383906895717</v>
       </c>
-    </row>
-    <row r="128" spans="1:12">
+      <c r="M127">
+        <v>1.023933796026091</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" s="2">
         <v>43151</v>
       </c>
@@ -5194,10 +5578,13 @@
         <v>-0.08024596228450318</v>
       </c>
       <c r="L128">
-        <v>1.34315142124315</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
+        <v>1.343151421243151</v>
+      </c>
+      <c r="M128">
+        <v>1.024473006448793</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="2">
         <v>43152</v>
       </c>
@@ -5234,8 +5621,11 @@
       <c r="L129">
         <v>1.06833561145185</v>
       </c>
-    </row>
-    <row r="130" spans="1:12">
+      <c r="M129">
+        <v>1.051805313308493</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="2">
         <v>43153</v>
       </c>
@@ -5272,8 +5662,11 @@
       <c r="L130">
         <v>1.476090976201058</v>
       </c>
-    </row>
-    <row r="131" spans="1:12">
+      <c r="M130">
+        <v>1.046419828929189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="2">
         <v>43154</v>
       </c>
@@ -5310,8 +5703,11 @@
       <c r="L131">
         <v>4.114448917667622</v>
       </c>
-    </row>
-    <row r="132" spans="1:12">
+      <c r="M131">
+        <v>1.047506549231384</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="2">
         <v>43155</v>
       </c>
@@ -5348,8 +5744,11 @@
       <c r="L132">
         <v>1.21565846621108</v>
       </c>
-    </row>
-    <row r="133" spans="1:12">
+      <c r="M132">
+        <v>1.046586271388509</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="2">
         <v>43156</v>
       </c>
@@ -5386,8 +5785,11 @@
       <c r="L133">
         <v>1.340364548122905</v>
       </c>
-    </row>
-    <row r="134" spans="1:12">
+      <c r="M133">
+        <v>1.062116120564692</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="2">
         <v>43157</v>
       </c>
@@ -5424,8 +5826,11 @@
       <c r="L134">
         <v>1.302177739009962</v>
       </c>
-    </row>
-    <row r="135" spans="1:12">
+      <c r="M134">
+        <v>1.04137117134282</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="2">
         <v>43158</v>
       </c>
@@ -5462,8 +5867,11 @@
       <c r="L135">
         <v>1.197051087922598</v>
       </c>
-    </row>
-    <row r="136" spans="1:12">
+      <c r="M135">
+        <v>1.030048362984543</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="2">
         <v>43159</v>
       </c>
@@ -5500,8 +5908,11 @@
       <c r="L136">
         <v>1.077398649392737</v>
       </c>
-    </row>
-    <row r="137" spans="1:12">
+      <c r="M136">
+        <v>1.027498806070156</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="2">
         <v>43160</v>
       </c>
@@ -5536,10 +5947,13 @@
         <v>-0.1729720321045052</v>
       </c>
       <c r="L137">
-        <v>1.525894045366555</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
+        <v>1.525894045366554</v>
+      </c>
+      <c r="M137">
+        <v>1.058396599047589</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="2">
         <v>43161</v>
       </c>
@@ -5576,8 +5990,11 @@
       <c r="L138">
         <v>1.339826594781887</v>
       </c>
-    </row>
-    <row r="139" spans="1:12">
+      <c r="M138">
+        <v>1.031463488286195</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="2">
         <v>43162</v>
       </c>
@@ -5614,8 +6031,11 @@
       <c r="L139">
         <v>1.123199515557101</v>
       </c>
-    </row>
-    <row r="140" spans="1:12">
+      <c r="M139">
+        <v>1.032490929119419</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="2">
         <v>43163</v>
       </c>
@@ -5652,8 +6072,11 @@
       <c r="L140">
         <v>1.22670586532594</v>
       </c>
-    </row>
-    <row r="141" spans="1:12">
+      <c r="M140">
+        <v>1.034194536079512</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="2">
         <v>43164</v>
       </c>
@@ -5690,8 +6113,11 @@
       <c r="L141">
         <v>1.125430159166009</v>
       </c>
-    </row>
-    <row r="142" spans="1:12">
+      <c r="M141">
+        <v>1.085005421653974</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="2">
         <v>43165</v>
       </c>
@@ -5728,8 +6154,11 @@
       <c r="L142">
         <v>1.06383465478543</v>
       </c>
-    </row>
-    <row r="143" spans="1:12">
+      <c r="M142">
+        <v>1.02525612820747</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="2">
         <v>43166</v>
       </c>
@@ -5766,8 +6195,11 @@
       <c r="L143">
         <v>1.181305057413228</v>
       </c>
-    </row>
-    <row r="144" spans="1:12">
+      <c r="M143">
+        <v>1.039806714748797</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="2">
         <v>43167</v>
       </c>
@@ -5804,8 +6236,11 @@
       <c r="L144">
         <v>1.097372236452566</v>
       </c>
-    </row>
-    <row r="145" spans="1:12">
+      <c r="M144">
+        <v>1.058006101702534</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="2">
         <v>43168</v>
       </c>
@@ -5842,8 +6277,11 @@
       <c r="L145">
         <v>1.112973735913098</v>
       </c>
-    </row>
-    <row r="146" spans="1:12">
+      <c r="M145">
+        <v>1.054015471082382</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="2">
         <v>43169</v>
       </c>
@@ -5877,8 +6315,11 @@
       <c r="K146">
         <v>-1.197475993770302</v>
       </c>
-    </row>
-    <row r="147" spans="1:12">
+      <c r="M146">
+        <v>1.045385024008043</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="2">
         <v>43170</v>
       </c>
@@ -5915,8 +6356,11 @@
       <c r="L147">
         <v>1.221158940871007</v>
       </c>
-    </row>
-    <row r="148" spans="1:12">
+      <c r="M147">
+        <v>1.052150783406201</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="2">
         <v>43171</v>
       </c>
@@ -5953,8 +6397,11 @@
       <c r="L148">
         <v>1.292233185441977</v>
       </c>
-    </row>
-    <row r="149" spans="1:12">
+      <c r="M148">
+        <v>1.037297642622881</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="2">
         <v>43172</v>
       </c>
@@ -5991,8 +6438,11 @@
       <c r="L149">
         <v>1.336532248390902</v>
       </c>
-    </row>
-    <row r="150" spans="1:12">
+      <c r="M149">
+        <v>1.057067464638285</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="2">
         <v>43173</v>
       </c>
@@ -6029,8 +6479,11 @@
       <c r="L150">
         <v>1.011469889265709</v>
       </c>
-    </row>
-    <row r="151" spans="1:12">
+      <c r="M150">
+        <v>1.063233959393254</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="2">
         <v>43174</v>
       </c>
@@ -6067,8 +6520,11 @@
       <c r="L151">
         <v>1.131508005535947</v>
       </c>
-    </row>
-    <row r="152" spans="1:12">
+      <c r="M151">
+        <v>1.051490407099702</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="2">
         <v>43175</v>
       </c>
@@ -6105,8 +6561,11 @@
       <c r="L152">
         <v>1.011044295217478</v>
       </c>
-    </row>
-    <row r="153" spans="1:12">
+      <c r="M152">
+        <v>1.039574005001171</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="2">
         <v>43176</v>
       </c>
@@ -6143,8 +6602,11 @@
       <c r="L153">
         <v>1.291998173797273</v>
       </c>
-    </row>
-    <row r="154" spans="1:12">
+      <c r="M153">
+        <v>1.040503490465763</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="2">
         <v>43177</v>
       </c>
@@ -6181,8 +6643,11 @@
       <c r="L154">
         <v>1.120193949233692</v>
       </c>
-    </row>
-    <row r="155" spans="1:12">
+      <c r="M154">
+        <v>1.056837460606507</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="2">
         <v>43178</v>
       </c>
@@ -6219,8 +6684,11 @@
       <c r="L155">
         <v>1.235428119935445</v>
       </c>
-    </row>
-    <row r="156" spans="1:12">
+      <c r="M155">
+        <v>1.046645818259122</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" s="2">
         <v>43179</v>
       </c>
@@ -6257,8 +6725,11 @@
       <c r="L156">
         <v>1.25425497132132</v>
       </c>
-    </row>
-    <row r="157" spans="1:12">
+      <c r="M156">
+        <v>1.033036321419168</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" s="2">
         <v>43180</v>
       </c>
@@ -6293,10 +6764,13 @@
         <v>-0.8140374549895599</v>
       </c>
       <c r="L157">
-        <v>1.242172502523862</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12">
+        <v>1.242172502523863</v>
+      </c>
+      <c r="M157">
+        <v>1.02745950397782</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" s="2">
         <v>43181</v>
       </c>
@@ -6333,8 +6807,11 @@
       <c r="L158">
         <v>1.130812645808173</v>
       </c>
-    </row>
-    <row r="159" spans="1:12">
+      <c r="M158">
+        <v>1.03433457819533</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" s="2">
         <v>43182</v>
       </c>
@@ -6371,8 +6848,11 @@
       <c r="L159">
         <v>1.149890053186726</v>
       </c>
-    </row>
-    <row r="160" spans="1:12">
+      <c r="M159">
+        <v>1.042259365639048</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" s="2">
         <v>43183</v>
       </c>
@@ -6409,8 +6889,11 @@
       <c r="L160">
         <v>0.9081373322984752</v>
       </c>
-    </row>
-    <row r="161" spans="1:12">
+      <c r="M160">
+        <v>1.038292299759724</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
       <c r="A161" s="2">
         <v>43184</v>
       </c>
@@ -6447,8 +6930,11 @@
       <c r="L161">
         <v>0.9700656776436031</v>
       </c>
-    </row>
-    <row r="162" spans="1:12">
+      <c r="M161">
+        <v>1.03256348383805</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162" s="2">
         <v>43185</v>
       </c>
@@ -6485,8 +6971,11 @@
       <c r="L162">
         <v>0.9697988495390625</v>
       </c>
-    </row>
-    <row r="163" spans="1:12">
+      <c r="M162">
+        <v>1.038776228238695</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
       <c r="A163" s="2">
         <v>43186</v>
       </c>
@@ -6520,8 +7009,11 @@
       <c r="K163">
         <v>-0.4358695759046667</v>
       </c>
-    </row>
-    <row r="164" spans="1:12">
+      <c r="M163">
+        <v>1.050709269593872</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
       <c r="A164" s="2">
         <v>43187</v>
       </c>
@@ -6558,8 +7050,11 @@
       <c r="L164">
         <v>0.8748091915304185</v>
       </c>
-    </row>
-    <row r="165" spans="1:12">
+      <c r="M164">
+        <v>1.05263047466832</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165" s="2">
         <v>43188</v>
       </c>
@@ -6596,8 +7091,11 @@
       <c r="L165">
         <v>0.9206637111265852</v>
       </c>
-    </row>
-    <row r="166" spans="1:12">
+      <c r="M165">
+        <v>1.172133890342204</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
       <c r="A166" s="2">
         <v>43189</v>
       </c>
@@ -6634,8 +7132,11 @@
       <c r="L166">
         <v>1.091055650944258</v>
       </c>
-    </row>
-    <row r="167" spans="1:12">
+      <c r="M166">
+        <v>1.051690468494556</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
       <c r="A167" s="2">
         <v>43190</v>
       </c>
@@ -6672,8 +7173,11 @@
       <c r="L167">
         <v>1.016878607781012</v>
       </c>
-    </row>
-    <row r="168" spans="1:12">
+      <c r="M167">
+        <v>1.047569091264257</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168" s="2">
         <v>43191</v>
       </c>
@@ -6710,8 +7214,11 @@
       <c r="L168">
         <v>1.009688438259681</v>
       </c>
-    </row>
-    <row r="169" spans="1:12">
+      <c r="M168">
+        <v>1.048745224541275</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169" s="2">
         <v>43192</v>
       </c>
@@ -6746,10 +7253,13 @@
         <v>-0.1396117576529385</v>
       </c>
       <c r="L169">
-        <v>0.8497696246494361</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12">
+        <v>0.849769624649436</v>
+      </c>
+      <c r="M169">
+        <v>1.045527141708408</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170" s="2">
         <v>43193</v>
       </c>
@@ -6786,8 +7296,11 @@
       <c r="L170">
         <v>0.8683048562283079</v>
       </c>
-    </row>
-    <row r="171" spans="1:12">
+      <c r="M170">
+        <v>1.037077400320566</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
       <c r="A171" s="2">
         <v>43194</v>
       </c>
@@ -6822,10 +7335,13 @@
         <v>-0.5702459635164433</v>
       </c>
       <c r="L171">
-        <v>0.9456178721993231</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12">
+        <v>0.9456178721993229</v>
+      </c>
+      <c r="M171">
+        <v>1.035623052148475</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
       <c r="A172" s="2">
         <v>43195</v>
       </c>
@@ -6862,8 +7378,11 @@
       <c r="L172">
         <v>0.8878441622456379</v>
       </c>
-    </row>
-    <row r="173" spans="1:12">
+      <c r="M172">
+        <v>1.047138664680296</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
       <c r="A173" s="2">
         <v>43196</v>
       </c>
@@ -6900,8 +7419,11 @@
       <c r="L173">
         <v>0.9267935806294685</v>
       </c>
-    </row>
-    <row r="174" spans="1:12">
+      <c r="M173">
+        <v>1.053343180506411</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
       <c r="A174" s="2">
         <v>43197</v>
       </c>
@@ -6938,8 +7460,11 @@
       <c r="L174">
         <v>0.9150166019470466</v>
       </c>
-    </row>
-    <row r="175" spans="1:12">
+      <c r="M174">
+        <v>1.058814191489172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13">
       <c r="A175" s="2">
         <v>43198</v>
       </c>
@@ -6973,8 +7498,11 @@
       <c r="K175">
         <v>-0.0605889332567897</v>
       </c>
-    </row>
-    <row r="176" spans="1:12">
+      <c r="M175">
+        <v>1.039240206476615</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13">
       <c r="A176" s="2">
         <v>43199</v>
       </c>
@@ -7009,10 +7537,13 @@
         <v>0.05341067232950897</v>
       </c>
       <c r="L176">
-        <v>1.006916886796486</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12">
+        <v>1.006916886796487</v>
+      </c>
+      <c r="M176">
+        <v>1.048239046606838</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
       <c r="A177" s="2">
         <v>43200</v>
       </c>
@@ -7049,8 +7580,11 @@
       <c r="L177">
         <v>1.031626437526851</v>
       </c>
-    </row>
-    <row r="178" spans="1:12">
+      <c r="M177">
+        <v>1.054792154945917</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
       <c r="A178" s="2">
         <v>43201</v>
       </c>
@@ -7087,8 +7621,11 @@
       <c r="L178">
         <v>0.9587529504180584</v>
       </c>
-    </row>
-    <row r="179" spans="1:12">
+      <c r="M178">
+        <v>1.040199494606137</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
       <c r="A179" s="2">
         <v>43202</v>
       </c>
@@ -7125,8 +7662,11 @@
       <c r="L179">
         <v>0.6709613126770592</v>
       </c>
-    </row>
-    <row r="180" spans="1:12">
+      <c r="M179">
+        <v>1.027382825609995</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
       <c r="A180" s="2">
         <v>43203</v>
       </c>
@@ -7161,10 +7701,13 @@
         <v>1.654445610049768</v>
       </c>
       <c r="L180">
-        <v>0.9420349183418983</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12">
+        <v>0.9420349183418985</v>
+      </c>
+      <c r="M180">
+        <v>1.035060846127132</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
       <c r="A181" s="2">
         <v>43204</v>
       </c>
@@ -7201,8 +7744,11 @@
       <c r="L181">
         <v>1.04486434049591</v>
       </c>
-    </row>
-    <row r="182" spans="1:12">
+      <c r="M181">
+        <v>1.025464073378223</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
       <c r="A182" s="2">
         <v>43205</v>
       </c>
@@ -7239,8 +7785,11 @@
       <c r="L182">
         <v>0.9117865567662031</v>
       </c>
-    </row>
-    <row r="183" spans="1:12">
+      <c r="M182">
+        <v>1.043697926781146</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13">
       <c r="A183" s="2">
         <v>43206</v>
       </c>
@@ -7275,10 +7824,13 @@
         <v>1.535718389192614</v>
       </c>
       <c r="L183">
-        <v>0.8039060266843738</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12">
+        <v>0.8039060266843737</v>
+      </c>
+      <c r="M183">
+        <v>1.030543253167582</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13">
       <c r="A184" s="2">
         <v>43207</v>
       </c>
@@ -7315,8 +7867,11 @@
       <c r="L184">
         <v>0.9621487490738442</v>
       </c>
-    </row>
-    <row r="185" spans="1:12">
+      <c r="M184">
+        <v>1.032862100908814</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13">
       <c r="A185" s="2">
         <v>43208</v>
       </c>
@@ -7353,8 +7908,11 @@
       <c r="L185">
         <v>1.225477136972791</v>
       </c>
-    </row>
-    <row r="186" spans="1:12">
+      <c r="M185">
+        <v>1.034836166875857</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13">
       <c r="A186" s="2">
         <v>43209</v>
       </c>
@@ -7391,8 +7949,11 @@
       <c r="L186">
         <v>0.9542109765782957</v>
       </c>
-    </row>
-    <row r="187" spans="1:12">
+      <c r="M186">
+        <v>1.0389175973669</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13">
       <c r="A187" s="2">
         <v>43210</v>
       </c>
@@ -7429,8 +7990,11 @@
       <c r="L187">
         <v>1.145693703010475</v>
       </c>
-    </row>
-    <row r="188" spans="1:12">
+      <c r="M187">
+        <v>1.038927098974419</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13">
       <c r="A188" s="2">
         <v>43211</v>
       </c>
@@ -7467,8 +8031,11 @@
       <c r="L188">
         <v>1.188495972685492</v>
       </c>
-    </row>
-    <row r="189" spans="1:12">
+      <c r="M188">
+        <v>1.02873771290643</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13">
       <c r="A189" s="2">
         <v>43212</v>
       </c>
@@ -7505,8 +8072,11 @@
       <c r="L189">
         <v>1.554283939696675</v>
       </c>
-    </row>
-    <row r="190" spans="1:12">
+      <c r="M189">
+        <v>1.0291290012657</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13">
       <c r="A190" s="2">
         <v>43213</v>
       </c>
@@ -7543,8 +8113,11 @@
       <c r="L190">
         <v>0.8141040314671385</v>
       </c>
-    </row>
-    <row r="191" spans="1:12">
+      <c r="M190">
+        <v>1.026894569201644</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13">
       <c r="A191" s="2">
         <v>43214</v>
       </c>
@@ -7578,8 +8151,11 @@
       <c r="K191">
         <v>1.082511679938864</v>
       </c>
-    </row>
-    <row r="192" spans="1:12">
+      <c r="M191">
+        <v>1.041725359667647</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13">
       <c r="A192" s="2">
         <v>43215</v>
       </c>
@@ -7616,8 +8192,11 @@
       <c r="L192">
         <v>1.067641161274536</v>
       </c>
-    </row>
-    <row r="193" spans="1:12">
+      <c r="M192">
+        <v>1.017047184629667</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13">
       <c r="A193" s="2">
         <v>43216</v>
       </c>
@@ -7654,8 +8233,11 @@
       <c r="L193">
         <v>1.023186577079925</v>
       </c>
-    </row>
-    <row r="194" spans="1:12">
+      <c r="M193">
+        <v>1.012343896644995</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13">
       <c r="A194" s="2">
         <v>43217</v>
       </c>
@@ -7692,8 +8274,11 @@
       <c r="L194">
         <v>0.7558607060006169</v>
       </c>
-    </row>
-    <row r="195" spans="1:12">
+      <c r="M194">
+        <v>1.017252835275979</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13">
       <c r="A195" s="2">
         <v>43218</v>
       </c>
@@ -7728,10 +8313,13 @@
         <v>0.876451829131304</v>
       </c>
       <c r="L195">
-        <v>0.9948443665689497</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12">
+        <v>0.9948443665689496</v>
+      </c>
+      <c r="M195">
+        <v>1.025571246193173</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13">
       <c r="A196" s="2">
         <v>43219</v>
       </c>
@@ -7768,8 +8356,11 @@
       <c r="L196">
         <v>0.9781850565420122</v>
       </c>
-    </row>
-    <row r="197" spans="1:12">
+      <c r="M196">
+        <v>1.032000231547205</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13">
       <c r="A197" s="2">
         <v>43220</v>
       </c>
@@ -7803,8 +8394,11 @@
       <c r="K197">
         <v>1.04972795540846</v>
       </c>
-    </row>
-    <row r="198" spans="1:12">
+      <c r="M197">
+        <v>1.025529363226023</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13">
       <c r="A198" s="2">
         <v>43221</v>
       </c>
@@ -7841,8 +8435,11 @@
       <c r="L198">
         <v>0.9173367886470698</v>
       </c>
-    </row>
-    <row r="199" spans="1:12">
+      <c r="M198">
+        <v>1.007760927640926</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13">
       <c r="A199" s="2">
         <v>43222</v>
       </c>
@@ -7879,8 +8476,11 @@
       <c r="L199">
         <v>0.8838818950293855</v>
       </c>
-    </row>
-    <row r="200" spans="1:12">
+      <c r="M199">
+        <v>1.012003244522315</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13">
       <c r="A200" s="2">
         <v>43223</v>
       </c>
@@ -7915,10 +8515,13 @@
         <v>1.15970118320712</v>
       </c>
       <c r="L200">
-        <v>0.9012935574396986</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12">
+        <v>0.9012935574396983</v>
+      </c>
+      <c r="M200">
+        <v>1.019869348023324</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13">
       <c r="A201" s="2">
         <v>43224</v>
       </c>
@@ -7955,8 +8558,11 @@
       <c r="L201">
         <v>0.961943994409282</v>
       </c>
-    </row>
-    <row r="202" spans="1:12">
+      <c r="M201">
+        <v>1.024132938977121</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13">
       <c r="A202" s="2">
         <v>43225</v>
       </c>
@@ -7993,8 +8599,11 @@
       <c r="L202">
         <v>0.9345929368176206</v>
       </c>
-    </row>
-    <row r="203" spans="1:12">
+      <c r="M202">
+        <v>1.027050253339018</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13">
       <c r="A203" s="2">
         <v>43226</v>
       </c>
@@ -8031,8 +8640,11 @@
       <c r="L203">
         <v>0.8923562697650855</v>
       </c>
-    </row>
-    <row r="204" spans="1:12">
+      <c r="M203">
+        <v>1.019095917378414</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13">
       <c r="A204" s="2">
         <v>43227</v>
       </c>
@@ -8067,10 +8679,13 @@
         <v>1.69868429321838</v>
       </c>
       <c r="L204">
-        <v>0.860236387929886</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12">
+        <v>0.8602363879298859</v>
+      </c>
+      <c r="M204">
+        <v>1.006060128798879</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13">
       <c r="A205" s="2">
         <v>43228</v>
       </c>
@@ -8105,10 +8720,13 @@
         <v>1.639051012865798</v>
       </c>
       <c r="L205">
-        <v>0.8837237364587802</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12">
+        <v>0.8837237364587804</v>
+      </c>
+      <c r="M205">
+        <v>1.005188754714453</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13">
       <c r="A206" s="2">
         <v>43229</v>
       </c>
@@ -8145,8 +8763,11 @@
       <c r="L206">
         <v>0.9173480015636796</v>
       </c>
-    </row>
-    <row r="207" spans="1:12">
+      <c r="M206">
+        <v>1.00512108877092</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13">
       <c r="A207" s="2">
         <v>43230</v>
       </c>
@@ -8183,8 +8804,11 @@
       <c r="L207">
         <v>0.9641013904012987</v>
       </c>
-    </row>
-    <row r="208" spans="1:12">
+      <c r="M207">
+        <v>1.0030628233354</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13">
       <c r="A208" s="2">
         <v>43231</v>
       </c>
@@ -8221,8 +8845,11 @@
       <c r="L208">
         <v>1.093324607707391</v>
       </c>
-    </row>
-    <row r="209" spans="1:12">
+      <c r="M208">
+        <v>1.017553680943109</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13">
       <c r="A209" s="2">
         <v>43232</v>
       </c>
@@ -8259,8 +8886,11 @@
       <c r="L209">
         <v>0.9978813408019005</v>
       </c>
-    </row>
-    <row r="210" spans="1:12">
+      <c r="M209">
+        <v>1.023756292675458</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13">
       <c r="A210" s="2">
         <v>43233</v>
       </c>
@@ -8297,8 +8927,11 @@
       <c r="L210">
         <v>0.918781452737808</v>
       </c>
-    </row>
-    <row r="211" spans="1:12">
+      <c r="M210">
+        <v>1.022182561539245</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13">
       <c r="A211" s="2">
         <v>43234</v>
       </c>
@@ -8335,8 +8968,11 @@
       <c r="L211">
         <v>0.8361572557548886</v>
       </c>
-    </row>
-    <row r="212" spans="1:12">
+      <c r="M211">
+        <v>1.02103113190233</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13">
       <c r="A212" s="2">
         <v>43235</v>
       </c>
@@ -8371,10 +9007,13 @@
         <v>0.6950401157623656</v>
       </c>
       <c r="L212">
-        <v>0.8974908868188282</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12">
+        <v>0.8974908868188278</v>
+      </c>
+      <c r="M212">
+        <v>1.015115083694141</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13">
       <c r="A213" s="2">
         <v>43236</v>
       </c>
@@ -8411,8 +9050,11 @@
       <c r="L213">
         <v>0.907353125801213</v>
       </c>
-    </row>
-    <row r="214" spans="1:12">
+      <c r="M213">
+        <v>1.019380853880381</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13">
       <c r="A214" s="2">
         <v>43237</v>
       </c>
@@ -8449,8 +9091,11 @@
       <c r="L214">
         <v>0.8275191793063581</v>
       </c>
-    </row>
-    <row r="215" spans="1:12">
+      <c r="M214">
+        <v>1.016048051645695</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13">
       <c r="A215" s="2">
         <v>43238</v>
       </c>
@@ -8487,8 +9132,11 @@
       <c r="L215">
         <v>0.9680546517855869</v>
       </c>
-    </row>
-    <row r="216" spans="1:12">
+      <c r="M215">
+        <v>1.024831471117265</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13">
       <c r="A216" s="2">
         <v>43239</v>
       </c>
@@ -8525,8 +9173,11 @@
       <c r="L216">
         <v>0.9656705062623322</v>
       </c>
-    </row>
-    <row r="217" spans="1:12">
+      <c r="M216">
+        <v>1.015098790815378</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13">
       <c r="A217" s="2">
         <v>43240</v>
       </c>
@@ -8563,8 +9214,11 @@
       <c r="L217">
         <v>0.8897869730009355</v>
       </c>
-    </row>
-    <row r="218" spans="1:12">
+      <c r="M217">
+        <v>1.01396506003084</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13">
       <c r="A218" s="2">
         <v>43241</v>
       </c>
@@ -8601,8 +9255,11 @@
       <c r="L218">
         <v>0.7797032110489285</v>
       </c>
-    </row>
-    <row r="219" spans="1:12">
+      <c r="M218">
+        <v>1.015398892776823</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13">
       <c r="A219" s="2">
         <v>43242</v>
       </c>
@@ -8639,8 +9296,11 @@
       <c r="L219">
         <v>1.002976696991186</v>
       </c>
-    </row>
-    <row r="220" spans="1:12">
+      <c r="M219">
+        <v>1.012832482795068</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13">
       <c r="A220" s="2">
         <v>43243</v>
       </c>
@@ -8677,8 +9337,11 @@
       <c r="L220">
         <v>1.033027527732388</v>
       </c>
-    </row>
-    <row r="221" spans="1:12">
+      <c r="M220">
+        <v>1.018512450028356</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13">
       <c r="A221" s="2">
         <v>43244</v>
       </c>
@@ -8715,8 +9378,11 @@
       <c r="L221">
         <v>0.9610792178985067</v>
       </c>
-    </row>
-    <row r="222" spans="1:12">
+      <c r="M221">
+        <v>1.015786568426666</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13">
       <c r="A222" s="2">
         <v>43245</v>
       </c>
@@ -8753,8 +9419,11 @@
       <c r="L222">
         <v>1.013563411969143</v>
       </c>
-    </row>
-    <row r="223" spans="1:12">
+      <c r="M222">
+        <v>1.019996961414491</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13">
       <c r="A223" s="2">
         <v>43246</v>
       </c>
@@ -8791,8 +9460,11 @@
       <c r="L223">
         <v>0.9969403577745515</v>
       </c>
-    </row>
-    <row r="224" spans="1:12">
+      <c r="M223">
+        <v>1.028980527062331</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13">
       <c r="A224" s="2">
         <v>43247</v>
       </c>
@@ -8826,8 +9498,11 @@
       <c r="K224">
         <v>0.3219232520571239</v>
       </c>
-    </row>
-    <row r="225" spans="1:12">
+      <c r="M224">
+        <v>1.020746710436148</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13">
       <c r="A225" s="2">
         <v>43248</v>
       </c>
@@ -8861,8 +9536,11 @@
       <c r="K225">
         <v>0.48955067410722</v>
       </c>
-    </row>
-    <row r="226" spans="1:12">
+      <c r="M225">
+        <v>1.014455949049235</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13">
       <c r="A226" s="2">
         <v>43249</v>
       </c>
@@ -8899,8 +9577,11 @@
       <c r="L226">
         <v>0.9506511019474218</v>
       </c>
-    </row>
-    <row r="227" spans="1:12">
+      <c r="M226">
+        <v>1.012466862323083</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13">
       <c r="A227" s="2">
         <v>43250</v>
       </c>
@@ -8937,8 +9618,11 @@
       <c r="L227">
         <v>0.9088349655636458</v>
       </c>
-    </row>
-    <row r="228" spans="1:12">
+      <c r="M227">
+        <v>1.011649434464328</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13">
       <c r="A228" s="2">
         <v>43251</v>
       </c>
@@ -8975,8 +9659,11 @@
       <c r="L228">
         <v>0.8478163973099161</v>
       </c>
-    </row>
-    <row r="229" spans="1:12">
+      <c r="M228">
+        <v>1.008830389350139</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13">
       <c r="A229" s="2">
         <v>43252</v>
       </c>
@@ -9013,8 +9700,11 @@
       <c r="L229">
         <v>0.7004289106942143</v>
       </c>
-    </row>
-    <row r="230" spans="1:12">
+      <c r="M229">
+        <v>1.014487194549846</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13">
       <c r="A230" s="2">
         <v>43253</v>
       </c>
@@ -9048,8 +9738,11 @@
       <c r="K230">
         <v>0.2356764711395404</v>
       </c>
-    </row>
-    <row r="231" spans="1:12">
+      <c r="M230">
+        <v>1.014366731322004</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13">
       <c r="A231" s="2">
         <v>43254</v>
       </c>
@@ -9086,8 +9779,11 @@
       <c r="L231">
         <v>0.9133582407878466</v>
       </c>
-    </row>
-    <row r="232" spans="1:12">
+      <c r="M231">
+        <v>1.01123660536448</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13">
       <c r="A232" s="2">
         <v>43255</v>
       </c>
@@ -9124,8 +9820,11 @@
       <c r="L232">
         <v>0.8114320392942208</v>
       </c>
-    </row>
-    <row r="233" spans="1:12">
+      <c r="M232">
+        <v>1.00996463862521</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13">
       <c r="A233" s="2">
         <v>43256</v>
       </c>
@@ -9162,8 +9861,11 @@
       <c r="L233">
         <v>0.8793006277239448</v>
       </c>
-    </row>
-    <row r="234" spans="1:12">
+      <c r="M233">
+        <v>1.020092036316861</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13">
       <c r="A234" s="2">
         <v>43257</v>
       </c>
@@ -9198,10 +9900,13 @@
         <v>0.2961567331267596</v>
       </c>
       <c r="L234">
-        <v>0.8788423709901613</v>
-      </c>
-    </row>
-    <row r="235" spans="1:12">
+        <v>0.8788423709901612</v>
+      </c>
+      <c r="M234">
+        <v>1.009940597187925</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13">
       <c r="A235" s="2">
         <v>43258</v>
       </c>
@@ -9238,8 +9943,11 @@
       <c r="L235">
         <v>0.8063682259649453</v>
       </c>
-    </row>
-    <row r="236" spans="1:12">
+      <c r="M235">
+        <v>1.009088474770705</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13">
       <c r="A236" s="2">
         <v>43259</v>
       </c>
@@ -9276,8 +9984,11 @@
       <c r="L236">
         <v>0.6544439103838092</v>
       </c>
-    </row>
-    <row r="237" spans="1:12">
+      <c r="M236">
+        <v>1.002116231536087</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13">
       <c r="A237" s="2">
         <v>43260</v>
       </c>
@@ -9311,8 +10022,11 @@
       <c r="K237">
         <v>0.6269100580423362</v>
       </c>
-    </row>
-    <row r="238" spans="1:12">
+      <c r="M237">
+        <v>1.004960058689685</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13">
       <c r="A238" s="2">
         <v>43261</v>
       </c>
@@ -9349,8 +10063,11 @@
       <c r="L238">
         <v>0.9806106249761116</v>
       </c>
-    </row>
-    <row r="239" spans="1:12">
+      <c r="M238">
+        <v>1.018808220550316</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13">
       <c r="A239" s="2">
         <v>43262</v>
       </c>
@@ -9385,10 +10102,13 @@
         <v>3.14220646912585</v>
       </c>
       <c r="L239">
-        <v>0.9005938845646286</v>
-      </c>
-    </row>
-    <row r="240" spans="1:12">
+        <v>0.9005938845646287</v>
+      </c>
+      <c r="M239">
+        <v>1.03091860380966</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13">
       <c r="A240" s="2">
         <v>43263</v>
       </c>
@@ -9423,10 +10143,13 @@
         <v>2.528021205004207</v>
       </c>
       <c r="L240">
-        <v>0.9280570602500074</v>
-      </c>
-    </row>
-    <row r="241" spans="1:12">
+        <v>0.9280570602500076</v>
+      </c>
+      <c r="M240">
+        <v>1.02683431317428</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13">
       <c r="A241" s="2">
         <v>43264</v>
       </c>
@@ -9461,10 +10184,13 @@
         <v>2.104517848243974</v>
       </c>
       <c r="L241">
-        <v>0.807738973231495</v>
-      </c>
-    </row>
-    <row r="242" spans="1:12">
+        <v>0.8077389732314951</v>
+      </c>
+      <c r="M241">
+        <v>1.029816986103685</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13">
       <c r="A242" s="2">
         <v>43265</v>
       </c>
@@ -9499,10 +10225,13 @@
         <v>1.750613038399139</v>
       </c>
       <c r="L242">
-        <v>0.9299747641495527</v>
-      </c>
-    </row>
-    <row r="243" spans="1:12">
+        <v>0.9299747641495525</v>
+      </c>
+      <c r="M242">
+        <v>1.030106657647533</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13">
       <c r="A243" s="2">
         <v>43266</v>
       </c>
@@ -9536,8 +10265,11 @@
       <c r="K243">
         <v>1.519517775709983</v>
       </c>
-    </row>
-    <row r="244" spans="1:12">
+      <c r="M243">
+        <v>1.032380748028242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13">
       <c r="A244" s="2">
         <v>43267</v>
       </c>
@@ -9574,8 +10306,11 @@
       <c r="L244">
         <v>0.7655372478554686</v>
       </c>
-    </row>
-    <row r="245" spans="1:12">
+      <c r="M244">
+        <v>1.039733217809118</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13">
       <c r="A245" s="2">
         <v>43268</v>
       </c>
@@ -9612,8 +10347,11 @@
       <c r="L245">
         <v>0.7517740409329028</v>
       </c>
-    </row>
-    <row r="246" spans="1:12">
+      <c r="M245">
+        <v>1.035732194778726</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13">
       <c r="A246" s="2">
         <v>43269</v>
       </c>
@@ -9650,8 +10388,11 @@
       <c r="L246">
         <v>0.8775457723439204</v>
       </c>
-    </row>
-    <row r="247" spans="1:12">
+      <c r="M246">
+        <v>1.031968675800555</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13">
       <c r="A247" s="2">
         <v>43270</v>
       </c>
@@ -9688,8 +10429,11 @@
       <c r="L247">
         <v>0.7658253594049144</v>
       </c>
-    </row>
-    <row r="248" spans="1:12">
+      <c r="M247">
+        <v>1.020121725805841</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13">
       <c r="A248" s="2">
         <v>43271</v>
       </c>
@@ -9724,10 +10468,13 @@
         <v>1.828797866291468</v>
       </c>
       <c r="L248">
-        <v>0.7785782310941165</v>
-      </c>
-    </row>
-    <row r="249" spans="1:12">
+        <v>0.7785782310941164</v>
+      </c>
+      <c r="M248">
+        <v>1.016156103952555</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13">
       <c r="A249" s="2">
         <v>43272</v>
       </c>
@@ -9762,10 +10509,13 @@
         <v>2.49146414855276</v>
       </c>
       <c r="L249">
-        <v>0.8021333764723119</v>
-      </c>
-    </row>
-    <row r="250" spans="1:12">
+        <v>0.8021333764723116</v>
+      </c>
+      <c r="M249">
+        <v>1.017595365408472</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13">
       <c r="A250" s="2">
         <v>43273</v>
       </c>
@@ -9802,8 +10552,11 @@
       <c r="L250">
         <v>0.985933891980792</v>
       </c>
-    </row>
-    <row r="251" spans="1:12">
+      <c r="M250">
+        <v>1.021460737014527</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13">
       <c r="A251" s="2">
         <v>43274</v>
       </c>
@@ -9840,8 +10593,11 @@
       <c r="L251">
         <v>0.7978818260602014</v>
       </c>
-    </row>
-    <row r="252" spans="1:12">
+      <c r="M251">
+        <v>1.025453168887232</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13">
       <c r="A252" s="2">
         <v>43275</v>
       </c>
@@ -9878,8 +10634,11 @@
       <c r="L252">
         <v>0.9329095449269572</v>
       </c>
-    </row>
-    <row r="253" spans="1:12">
+      <c r="M252">
+        <v>1.027897608547062</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13">
       <c r="A253" s="2">
         <v>43276</v>
       </c>
@@ -9916,8 +10675,11 @@
       <c r="L253">
         <v>1.012470837619953</v>
       </c>
-    </row>
-    <row r="254" spans="1:12">
+      <c r="M253">
+        <v>1.023515508133917</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13">
       <c r="A254" s="2">
         <v>43277</v>
       </c>
@@ -9952,10 +10714,13 @@
         <v>2.523493664718905</v>
       </c>
       <c r="L254">
-        <v>0.7767465697481879</v>
-      </c>
-    </row>
-    <row r="255" spans="1:12">
+        <v>0.776746569748188</v>
+      </c>
+      <c r="M254">
+        <v>1.012524075097643</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13">
       <c r="A255" s="2">
         <v>43278</v>
       </c>
@@ -9992,8 +10757,11 @@
       <c r="L255">
         <v>0.8020719239817594</v>
       </c>
-    </row>
-    <row r="256" spans="1:12">
+      <c r="M255">
+        <v>1.014572527197181</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13">
       <c r="A256" s="2">
         <v>43279</v>
       </c>
@@ -10028,10 +10796,13 @@
         <v>2.706916738302336</v>
       </c>
       <c r="L256">
-        <v>2.659272104977237</v>
-      </c>
-    </row>
-    <row r="257" spans="1:12">
+        <v>2.659272104977236</v>
+      </c>
+      <c r="M256">
+        <v>1.017414224044613</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13">
       <c r="A257" s="2">
         <v>43280</v>
       </c>
@@ -10068,8 +10839,11 @@
       <c r="L257">
         <v>1.34224336768347</v>
       </c>
-    </row>
-    <row r="258" spans="1:12">
+      <c r="M257">
+        <v>1.017741396395458</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13">
       <c r="A258" s="2">
         <v>43281</v>
       </c>
@@ -10106,8 +10880,11 @@
       <c r="L258">
         <v>0.7023077491938953</v>
       </c>
-    </row>
-    <row r="259" spans="1:12">
+      <c r="M258">
+        <v>1.022669455286182</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13">
       <c r="A259" s="2">
         <v>43282</v>
       </c>
@@ -10144,8 +10921,11 @@
       <c r="L259">
         <v>0.7544078262462345</v>
       </c>
-    </row>
-    <row r="260" spans="1:12">
+      <c r="M259">
+        <v>1.025226450638104</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13">
       <c r="A260" s="2">
         <v>43283</v>
       </c>
@@ -10182,8 +10962,11 @@
       <c r="L260">
         <v>0.6715654578787924</v>
       </c>
-    </row>
-    <row r="261" spans="1:12">
+      <c r="M260">
+        <v>1.020420866621292</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13">
       <c r="A261" s="2">
         <v>43284</v>
       </c>
@@ -10220,8 +11003,11 @@
       <c r="L261">
         <v>0.6776887032627776</v>
       </c>
-    </row>
-    <row r="262" spans="1:12">
+      <c r="M261">
+        <v>1.015772634527267</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13">
       <c r="A262" s="2">
         <v>43285</v>
       </c>
@@ -10258,8 +11044,11 @@
       <c r="L262">
         <v>0.6340433186388656</v>
       </c>
-    </row>
-    <row r="263" spans="1:12">
+      <c r="M262">
+        <v>1.014279339634409</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13">
       <c r="A263" s="2">
         <v>43286</v>
       </c>
@@ -10294,10 +11083,13 @@
         <v>2.132590105149833</v>
       </c>
       <c r="L263">
-        <v>0.8630433961369981</v>
-      </c>
-    </row>
-    <row r="264" spans="1:12">
+        <v>0.8630433961369978</v>
+      </c>
+      <c r="M263">
+        <v>1.016082444215315</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13">
       <c r="A264" s="2">
         <v>43287</v>
       </c>
@@ -10334,8 +11126,11 @@
       <c r="L264">
         <v>0.7827602518857337</v>
       </c>
-    </row>
-    <row r="265" spans="1:12">
+      <c r="M264">
+        <v>1.021723237121402</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13">
       <c r="A265" s="2">
         <v>43288</v>
       </c>
@@ -10372,8 +11167,11 @@
       <c r="L265">
         <v>0.6945961458937664</v>
       </c>
-    </row>
-    <row r="266" spans="1:12">
+      <c r="M265">
+        <v>1.022714173446168</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13">
       <c r="A266" s="2">
         <v>43289</v>
       </c>
@@ -10407,8 +11205,11 @@
       <c r="K266">
         <v>1.97426157196669</v>
       </c>
-    </row>
-    <row r="267" spans="1:12">
+      <c r="M266">
+        <v>1.019515182957753</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13">
       <c r="A267" s="2">
         <v>43290</v>
       </c>
@@ -10445,8 +11246,11 @@
       <c r="L267">
         <v>0.6545270286201986</v>
       </c>
-    </row>
-    <row r="268" spans="1:12">
+      <c r="M267">
+        <v>1.021968615822131</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13">
       <c r="A268" s="2">
         <v>43291</v>
       </c>
@@ -10483,8 +11287,11 @@
       <c r="L268">
         <v>0.9005630689560618</v>
       </c>
-    </row>
-    <row r="269" spans="1:12">
+      <c r="M268">
+        <v>1.028296535481901</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13">
       <c r="A269" s="2">
         <v>43292</v>
       </c>
@@ -10521,8 +11328,11 @@
       <c r="L269">
         <v>1.120220039367288</v>
       </c>
-    </row>
-    <row r="270" spans="1:12">
+      <c r="M269">
+        <v>1.032034527488887</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13">
       <c r="A270" s="2">
         <v>43293</v>
       </c>
@@ -10557,10 +11367,13 @@
         <v>2.01829675392453</v>
       </c>
       <c r="L270">
-        <v>0.9467220042930883</v>
-      </c>
-    </row>
-    <row r="271" spans="1:12">
+        <v>0.9467220042930884</v>
+      </c>
+      <c r="M270">
+        <v>1.019284367074361</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13">
       <c r="A271" s="2">
         <v>43294</v>
       </c>
@@ -10595,10 +11408,13 @@
         <v>2.605116376242287</v>
       </c>
       <c r="L271">
-        <v>0.9496522045252667</v>
-      </c>
-    </row>
-    <row r="272" spans="1:12">
+        <v>0.9496522045252666</v>
+      </c>
+      <c r="M271">
+        <v>1.009460842519362</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13">
       <c r="A272" s="2">
         <v>43295</v>
       </c>
@@ -10635,8 +11451,11 @@
       <c r="L272">
         <v>0.8431142137161451</v>
       </c>
-    </row>
-    <row r="273" spans="1:12">
+      <c r="M272">
+        <v>1.012888295540417</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13">
       <c r="A273" s="2">
         <v>43296</v>
       </c>
@@ -10673,8 +11492,11 @@
       <c r="L273">
         <v>0.8788655543226525</v>
       </c>
-    </row>
-    <row r="274" spans="1:12">
+      <c r="M273">
+        <v>1.011122509743463</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13">
       <c r="A274" s="2">
         <v>43297</v>
       </c>
@@ -10711,8 +11533,11 @@
       <c r="L274">
         <v>0.6964666122451461</v>
       </c>
-    </row>
-    <row r="275" spans="1:12">
+      <c r="M274">
+        <v>1.007837340306578</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13">
       <c r="A275" s="2">
         <v>43298</v>
       </c>
@@ -10749,8 +11574,11 @@
       <c r="L275">
         <v>0.8006193147249094</v>
       </c>
-    </row>
-    <row r="276" spans="1:12">
+      <c r="M275">
+        <v>1.008421279665257</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13">
       <c r="A276" s="2">
         <v>43299</v>
       </c>
@@ -10787,8 +11615,11 @@
       <c r="L276">
         <v>0.9110384752570122</v>
       </c>
-    </row>
-    <row r="277" spans="1:12">
+      <c r="M276">
+        <v>1.008267797882913</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13">
       <c r="A277" s="2">
         <v>43300</v>
       </c>
@@ -10822,8 +11653,11 @@
       <c r="K277">
         <v>2.732144876184011</v>
       </c>
-    </row>
-    <row r="278" spans="1:12">
+      <c r="M277">
+        <v>1.006964288018186</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13">
       <c r="A278" s="2">
         <v>43301</v>
       </c>
@@ -10858,10 +11692,13 @@
         <v>2.575451991185614</v>
       </c>
       <c r="L278">
-        <v>0.9120374585080158</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12">
+        <v>0.9120374585080159</v>
+      </c>
+      <c r="M278">
+        <v>1.008196607679355</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13">
       <c r="A279" s="2">
         <v>43302</v>
       </c>
@@ -10895,8 +11732,11 @@
       <c r="K279">
         <v>2.641749730026468</v>
       </c>
-    </row>
-    <row r="280" spans="1:12">
+      <c r="M279">
+        <v>1.006773247798879</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13">
       <c r="A280" s="2">
         <v>43303</v>
       </c>
@@ -10933,8 +11773,11 @@
       <c r="L280">
         <v>0.671230074851345</v>
       </c>
-    </row>
-    <row r="281" spans="1:12">
+      <c r="M280">
+        <v>1.008677810276675</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13">
       <c r="A281" s="2">
         <v>43304</v>
       </c>
@@ -10971,8 +11814,11 @@
       <c r="L281">
         <v>0.7892681735042361</v>
       </c>
-    </row>
-    <row r="282" spans="1:12">
+      <c r="M281">
+        <v>1.011100061116945</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13">
       <c r="A282" s="2">
         <v>43305</v>
       </c>
@@ -11009,8 +11855,11 @@
       <c r="L282">
         <v>0.7540555809275906</v>
       </c>
-    </row>
-    <row r="283" spans="1:12">
+      <c r="M282">
+        <v>1.010404419734099</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13">
       <c r="A283" s="2">
         <v>43306</v>
       </c>
@@ -11047,8 +11896,11 @@
       <c r="L283">
         <v>0.7547493018870615</v>
       </c>
-    </row>
-    <row r="284" spans="1:12">
+      <c r="M283">
+        <v>1.011285584736807</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13">
       <c r="A284" s="2">
         <v>43307</v>
       </c>
@@ -11085,8 +11937,11 @@
       <c r="L284">
         <v>1.121344624054627</v>
       </c>
-    </row>
-    <row r="285" spans="1:12">
+      <c r="M284">
+        <v>1.011426573445161</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13">
       <c r="A285" s="2">
         <v>43308</v>
       </c>
@@ -11123,8 +11978,11 @@
       <c r="L285">
         <v>0.8180686515099419</v>
       </c>
-    </row>
-    <row r="286" spans="1:12">
+      <c r="M285">
+        <v>1.010848572124731</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13">
       <c r="A286" s="2">
         <v>43309</v>
       </c>
@@ -11161,8 +12019,11 @@
       <c r="L286">
         <v>0.7772245003946756</v>
       </c>
-    </row>
-    <row r="287" spans="1:12">
+      <c r="M286">
+        <v>1.010736613616062</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13">
       <c r="A287" s="2">
         <v>43310</v>
       </c>
@@ -11196,8 +12057,11 @@
       <c r="K287">
         <v>1.574698457967825</v>
       </c>
-    </row>
-    <row r="288" spans="1:12">
+      <c r="M287">
+        <v>1.010471701910696</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13">
       <c r="A288" s="2">
         <v>43311</v>
       </c>
@@ -11234,8 +12098,11 @@
       <c r="L288">
         <v>0.7268821183797248</v>
       </c>
-    </row>
-    <row r="289" spans="1:12">
+      <c r="M288">
+        <v>1.007925674860148</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13">
       <c r="A289" s="2">
         <v>43312</v>
       </c>
@@ -11272,8 +12139,11 @@
       <c r="L289">
         <v>0.7903419657804106</v>
       </c>
-    </row>
-    <row r="290" spans="1:12">
+      <c r="M289">
+        <v>1.004064215189283</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13">
       <c r="A290" s="2">
         <v>43313</v>
       </c>
@@ -11310,8 +12180,11 @@
       <c r="L290">
         <v>0.8589556976930541</v>
       </c>
-    </row>
-    <row r="291" spans="1:12">
+      <c r="M290">
+        <v>1.005657108550768</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13">
       <c r="A291" s="2">
         <v>43314</v>
       </c>
@@ -11346,10 +12219,13 @@
         <v>1.541093333878409</v>
       </c>
       <c r="L291">
-        <v>0.7674986631881904</v>
-      </c>
-    </row>
-    <row r="292" spans="1:12">
+        <v>0.7674986631881905</v>
+      </c>
+      <c r="M291">
+        <v>1.004817950252584</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13">
       <c r="A292" s="2">
         <v>43315</v>
       </c>
@@ -11386,8 +12262,11 @@
       <c r="L292">
         <v>0.889200526842277</v>
       </c>
-    </row>
-    <row r="293" spans="1:12">
+      <c r="M292">
+        <v>1.004478871136232</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13">
       <c r="A293" s="2">
         <v>43316</v>
       </c>
@@ -11421,8 +12300,11 @@
       <c r="K293">
         <v>1.119297962196176</v>
       </c>
-    </row>
-    <row r="294" spans="1:12">
+      <c r="M293">
+        <v>1.00333480578476</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13">
       <c r="A294" s="2">
         <v>43317</v>
       </c>
@@ -11459,8 +12341,11 @@
       <c r="L294">
         <v>0.8697913542850703</v>
       </c>
-    </row>
-    <row r="295" spans="1:12">
+      <c r="M294">
+        <v>1.006913499119547</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13">
       <c r="A295" s="2">
         <v>43318</v>
       </c>
@@ -11497,8 +12382,11 @@
       <c r="L295">
         <v>0.7704904432108537</v>
       </c>
-    </row>
-    <row r="296" spans="1:12">
+      <c r="M295">
+        <v>1.002894995769494</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13">
       <c r="A296" s="2">
         <v>43319</v>
       </c>
@@ -11535,8 +12423,11 @@
       <c r="L296">
         <v>0.7442327236516572</v>
       </c>
-    </row>
-    <row r="297" spans="1:12">
+      <c r="M296">
+        <v>1.001297431106947</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13">
       <c r="A297" s="2">
         <v>43320</v>
       </c>
@@ -11571,10 +12462,13 @@
         <v>0.8812642916626949</v>
       </c>
       <c r="L297">
-        <v>0.8308608149791387</v>
-      </c>
-    </row>
-    <row r="298" spans="1:12">
+        <v>0.8308608149791386</v>
+      </c>
+      <c r="M297">
+        <v>1.008456647829106</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13">
       <c r="A298" s="2">
         <v>43321</v>
       </c>
@@ -11609,10 +12503,13 @@
         <v>0.8038084327020077</v>
       </c>
       <c r="L298">
-        <v>0.7993550415162062</v>
-      </c>
-    </row>
-    <row r="299" spans="1:12">
+        <v>0.7993550415162061</v>
+      </c>
+      <c r="M298">
+        <v>1.009254794787105</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13">
       <c r="A299" s="2">
         <v>43322</v>
       </c>
@@ -11649,8 +12546,11 @@
       <c r="L299">
         <v>0.9609312454236248</v>
       </c>
-    </row>
-    <row r="300" spans="1:12">
+      <c r="M299">
+        <v>1.019769381110905</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13">
       <c r="A300" s="2">
         <v>43323</v>
       </c>
@@ -11687,8 +12587,11 @@
       <c r="L300">
         <v>0.9216076926831613</v>
       </c>
-    </row>
-    <row r="301" spans="1:12">
+      <c r="M300">
+        <v>1.014823102111727</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13">
       <c r="A301" s="2">
         <v>43324</v>
       </c>
@@ -11725,8 +12628,11 @@
       <c r="L301">
         <v>0.852577230551014</v>
       </c>
-    </row>
-    <row r="302" spans="1:12">
+      <c r="M301">
+        <v>1.017029604521994</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13">
       <c r="A302" s="2">
         <v>43325</v>
       </c>
@@ -11760,8 +12666,11 @@
       <c r="K302">
         <v>0.5344947960252386</v>
       </c>
-    </row>
-    <row r="303" spans="1:12">
+      <c r="M302">
+        <v>1.013637258363019</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13">
       <c r="A303" s="2">
         <v>43326</v>
       </c>
@@ -11798,8 +12707,11 @@
       <c r="L303">
         <v>0.8535324603598122</v>
       </c>
-    </row>
-    <row r="304" spans="1:12">
+      <c r="M303">
+        <v>1.018425141493246</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13">
       <c r="A304" s="2">
         <v>43327</v>
       </c>
@@ -11836,8 +12748,11 @@
       <c r="L304">
         <v>0.9980089330284122</v>
       </c>
-    </row>
-    <row r="305" spans="1:12">
+      <c r="M304">
+        <v>1.008668629244033</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13">
       <c r="A305" s="2">
         <v>43328</v>
       </c>
@@ -11874,8 +12789,11 @@
       <c r="L305">
         <v>0.9298872692324772</v>
       </c>
-    </row>
-    <row r="306" spans="1:12">
+      <c r="M305">
+        <v>1.00559311999216</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13">
       <c r="A306" s="2">
         <v>43329</v>
       </c>
@@ -11912,8 +12830,11 @@
       <c r="L306">
         <v>0.7909092764142346</v>
       </c>
-    </row>
-    <row r="307" spans="1:12">
+      <c r="M306">
+        <v>1.00308125851842</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13">
       <c r="A307" s="2">
         <v>43330</v>
       </c>
@@ -11950,8 +12871,11 @@
       <c r="L307">
         <v>1.017050128664767</v>
       </c>
-    </row>
-    <row r="308" spans="1:12">
+      <c r="M307">
+        <v>1.002469511339502</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13">
       <c r="A308" s="2">
         <v>43331</v>
       </c>
@@ -11988,8 +12912,11 @@
       <c r="L308">
         <v>0.7797206270181236</v>
       </c>
-    </row>
-    <row r="309" spans="1:12">
+      <c r="M308">
+        <v>1.003171786983911</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13">
       <c r="A309" s="2">
         <v>43332</v>
       </c>
@@ -12026,8 +12953,11 @@
       <c r="L309">
         <v>0.8959064482607382</v>
       </c>
-    </row>
-    <row r="310" spans="1:12">
+      <c r="M309">
+        <v>1.004782062904379</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13">
       <c r="A310" s="2">
         <v>43333</v>
       </c>
@@ -12064,8 +12994,11 @@
       <c r="L310">
         <v>0.8337489590547802</v>
       </c>
-    </row>
-    <row r="311" spans="1:12">
+      <c r="M310">
+        <v>1.006420351323658</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13">
       <c r="A311" s="2">
         <v>43334</v>
       </c>
@@ -12102,8 +13035,11 @@
       <c r="L311">
         <v>0.9540846826118425</v>
       </c>
-    </row>
-    <row r="312" spans="1:12">
+      <c r="M311">
+        <v>1.003954711888591</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13">
       <c r="A312" s="2">
         <v>43335</v>
       </c>
@@ -12140,8 +13076,11 @@
       <c r="L312">
         <v>0.7753219412904719</v>
       </c>
-    </row>
-    <row r="313" spans="1:12">
+      <c r="M312">
+        <v>1.010012881401207</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13">
       <c r="A313" s="2">
         <v>43336</v>
       </c>
@@ -12176,10 +13115,13 @@
         <v>-0.423276137449555</v>
       </c>
       <c r="L313">
-        <v>0.8590504486134908</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12">
+        <v>0.8590504486134907</v>
+      </c>
+      <c r="M313">
+        <v>1.007782198961263</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13">
       <c r="A314" s="2">
         <v>43337</v>
       </c>
@@ -12214,10 +13156,13 @@
         <v>-0.2669110387112087</v>
       </c>
       <c r="L314">
-        <v>0.7823144978910685</v>
-      </c>
-    </row>
-    <row r="315" spans="1:12">
+        <v>0.7823144978910688</v>
+      </c>
+      <c r="M314">
+        <v>1.008536305373514</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13">
       <c r="A315" s="2">
         <v>43338</v>
       </c>
@@ -12254,8 +13199,11 @@
       <c r="L315">
         <v>0.7886527938944995</v>
       </c>
-    </row>
-    <row r="316" spans="1:12">
+      <c r="M315">
+        <v>1.014081867396611</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13">
       <c r="A316" s="2">
         <v>43339</v>
       </c>
@@ -12290,10 +13238,13 @@
         <v>-0.2769098875636702</v>
       </c>
       <c r="L316">
-        <v>0.7234441324762938</v>
-      </c>
-    </row>
-    <row r="317" spans="1:12">
+        <v>0.7234441324762937</v>
+      </c>
+      <c r="M316">
+        <v>1.009583855260841</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13">
       <c r="A317" s="2">
         <v>43340</v>
       </c>
@@ -12328,10 +13279,13 @@
         <v>-0.4072799119026443</v>
       </c>
       <c r="L317">
-        <v>0.763725521205428</v>
-      </c>
-    </row>
-    <row r="318" spans="1:12">
+        <v>0.7637255212054281</v>
+      </c>
+      <c r="M317">
+        <v>1.009637823139854</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13">
       <c r="A318" s="2">
         <v>43341</v>
       </c>
@@ -12366,10 +13320,13 @@
         <v>-0.4137883665441996</v>
       </c>
       <c r="L318">
-        <v>0.8062001874518862</v>
-      </c>
-    </row>
-    <row r="319" spans="1:12">
+        <v>0.8062001874518865</v>
+      </c>
+      <c r="M318">
+        <v>1.005586581038564</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13">
       <c r="A319" s="2">
         <v>43342</v>
       </c>
@@ -12406,8 +13363,11 @@
       <c r="L319">
         <v>0.8615351408572197</v>
       </c>
-    </row>
-    <row r="320" spans="1:12">
+      <c r="M319">
+        <v>1.006144019940761</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13">
       <c r="A320" s="2">
         <v>43343</v>
       </c>
@@ -12444,8 +13404,11 @@
       <c r="L320">
         <v>0.7618617666330177</v>
       </c>
-    </row>
-    <row r="321" spans="1:12">
+      <c r="M320">
+        <v>1.007180553262577</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13">
       <c r="A321" s="2">
         <v>43344</v>
       </c>
@@ -12482,8 +13445,11 @@
       <c r="L321">
         <v>0.7018000653308428</v>
       </c>
-    </row>
-    <row r="322" spans="1:12">
+      <c r="M321">
+        <v>1.010084781844119</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13">
       <c r="A322" s="2">
         <v>43345</v>
       </c>
@@ -12520,8 +13486,11 @@
       <c r="L322">
         <v>0.6392788976773836</v>
       </c>
-    </row>
-    <row r="323" spans="1:12">
+      <c r="M322">
+        <v>1.01234793857017</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13">
       <c r="A323" s="2">
         <v>43346</v>
       </c>
@@ -12558,8 +13527,11 @@
       <c r="L323">
         <v>0.8492016673624868</v>
       </c>
-    </row>
-    <row r="324" spans="1:12">
+      <c r="M323">
+        <v>1.012977077931024</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13">
       <c r="A324" s="2">
         <v>43347</v>
       </c>
@@ -12594,10 +13566,13 @@
         <v>0.8048391931620822</v>
       </c>
       <c r="L324">
-        <v>0.6933618284435152</v>
-      </c>
-    </row>
-    <row r="325" spans="1:12">
+        <v>0.6933618284435155</v>
+      </c>
+      <c r="M324">
+        <v>1.012826612559946</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13">
       <c r="A325" s="2">
         <v>43348</v>
       </c>
@@ -12632,10 +13607,13 @@
         <v>0.9592356718476506</v>
       </c>
       <c r="L325">
-        <v>0.7338992833629292</v>
-      </c>
-    </row>
-    <row r="326" spans="1:12">
+        <v>0.7338992833629291</v>
+      </c>
+      <c r="M325">
+        <v>1.012994946160287</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13">
       <c r="A326" s="2">
         <v>43349</v>
       </c>
@@ -12670,10 +13648,13 @@
         <v>0.7606715920281043</v>
       </c>
       <c r="L326">
-        <v>0.7500041967661514</v>
-      </c>
-    </row>
-    <row r="327" spans="1:12">
+        <v>0.7500041967661513</v>
+      </c>
+      <c r="M326">
+        <v>1.013883296872953</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13">
       <c r="A327" s="2">
         <v>43350</v>
       </c>
@@ -12710,8 +13691,11 @@
       <c r="L327">
         <v>0.7859621440292341</v>
       </c>
-    </row>
-    <row r="328" spans="1:12">
+      <c r="M327">
+        <v>1.019672043058086</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13">
       <c r="A328" s="2">
         <v>43351</v>
       </c>
@@ -12746,10 +13730,13 @@
         <v>1.066579344118088</v>
       </c>
       <c r="L328">
-        <v>0.7172663593065866</v>
-      </c>
-    </row>
-    <row r="329" spans="1:12">
+        <v>0.7172663593065867</v>
+      </c>
+      <c r="M328">
+        <v>1.024650223791164</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13">
       <c r="A329" s="2">
         <v>43352</v>
       </c>
@@ -12784,10 +13771,13 @@
         <v>2.082307436795082</v>
       </c>
       <c r="L329">
-        <v>0.8105905755847893</v>
-      </c>
-    </row>
-    <row r="330" spans="1:12">
+        <v>0.8105905755847894</v>
+      </c>
+      <c r="M329">
+        <v>1.029927690527371</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13">
       <c r="A330" s="2">
         <v>43353</v>
       </c>
@@ -12822,10 +13812,13 @@
         <v>2.144518279951354</v>
       </c>
       <c r="L330">
-        <v>0.674648283306019</v>
-      </c>
-    </row>
-    <row r="331" spans="1:12">
+        <v>0.6746482833060189</v>
+      </c>
+      <c r="M330">
+        <v>1.02607939766945</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13">
       <c r="A331" s="2">
         <v>43354</v>
       </c>
@@ -12860,10 +13853,13 @@
         <v>2.114237500329645</v>
       </c>
       <c r="L331">
-        <v>0.6976604975750318</v>
-      </c>
-    </row>
-    <row r="332" spans="1:12">
+        <v>0.6976604975750317</v>
+      </c>
+      <c r="M331">
+        <v>1.020188542697558</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13">
       <c r="A332" s="2">
         <v>43355</v>
       </c>
@@ -12900,8 +13896,11 @@
       <c r="L332">
         <v>0.7270051205001722</v>
       </c>
-    </row>
-    <row r="333" spans="1:12">
+      <c r="M332">
+        <v>1.021638976986676</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13">
       <c r="A333" s="2">
         <v>43356</v>
       </c>
@@ -12938,8 +13937,11 @@
       <c r="L333">
         <v>0.5100022069734775</v>
       </c>
-    </row>
-    <row r="334" spans="1:12">
+      <c r="M333">
+        <v>1.015805594100461</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13">
       <c r="A334" s="2">
         <v>43357</v>
       </c>
@@ -12974,10 +13976,13 @@
         <v>2.319083034798462</v>
       </c>
       <c r="L334">
-        <v>0.7348759271977116</v>
-      </c>
-    </row>
-    <row r="335" spans="1:12">
+        <v>0.7348759271977114</v>
+      </c>
+      <c r="M334">
+        <v>1.007876532141188</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13">
       <c r="A335" s="2">
         <v>43358</v>
       </c>
@@ -13011,8 +14016,11 @@
       <c r="K335">
         <v>2.320899949779466</v>
       </c>
-    </row>
-    <row r="336" spans="1:12">
+      <c r="M335">
+        <v>1.008280433515047</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13">
       <c r="A336" s="2">
         <v>43359</v>
       </c>
@@ -13046,8 +14054,11 @@
       <c r="K336">
         <v>2.673512360108594</v>
       </c>
-    </row>
-    <row r="337" spans="1:12">
+      <c r="M336">
+        <v>1.009336110565323</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13">
       <c r="A337" s="2">
         <v>43360</v>
       </c>
@@ -13084,8 +14095,11 @@
       <c r="L337">
         <v>0.9491232219524456</v>
       </c>
-    </row>
-    <row r="338" spans="1:12">
+      <c r="M337">
+        <v>1.013003387542398</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13">
       <c r="A338" s="2">
         <v>43361</v>
       </c>
@@ -13120,10 +14134,13 @@
         <v>2.221029672326055</v>
       </c>
       <c r="L338">
-        <v>0.9300200673816976</v>
-      </c>
-    </row>
-    <row r="339" spans="1:12">
+        <v>0.930020067381698</v>
+      </c>
+      <c r="M338">
+        <v>1.014502858230491</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13">
       <c r="A339" s="2">
         <v>43362</v>
       </c>
@@ -13160,8 +14177,11 @@
       <c r="L339">
         <v>1.171506818402779</v>
       </c>
-    </row>
-    <row r="340" spans="1:12">
+      <c r="M339">
+        <v>1.008608025917769</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13">
       <c r="A340" s="2">
         <v>43363</v>
       </c>
@@ -13198,8 +14218,11 @@
       <c r="L340">
         <v>0.644100903733551</v>
       </c>
-    </row>
-    <row r="341" spans="1:12">
+      <c r="M340">
+        <v>1.009048880017788</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13">
       <c r="A341" s="2">
         <v>43364</v>
       </c>
@@ -13236,8 +14259,11 @@
       <c r="L341">
         <v>0.7656982474157082</v>
       </c>
-    </row>
-    <row r="342" spans="1:12">
+      <c r="M341">
+        <v>1.005944488612302</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13">
       <c r="A342" s="2">
         <v>43365</v>
       </c>
@@ -13271,8 +14297,11 @@
       <c r="K342">
         <v>3.428203269153</v>
       </c>
-    </row>
-    <row r="343" spans="1:12">
+      <c r="M342">
+        <v>1.003496709509452</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13">
       <c r="A343" s="2">
         <v>43366</v>
       </c>
@@ -13306,8 +14335,11 @@
       <c r="K343">
         <v>3.681825682188189</v>
       </c>
-    </row>
-    <row r="344" spans="1:12">
+      <c r="M343">
+        <v>1.003831956397434</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13">
       <c r="A344" s="2">
         <v>43367</v>
       </c>
@@ -13344,8 +14376,11 @@
       <c r="L344">
         <v>0.8368625274351764</v>
       </c>
-    </row>
-    <row r="345" spans="1:12">
+      <c r="M344">
+        <v>1.00361260402028</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13">
       <c r="A345" s="2">
         <v>43368</v>
       </c>
@@ -13382,8 +14417,11 @@
       <c r="L345">
         <v>0.6809910452713447</v>
       </c>
-    </row>
-    <row r="346" spans="1:12">
+      <c r="M345">
+        <v>1.005496042645922</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13">
       <c r="A346" s="2">
         <v>43369</v>
       </c>
@@ -13420,8 +14458,11 @@
       <c r="L346">
         <v>0.6068004269195216</v>
       </c>
-    </row>
-    <row r="347" spans="1:12">
+      <c r="M346">
+        <v>1.00477464687404</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13">
       <c r="A347" s="2">
         <v>43370</v>
       </c>
@@ -13458,8 +14499,11 @@
       <c r="L347">
         <v>0.7561161146736513</v>
       </c>
-    </row>
-    <row r="348" spans="1:12">
+      <c r="M347">
+        <v>1.004477658507008</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13">
       <c r="A348" s="2">
         <v>43371</v>
       </c>
@@ -13496,8 +14540,11 @@
       <c r="L348">
         <v>1.533532664541968</v>
       </c>
-    </row>
-    <row r="349" spans="1:12">
+      <c r="M348">
+        <v>1.002638142365915</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13">
       <c r="A349" s="2">
         <v>43372</v>
       </c>
@@ -13534,8 +14581,11 @@
       <c r="L349">
         <v>0.6278523333105227</v>
       </c>
-    </row>
-    <row r="350" spans="1:12">
+      <c r="M349">
+        <v>1.006185244190495</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13">
       <c r="A350" s="2">
         <v>43373</v>
       </c>
@@ -13569,8 +14619,11 @@
       <c r="K350">
         <v>3.298648641679467</v>
       </c>
-    </row>
-    <row r="351" spans="1:12">
+      <c r="M350">
+        <v>1.004684665206885</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13">
       <c r="A351" s="2">
         <v>43374</v>
       </c>
@@ -13607,8 +14660,11 @@
       <c r="L351">
         <v>0.6437952736215216</v>
       </c>
-    </row>
-    <row r="352" spans="1:12">
+      <c r="M351">
+        <v>1.007153783842848</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13">
       <c r="A352" s="2">
         <v>43375</v>
       </c>
@@ -13645,8 +14701,11 @@
       <c r="L352">
         <v>0.9345104441676049</v>
       </c>
-    </row>
-    <row r="353" spans="1:12">
+      <c r="M352">
+        <v>1.010986996660299</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13">
       <c r="A353" s="2">
         <v>43376</v>
       </c>
@@ -13681,10 +14740,13 @@
         <v>3.421644766285006</v>
       </c>
       <c r="L353">
-        <v>0.7146620001194547</v>
-      </c>
-    </row>
-    <row r="354" spans="1:12">
+        <v>0.7146620001194546</v>
+      </c>
+      <c r="M353">
+        <v>1.019498995548959</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13">
       <c r="A354" s="2">
         <v>43377</v>
       </c>
@@ -13721,8 +14783,11 @@
       <c r="L354">
         <v>0.7086944696004895</v>
       </c>
-    </row>
-    <row r="355" spans="1:12">
+      <c r="M354">
+        <v>1.014705863309336</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13">
       <c r="A355" s="2">
         <v>43378</v>
       </c>
@@ -13759,8 +14824,11 @@
       <c r="L355">
         <v>0.5099221844905554</v>
       </c>
-    </row>
-    <row r="356" spans="1:12">
+      <c r="M355">
+        <v>1.013775135773176</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13">
       <c r="A356" s="2">
         <v>43379</v>
       </c>
@@ -13797,8 +14865,11 @@
       <c r="L356">
         <v>0.6725901989454371</v>
       </c>
-    </row>
-    <row r="357" spans="1:12">
+      <c r="M356">
+        <v>1.010410339225484</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13">
       <c r="A357" s="2">
         <v>43380</v>
       </c>
@@ -13835,8 +14906,11 @@
       <c r="L357">
         <v>0.5153204449867342</v>
       </c>
-    </row>
-    <row r="358" spans="1:12">
+      <c r="M357">
+        <v>1.012996665319325</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13">
       <c r="A358" s="2">
         <v>43381</v>
       </c>
@@ -13871,10 +14945,13 @@
         <v>1.453076323483755</v>
       </c>
       <c r="L358">
-        <v>0.6354992674825617</v>
-      </c>
-    </row>
-    <row r="359" spans="1:12">
+        <v>0.6354992674825619</v>
+      </c>
+      <c r="M358">
+        <v>1.011214024244272</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13">
       <c r="A359" s="2">
         <v>43382</v>
       </c>
@@ -13911,8 +14988,11 @@
       <c r="L359">
         <v>0.6816341789572231</v>
       </c>
-    </row>
-    <row r="360" spans="1:12">
+      <c r="M359">
+        <v>1.011521581537717</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13">
       <c r="A360" s="2">
         <v>43383</v>
       </c>
@@ -13949,8 +15029,11 @@
       <c r="L360">
         <v>1.269027560453416</v>
       </c>
-    </row>
-    <row r="361" spans="1:12">
+      <c r="M360">
+        <v>1.016794819617922</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13">
       <c r="A361" s="2">
         <v>43384</v>
       </c>
@@ -13987,8 +15070,11 @@
       <c r="L361">
         <v>0.7137374572051683</v>
       </c>
-    </row>
-    <row r="362" spans="1:12">
+      <c r="M361">
+        <v>1.034520705026158</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13">
       <c r="A362" s="2">
         <v>43385</v>
       </c>
@@ -14023,10 +15109,13 @@
         <v>2.223389542008064</v>
       </c>
       <c r="L362">
-        <v>0.892212762836944</v>
-      </c>
-    </row>
-    <row r="363" spans="1:12">
+        <v>0.8922127628369441</v>
+      </c>
+      <c r="M362">
+        <v>1.039902691632606</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13">
       <c r="A363" s="2">
         <v>43386</v>
       </c>
@@ -14063,8 +15152,11 @@
       <c r="L363">
         <v>0.4068171617298799</v>
       </c>
-    </row>
-    <row r="364" spans="1:12">
+      <c r="M363">
+        <v>1.040187760237724</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13">
       <c r="A364" s="2">
         <v>43387</v>
       </c>
@@ -14098,8 +15190,11 @@
       <c r="K364">
         <v>2.774936347613789</v>
       </c>
-    </row>
-    <row r="365" spans="1:12">
+      <c r="M364">
+        <v>1.041687316448038</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13">
       <c r="A365" s="2">
         <v>43388</v>
       </c>
@@ -14136,8 +15231,11 @@
       <c r="L365">
         <v>0.5639335693897833</v>
       </c>
-    </row>
-    <row r="366" spans="1:12">
+      <c r="M365">
+        <v>1.060780100867048</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13">
       <c r="A366" s="2">
         <v>43389</v>
       </c>
@@ -14171,8 +15269,11 @@
       <c r="K366">
         <v>2.353446838971726</v>
       </c>
-    </row>
-    <row r="367" spans="1:12">
+      <c r="M366">
+        <v>1.047554383238642</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13">
       <c r="A367" s="2">
         <v>43390</v>
       </c>
@@ -14209,8 +15310,11 @@
       <c r="L367">
         <v>0.3934867976899605</v>
       </c>
-    </row>
-    <row r="368" spans="1:12">
+      <c r="M367">
+        <v>1.046787142707768</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13">
       <c r="A368" s="2">
         <v>43391</v>
       </c>
@@ -14247,8 +15351,11 @@
       <c r="L368">
         <v>0.6278257269375007</v>
       </c>
-    </row>
-    <row r="369" spans="1:12">
+      <c r="M368">
+        <v>1.042049448701405</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13">
       <c r="A369" s="2">
         <v>43392</v>
       </c>
@@ -14283,10 +15390,13 @@
         <v>3.425530025328466</v>
       </c>
       <c r="L369">
-        <v>0.7643945314656916</v>
-      </c>
-    </row>
-    <row r="370" spans="1:12">
+        <v>0.7643945314656915</v>
+      </c>
+      <c r="M369">
+        <v>1.034976163846205</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13">
       <c r="A370" s="2">
         <v>43393</v>
       </c>
@@ -14323,8 +15433,11 @@
       <c r="L370">
         <v>0.4774700928555674</v>
       </c>
-    </row>
-    <row r="371" spans="1:12">
+      <c r="M370">
+        <v>1.031057880770478</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13">
       <c r="A371" s="2">
         <v>43394</v>
       </c>
@@ -14361,8 +15474,11 @@
       <c r="L371">
         <v>0.08475278793808659</v>
       </c>
-    </row>
-    <row r="372" spans="1:12">
+      <c r="M371">
+        <v>1.029756516313742</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13">
       <c r="A372" s="2">
         <v>43395</v>
       </c>
@@ -14397,10 +15513,13 @@
         <v>5.502468634373349</v>
       </c>
       <c r="L372">
-        <v>0.5082270132036126</v>
-      </c>
-    </row>
-    <row r="373" spans="1:12">
+        <v>0.5082270132036125</v>
+      </c>
+      <c r="M372">
+        <v>1.028511438484733</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13">
       <c r="A373" s="2">
         <v>43396</v>
       </c>
@@ -14435,10 +15554,13 @@
         <v>5.502282178952311</v>
       </c>
       <c r="L373">
-        <v>0.5436757497527041</v>
-      </c>
-    </row>
-    <row r="374" spans="1:12">
+        <v>0.5436757497527039</v>
+      </c>
+      <c r="M373">
+        <v>1.030689781475715</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13">
       <c r="A374" s="2">
         <v>43397</v>
       </c>
@@ -14475,8 +15597,11 @@
       <c r="L374">
         <v>0.2965688624111489</v>
       </c>
-    </row>
-    <row r="375" spans="1:12">
+      <c r="M374">
+        <v>1.031255372466071</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13">
       <c r="A375" s="2">
         <v>43398</v>
       </c>
@@ -14513,8 +15638,11 @@
       <c r="L375">
         <v>0.4996561758346491</v>
       </c>
-    </row>
-    <row r="376" spans="1:12">
+      <c r="M375">
+        <v>1.031863119306413</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13">
       <c r="A376" s="2">
         <v>43399</v>
       </c>
@@ -14551,8 +15679,11 @@
       <c r="L376">
         <v>0.4386632727381166</v>
       </c>
-    </row>
-    <row r="377" spans="1:12">
+      <c r="M376">
+        <v>1.033526089324868</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13">
       <c r="A377" s="2">
         <v>43400</v>
       </c>
@@ -14589,8 +15720,11 @@
       <c r="L377">
         <v>0.557279862137476</v>
       </c>
-    </row>
-    <row r="378" spans="1:12">
+      <c r="M377">
+        <v>1.031272041444893</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13">
       <c r="A378" s="2">
         <v>43401</v>
       </c>
@@ -14627,8 +15761,11 @@
       <c r="L378">
         <v>0.4871981120751165</v>
       </c>
-    </row>
-    <row r="379" spans="1:12">
+      <c r="M378">
+        <v>1.02921089889587</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13">
       <c r="A379" s="2">
         <v>43402</v>
       </c>
@@ -14665,8 +15802,11 @@
       <c r="L379">
         <v>0.4559838594115759</v>
       </c>
-    </row>
-    <row r="380" spans="1:12">
+      <c r="M379">
+        <v>1.031459471533867</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13">
       <c r="A380" s="2">
         <v>43403</v>
       </c>
@@ -14701,10 +15841,13 @@
         <v>8.441969554355387</v>
       </c>
       <c r="L380">
-        <v>0.3700074114985633</v>
-      </c>
-    </row>
-    <row r="381" spans="1:12">
+        <v>0.3700074114985634</v>
+      </c>
+      <c r="M380">
+        <v>1.031371622615059</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13">
       <c r="A381" s="2">
         <v>43404</v>
       </c>
@@ -14741,8 +15884,11 @@
       <c r="L381">
         <v>0.5600066982626706</v>
       </c>
-    </row>
-    <row r="382" spans="1:12">
+      <c r="M381">
+        <v>1.028000607260587</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13">
       <c r="A382" s="2">
         <v>43405</v>
       </c>
@@ -14779,8 +15925,11 @@
       <c r="L382">
         <v>0.4478529910869735</v>
       </c>
-    </row>
-    <row r="383" spans="1:12">
+      <c r="M382">
+        <v>1.025744127459136</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13">
       <c r="A383" s="2">
         <v>43406</v>
       </c>
@@ -14817,8 +15966,11 @@
       <c r="L383">
         <v>0.4846197839066882</v>
       </c>
-    </row>
-    <row r="384" spans="1:12">
+      <c r="M383">
+        <v>1.021571462519723</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13">
       <c r="A384" s="2">
         <v>43407</v>
       </c>
@@ -14855,8 +16007,11 @@
       <c r="L384">
         <v>0.5125871199872124</v>
       </c>
-    </row>
-    <row r="385" spans="1:12">
+      <c r="M384">
+        <v>1.019936676756788</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13">
       <c r="A385" s="2">
         <v>43408</v>
       </c>
@@ -14890,8 +16045,11 @@
       <c r="K385">
         <v>9.071130547353947</v>
       </c>
-    </row>
-    <row r="386" spans="1:12">
+      <c r="M385">
+        <v>1.014975544116414</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13">
       <c r="A386" s="2">
         <v>43409</v>
       </c>
@@ -14928,8 +16086,11 @@
       <c r="L386">
         <v>1.041430964358083</v>
       </c>
-    </row>
-    <row r="387" spans="1:12">
+      <c r="M386">
+        <v>1.010959535244966</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13">
       <c r="A387" s="2">
         <v>43410</v>
       </c>
@@ -14966,8 +16127,11 @@
       <c r="L387">
         <v>0.3277524964548581</v>
       </c>
-    </row>
-    <row r="388" spans="1:12">
+      <c r="M387">
+        <v>1.010788233888043</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13">
       <c r="A388" s="2">
         <v>43411</v>
       </c>
@@ -15004,8 +16168,11 @@
       <c r="L388">
         <v>0.2752537950994578</v>
       </c>
-    </row>
-    <row r="389" spans="1:12">
+      <c r="M388">
+        <v>1.011972559805858</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13">
       <c r="A389" s="2">
         <v>43412</v>
       </c>
@@ -15042,8 +16209,11 @@
       <c r="L389">
         <v>1.756351200838882</v>
       </c>
-    </row>
-    <row r="390" spans="1:12">
+      <c r="M389">
+        <v>1.016183765552304</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13">
       <c r="A390" s="2">
         <v>43413</v>
       </c>
@@ -15080,8 +16250,11 @@
       <c r="L390">
         <v>0.440815747467915</v>
       </c>
-    </row>
-    <row r="391" spans="1:12">
+      <c r="M390">
+        <v>1.02091352235119</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13">
       <c r="A391" s="2">
         <v>43414</v>
       </c>
@@ -15118,8 +16291,11 @@
       <c r="L391">
         <v>1.941799901070891</v>
       </c>
-    </row>
-    <row r="392" spans="1:12">
+      <c r="M391">
+        <v>1.024709938425109</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13">
       <c r="A392" s="2">
         <v>43415</v>
       </c>
@@ -15153,8 +16329,11 @@
       <c r="K392">
         <v>10.90644185708036</v>
       </c>
-    </row>
-    <row r="393" spans="1:12">
+      <c r="M392">
+        <v>1.026458314479648</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13">
       <c r="A393" s="2">
         <v>43416</v>
       </c>
@@ -15188,8 +16367,11 @@
       <c r="K393">
         <v>10.80462969059097</v>
       </c>
-    </row>
-    <row r="394" spans="1:12">
+      <c r="M393">
+        <v>1.026786616597321</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13">
       <c r="A394" s="2">
         <v>43417</v>
       </c>
@@ -15223,8 +16405,11 @@
       <c r="K394">
         <v>10.84726504166567</v>
       </c>
-    </row>
-    <row r="395" spans="1:12">
+      <c r="M394">
+        <v>1.033583945033987</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13">
       <c r="A395" s="2">
         <v>43418</v>
       </c>
@@ -15261,8 +16446,11 @@
       <c r="L395">
         <v>0.6331180607666241</v>
       </c>
-    </row>
-    <row r="396" spans="1:12">
+      <c r="M395">
+        <v>1.056845938400385</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13">
       <c r="A396" s="2">
         <v>43419</v>
       </c>
@@ -15297,10 +16485,13 @@
         <v>21.52829887973725</v>
       </c>
       <c r="L396">
-        <v>1.02115043426942</v>
-      </c>
-    </row>
-    <row r="397" spans="1:12">
+        <v>1.021150434269421</v>
+      </c>
+      <c r="M396">
+        <v>1.06708606362593</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13">
       <c r="A397" s="2">
         <v>43420</v>
       </c>
@@ -15337,8 +16528,11 @@
       <c r="L397">
         <v>0.5160845144391806</v>
       </c>
-    </row>
-    <row r="398" spans="1:12">
+      <c r="M397">
+        <v>1.060361948883737</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13">
       <c r="A398" s="2">
         <v>43421</v>
       </c>
@@ -15375,8 +16569,11 @@
       <c r="L398">
         <v>1.709695262472703</v>
       </c>
-    </row>
-    <row r="399" spans="1:12">
+      <c r="M398">
+        <v>1.05591744726682</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13">
       <c r="A399" s="2">
         <v>43422</v>
       </c>
@@ -15410,8 +16607,11 @@
       <c r="K399">
         <v>20.73702901192463</v>
       </c>
-    </row>
-    <row r="400" spans="1:12">
+      <c r="M399">
+        <v>1.051137255127415</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13">
       <c r="A400" s="2">
         <v>43423</v>
       </c>
@@ -15448,8 +16648,11 @@
       <c r="L400">
         <v>0.8299755667284924</v>
       </c>
-    </row>
-    <row r="401" spans="1:12">
+      <c r="M400">
+        <v>1.047537409854317</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13">
       <c r="A401" s="2">
         <v>43424</v>
       </c>
@@ -15484,10 +16687,13 @@
         <v>7.406751869128358</v>
       </c>
       <c r="L401">
-        <v>0.8613248460903565</v>
-      </c>
-    </row>
-    <row r="402" spans="1:12">
+        <v>0.8613248460903569</v>
+      </c>
+      <c r="M401">
+        <v>1.049716339006902</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13">
       <c r="A402" s="2">
         <v>43425</v>
       </c>
@@ -15524,8 +16730,11 @@
       <c r="L402">
         <v>0.8858806182235047</v>
       </c>
-    </row>
-    <row r="403" spans="1:12">
+      <c r="M402">
+        <v>1.053368129079905</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13">
       <c r="A403" s="2">
         <v>43426</v>
       </c>
@@ -15559,8 +16768,11 @@
       <c r="K403">
         <v>5.621631592168935</v>
       </c>
-    </row>
-    <row r="404" spans="1:12">
+      <c r="M403">
+        <v>1.048842868306236</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13">
       <c r="A404" s="2">
         <v>43427</v>
       </c>
@@ -15597,8 +16809,11 @@
       <c r="L404">
         <v>1.598389475645039</v>
       </c>
-    </row>
-    <row r="405" spans="1:12">
+      <c r="M404">
+        <v>1.053283421114177</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13">
       <c r="A405" s="2">
         <v>43428</v>
       </c>
@@ -15632,8 +16847,11 @@
       <c r="K405">
         <v>3.115637509601479</v>
       </c>
-    </row>
-    <row r="406" spans="1:12">
+      <c r="M405">
+        <v>1.050421330621908</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13">
       <c r="A406" s="2">
         <v>43429</v>
       </c>
@@ -15668,10 +16886,13 @@
         <v>2.884100149092606</v>
       </c>
       <c r="L406">
-        <v>0.9752562810422186</v>
-      </c>
-    </row>
-    <row r="407" spans="1:12">
+        <v>0.9752562810422187</v>
+      </c>
+      <c r="M406">
+        <v>1.054549254984246</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13">
       <c r="A407" s="2">
         <v>43430</v>
       </c>
@@ -15708,8 +16929,11 @@
       <c r="L407">
         <v>1.617051848996045</v>
       </c>
-    </row>
-    <row r="408" spans="1:12">
+      <c r="M407">
+        <v>1.046128330979007</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13">
       <c r="A408" s="2">
         <v>43431</v>
       </c>
@@ -15746,8 +16970,11 @@
       <c r="L408">
         <v>0.9909363005543067</v>
       </c>
-    </row>
-    <row r="409" spans="1:12">
+      <c r="M408">
+        <v>1.047083337072177</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13">
       <c r="A409" s="2">
         <v>43432</v>
       </c>
@@ -15782,10 +17009,13 @@
         <v>2.178132529840292</v>
       </c>
       <c r="L409">
-        <v>1.490830067243283</v>
-      </c>
-    </row>
-    <row r="410" spans="1:12">
+        <v>1.490830067243284</v>
+      </c>
+      <c r="M409">
+        <v>1.042340821745843</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13">
       <c r="A410" s="2">
         <v>43433</v>
       </c>
@@ -15822,8 +17052,11 @@
       <c r="L410">
         <v>2.112315452898661</v>
       </c>
-    </row>
-    <row r="411" spans="1:12">
+      <c r="M410">
+        <v>1.039962384801614</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13">
       <c r="A411" s="2">
         <v>43434</v>
       </c>
@@ -15860,8 +17093,11 @@
       <c r="L411">
         <v>0.7226235829068534</v>
       </c>
-    </row>
-    <row r="412" spans="1:12">
+      <c r="M411">
+        <v>1.042345123208261</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13">
       <c r="A412" s="2">
         <v>43435</v>
       </c>
@@ -15898,8 +17134,11 @@
       <c r="L412">
         <v>1.298537748797145</v>
       </c>
-    </row>
-    <row r="413" spans="1:12">
+      <c r="M412">
+        <v>1.045494666564947</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13">
       <c r="A413" s="2">
         <v>43436</v>
       </c>
@@ -15936,8 +17175,11 @@
       <c r="L413">
         <v>0.9523992742715244</v>
       </c>
-    </row>
-    <row r="414" spans="1:12">
+      <c r="M413">
+        <v>1.038083229960075</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13">
       <c r="A414" s="2">
         <v>43437</v>
       </c>
@@ -15974,8 +17216,11 @@
       <c r="L414">
         <v>0.7060475814868674</v>
       </c>
-    </row>
-    <row r="415" spans="1:12">
+      <c r="M414">
+        <v>1.050211458468213</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13">
       <c r="A415" s="2">
         <v>43438</v>
       </c>
@@ -16010,10 +17255,13 @@
         <v>1.081915831842917</v>
       </c>
       <c r="L415">
-        <v>0.7013699171057064</v>
-      </c>
-    </row>
-    <row r="416" spans="1:12">
+        <v>0.7013699171057065</v>
+      </c>
+      <c r="M415">
+        <v>1.049799886072174</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13">
       <c r="A416" s="2">
         <v>43439</v>
       </c>
@@ -16050,8 +17298,11 @@
       <c r="L416">
         <v>0.8433048411794007</v>
       </c>
-    </row>
-    <row r="417" spans="1:12">
+      <c r="M416">
+        <v>1.051156297116094</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13">
       <c r="A417" s="2">
         <v>43440</v>
       </c>
@@ -16088,8 +17339,11 @@
       <c r="L417">
         <v>1.356413611616036</v>
       </c>
-    </row>
-    <row r="418" spans="1:12">
+      <c r="M417">
+        <v>1.056480294709534</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13">
       <c r="A418" s="2">
         <v>43441</v>
       </c>
@@ -16126,8 +17380,11 @@
       <c r="L418">
         <v>1.767276751182177</v>
       </c>
-    </row>
-    <row r="419" spans="1:12">
+      <c r="M418">
+        <v>1.054779341196223</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13">
       <c r="A419" s="2">
         <v>43442</v>
       </c>
@@ -16164,8 +17421,11 @@
       <c r="L419">
         <v>1.848770428522602</v>
       </c>
-    </row>
-    <row r="420" spans="1:12">
+      <c r="M419">
+        <v>1.049575765259663</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13">
       <c r="A420" s="2">
         <v>43443</v>
       </c>
@@ -16202,8 +17462,11 @@
       <c r="L420">
         <v>0.7451613767733668</v>
       </c>
-    </row>
-    <row r="421" spans="1:12">
+      <c r="M420">
+        <v>1.046138680177202</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13">
       <c r="A421" s="2">
         <v>43444</v>
       </c>
@@ -16240,8 +17503,11 @@
       <c r="L421">
         <v>2.075032077602795</v>
       </c>
-    </row>
-    <row r="422" spans="1:12">
+      <c r="M421">
+        <v>1.041707741459001</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13">
       <c r="A422" s="2">
         <v>43445</v>
       </c>
@@ -16278,8 +17544,11 @@
       <c r="L422">
         <v>1.428205541376907</v>
       </c>
-    </row>
-    <row r="423" spans="1:12">
+      <c r="M422">
+        <v>1.045986431894652</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13">
       <c r="A423" s="2">
         <v>43446</v>
       </c>
@@ -16316,8 +17585,11 @@
       <c r="L423">
         <v>1.844769424117006</v>
       </c>
-    </row>
-    <row r="424" spans="1:12">
+      <c r="M423">
+        <v>1.044939619057985</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13">
       <c r="A424" s="2">
         <v>43447</v>
       </c>
@@ -16352,10 +17624,13 @@
         <v>0.3478600692803595</v>
       </c>
       <c r="L424">
-        <v>0.8544153011575557</v>
-      </c>
-    </row>
-    <row r="425" spans="1:12">
+        <v>0.8544153011575558</v>
+      </c>
+      <c r="M424">
+        <v>1.045094715756875</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13">
       <c r="A425" s="2">
         <v>43448</v>
       </c>
@@ -16392,8 +17667,11 @@
       <c r="L425">
         <v>0.6863714845951842</v>
       </c>
-    </row>
-    <row r="426" spans="1:12">
+      <c r="M425">
+        <v>1.04481753901494</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13">
       <c r="A426" s="2">
         <v>43449</v>
       </c>
@@ -16430,8 +17708,11 @@
       <c r="L426">
         <v>0.9204865623155369</v>
       </c>
-    </row>
-    <row r="427" spans="1:12">
+      <c r="M426">
+        <v>1.037359618888023</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13">
       <c r="A427" s="2">
         <v>43450</v>
       </c>
@@ -16465,8 +17746,11 @@
       <c r="K427">
         <v>0.7145114824712189</v>
       </c>
-    </row>
-    <row r="428" spans="1:12">
+      <c r="M427">
+        <v>1.035047163900129</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13">
       <c r="A428" s="2">
         <v>43451</v>
       </c>
@@ -16500,8 +17784,11 @@
       <c r="K428">
         <v>0.3580037233033156</v>
       </c>
-    </row>
-    <row r="429" spans="1:12">
+      <c r="M428">
+        <v>1.037501820066709</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13">
       <c r="A429" s="2">
         <v>43452</v>
       </c>
@@ -16538,8 +17825,11 @@
       <c r="L429">
         <v>0.9578921020979002</v>
       </c>
-    </row>
-    <row r="430" spans="1:12">
+      <c r="M429">
+        <v>1.034516624415865</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13">
       <c r="A430" s="2">
         <v>43453</v>
       </c>
@@ -16576,8 +17866,11 @@
       <c r="L430">
         <v>0.9768622692577406</v>
       </c>
-    </row>
-    <row r="431" spans="1:12">
+      <c r="M430">
+        <v>1.034055554078014</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13">
       <c r="A431" s="2">
         <v>43454</v>
       </c>
@@ -16614,8 +17907,11 @@
       <c r="L431">
         <v>1.162343554672426</v>
       </c>
-    </row>
-    <row r="432" spans="1:12">
+      <c r="M431">
+        <v>1.034788154280518</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13">
       <c r="A432" s="2">
         <v>43455</v>
       </c>
@@ -16652,8 +17948,11 @@
       <c r="L432">
         <v>0.972360100404782</v>
       </c>
-    </row>
-    <row r="433" spans="1:12">
+      <c r="M432">
+        <v>1.032974683885606</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13">
       <c r="A433" s="2">
         <v>43456</v>
       </c>
@@ -16687,8 +17986,11 @@
       <c r="K433">
         <v>-0.01977952721203983</v>
       </c>
-    </row>
-    <row r="434" spans="1:12">
+      <c r="M433">
+        <v>1.037702452607376</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13">
       <c r="A434" s="2">
         <v>43457</v>
       </c>
@@ -16722,8 +18024,11 @@
       <c r="K434">
         <v>-0.02002363864239464</v>
       </c>
-    </row>
-    <row r="435" spans="1:12">
+      <c r="M434">
+        <v>1.037185142320693</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13">
       <c r="A435" s="2">
         <v>43458</v>
       </c>
@@ -16757,8 +18062,11 @@
       <c r="K435">
         <v>-0.1686215696508074</v>
       </c>
-    </row>
-    <row r="436" spans="1:12">
+      <c r="M435">
+        <v>1.031770100333073</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13">
       <c r="A436" s="2">
         <v>43459</v>
       </c>
@@ -16792,8 +18100,11 @@
       <c r="K436">
         <v>-0.179276164728005</v>
       </c>
-    </row>
-    <row r="437" spans="1:12">
+      <c r="M436">
+        <v>1.035568616222601</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13">
       <c r="A437" s="2">
         <v>43460</v>
       </c>
@@ -16827,8 +18138,11 @@
       <c r="K437">
         <v>-0.07052600717034939</v>
       </c>
-    </row>
-    <row r="438" spans="1:12">
+      <c r="M437">
+        <v>1.037828364487288</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13">
       <c r="A438" s="2">
         <v>43461</v>
       </c>
@@ -16865,8 +18179,11 @@
       <c r="L438">
         <v>1.279499353177004</v>
       </c>
-    </row>
-    <row r="439" spans="1:12">
+      <c r="M438">
+        <v>1.039438460237554</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13">
       <c r="A439" s="2">
         <v>43462</v>
       </c>
@@ -16903,8 +18220,11 @@
       <c r="L439">
         <v>1.575938129119625</v>
       </c>
-    </row>
-    <row r="440" spans="1:12">
+      <c r="M439">
+        <v>1.037190475645549</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13">
       <c r="A440" s="2">
         <v>43463</v>
       </c>
@@ -16941,8 +18261,11 @@
       <c r="L440">
         <v>0.8594468839436316</v>
       </c>
-    </row>
-    <row r="441" spans="1:12">
+      <c r="M440">
+        <v>1.037853519816124</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13">
       <c r="A441" s="2">
         <v>43464</v>
       </c>
@@ -16979,8 +18302,11 @@
       <c r="L441">
         <v>0.744290129977735</v>
       </c>
-    </row>
-    <row r="442" spans="1:12">
+      <c r="M441">
+        <v>1.037240844952432</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13">
       <c r="A442" s="2">
         <v>43465</v>
       </c>
@@ -17017,8 +18343,11 @@
       <c r="L442">
         <v>0.8553072992198756</v>
       </c>
-    </row>
-    <row r="443" spans="1:12">
+      <c r="M442">
+        <v>1.035089398200043</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13">
       <c r="A443" s="2">
         <v>43466</v>
       </c>
@@ -17052,8 +18381,11 @@
       <c r="K443">
         <v>-0.2855871686190734</v>
       </c>
-    </row>
-    <row r="444" spans="1:12">
+      <c r="M443">
+        <v>1.040463486852392</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13">
       <c r="A444" s="2">
         <v>43467</v>
       </c>
@@ -17087,8 +18419,11 @@
       <c r="K444">
         <v>-0.2284415466661029</v>
       </c>
-    </row>
-    <row r="445" spans="1:12">
+      <c r="M444">
+        <v>1.040240885598272</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13">
       <c r="A445" s="2">
         <v>43468</v>
       </c>
@@ -17122,8 +18457,11 @@
       <c r="K445">
         <v>-0.2150453301898818</v>
       </c>
-    </row>
-    <row r="446" spans="1:12">
+      <c r="M445">
+        <v>1.037969085687867</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13">
       <c r="A446" s="2">
         <v>43469</v>
       </c>
@@ -17157,8 +18495,11 @@
       <c r="K446">
         <v>-0.07162674798507189</v>
       </c>
-    </row>
-    <row r="447" spans="1:12">
+      <c r="M446">
+        <v>1.035977221610514</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13">
       <c r="A447" s="2">
         <v>43470</v>
       </c>
@@ -17192,8 +18533,11 @@
       <c r="K447">
         <v>0.146960651317485</v>
       </c>
-    </row>
-    <row r="448" spans="1:12">
+      <c r="M447">
+        <v>1.035939466358055</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13">
       <c r="A448" s="2">
         <v>43471</v>
       </c>
@@ -17227,8 +18571,11 @@
       <c r="K448">
         <v>-0.1138831261911631</v>
       </c>
-    </row>
-    <row r="449" spans="1:11">
+      <c r="M448">
+        <v>1.031065821604198</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13">
       <c r="A449" s="2">
         <v>43472</v>
       </c>
@@ -17262,8 +18609,11 @@
       <c r="K449">
         <v>-0.1031830524327676</v>
       </c>
-    </row>
-    <row r="450" spans="1:11">
+      <c r="M449">
+        <v>1.027889446593294</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13">
       <c r="A450" s="2">
         <v>43473</v>
       </c>
@@ -17297,8 +18647,11 @@
       <c r="K450">
         <v>0.09597059879745386</v>
       </c>
-    </row>
-    <row r="451" spans="1:11">
+      <c r="M450">
+        <v>1.028095604851537</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13">
       <c r="A451" s="2">
         <v>43474</v>
       </c>
@@ -17332,8 +18685,11 @@
       <c r="K451">
         <v>0.199401542512381</v>
       </c>
-    </row>
-    <row r="452" spans="1:11">
+      <c r="M451">
+        <v>1.025142732740507</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13">
       <c r="A452" s="2">
         <v>43475</v>
       </c>
@@ -17367,8 +18723,11 @@
       <c r="K452">
         <v>0.2196839278129085</v>
       </c>
-    </row>
-    <row r="453" spans="1:11">
+      <c r="M452">
+        <v>1.030156086262064</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13">
       <c r="A453" s="2">
         <v>43476</v>
       </c>
@@ -17402,8 +18761,11 @@
       <c r="K453">
         <v>0.2583446807481486</v>
       </c>
-    </row>
-    <row r="454" spans="1:11">
+      <c r="M453">
+        <v>1.035101792339079</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13">
       <c r="A454" s="2">
         <v>43477</v>
       </c>
@@ -17437,8 +18799,11 @@
       <c r="K454">
         <v>0.5198711596962181</v>
       </c>
-    </row>
-    <row r="455" spans="1:11">
+      <c r="M454">
+        <v>1.036357793123396</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13">
       <c r="A455" s="2">
         <v>43478</v>
       </c>
@@ -17472,8 +18837,11 @@
       <c r="K455">
         <v>0.4641773634535601</v>
       </c>
-    </row>
-    <row r="456" spans="1:11">
+      <c r="M455">
+        <v>1.038719090356169</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13">
       <c r="A456" s="2">
         <v>43479</v>
       </c>
@@ -17507,8 +18875,11 @@
       <c r="K456">
         <v>0.2799285921354664</v>
       </c>
-    </row>
-    <row r="457" spans="1:11">
+      <c r="M456">
+        <v>1.036360377528591</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13">
       <c r="A457" s="2">
         <v>43480</v>
       </c>
@@ -17542,8 +18913,11 @@
       <c r="K457">
         <v>0.2112018150533636</v>
       </c>
-    </row>
-    <row r="458" spans="1:11">
+      <c r="M457">
+        <v>1.033262480280318</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13">
       <c r="A458" s="2">
         <v>43481</v>
       </c>
@@ -17577,8 +18951,11 @@
       <c r="K458">
         <v>0.5805607730013542</v>
       </c>
-    </row>
-    <row r="459" spans="1:11">
+      <c r="M458">
+        <v>1.034049226142227</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13">
       <c r="A459" s="2">
         <v>43482</v>
       </c>
@@ -17612,8 +18989,11 @@
       <c r="K459">
         <v>0.8220724534943868</v>
       </c>
-    </row>
-    <row r="460" spans="1:11">
+      <c r="M459">
+        <v>1.033213155536186</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13">
       <c r="A460" s="2">
         <v>43483</v>
       </c>
@@ -17647,8 +19027,11 @@
       <c r="K460">
         <v>0.8583899558929051</v>
       </c>
-    </row>
-    <row r="461" spans="1:11">
+      <c r="M460">
+        <v>1.033198984505315</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13">
       <c r="A461" s="2">
         <v>43484</v>
       </c>
@@ -17682,8 +19065,11 @@
       <c r="K461">
         <v>0.6172054190624156</v>
       </c>
-    </row>
-    <row r="462" spans="1:11">
+      <c r="M461">
+        <v>1.029086731447103</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13">
       <c r="A462" s="2">
         <v>43485</v>
       </c>
@@ -17717,8 +19103,11 @@
       <c r="K462">
         <v>0.8996087903623058</v>
       </c>
-    </row>
-    <row r="463" spans="1:11">
+      <c r="M462">
+        <v>1.034612621709162</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13">
       <c r="A463" s="2">
         <v>43486</v>
       </c>
@@ -17752,8 +19141,11 @@
       <c r="K463">
         <v>1.080990737404691</v>
       </c>
-    </row>
-    <row r="464" spans="1:11">
+      <c r="M463">
+        <v>1.038809170284003</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13">
       <c r="A464" s="2">
         <v>43487</v>
       </c>
@@ -17787,8 +19179,11 @@
       <c r="K464">
         <v>1.063040345155226</v>
       </c>
-    </row>
-    <row r="465" spans="1:11">
+      <c r="M464">
+        <v>1.037045901505769</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13">
       <c r="A465" s="2">
         <v>43488</v>
       </c>
@@ -17822,8 +19217,11 @@
       <c r="K465">
         <v>1.166165607586435</v>
       </c>
-    </row>
-    <row r="466" spans="1:11">
+      <c r="M465">
+        <v>1.03444342832247</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13">
       <c r="A466" s="2">
         <v>43489</v>
       </c>
@@ -17857,8 +19255,11 @@
       <c r="K466">
         <v>1.904991411837989</v>
       </c>
-    </row>
-    <row r="467" spans="1:11">
+      <c r="M466">
+        <v>1.033588723228648</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13">
       <c r="A467" s="2">
         <v>43490</v>
       </c>
@@ -17892,8 +19293,11 @@
       <c r="K467">
         <v>1.948951738311818</v>
       </c>
-    </row>
-    <row r="468" spans="1:11">
+      <c r="M467">
+        <v>1.031374134235234</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13">
       <c r="A468" s="2">
         <v>43491</v>
       </c>
@@ -17927,8 +19331,11 @@
       <c r="K468">
         <v>2.808205877797163</v>
       </c>
-    </row>
-    <row r="469" spans="1:11">
+      <c r="M468">
+        <v>1.032306116961684</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13">
       <c r="A469" s="2">
         <v>43492</v>
       </c>
@@ -17962,8 +19369,11 @@
       <c r="K469">
         <v>3.750713703780256</v>
       </c>
-    </row>
-    <row r="470" spans="1:11">
+      <c r="M469">
+        <v>1.031961497154986</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13">
       <c r="A470" s="2">
         <v>43493</v>
       </c>
@@ -17997,8 +19407,11 @@
       <c r="K470">
         <v>3.567206748782913</v>
       </c>
-    </row>
-    <row r="471" spans="1:11">
+      <c r="M470">
+        <v>1.034997147914188</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13">
       <c r="A471" s="2">
         <v>43494</v>
       </c>
@@ -18032,8 +19445,11 @@
       <c r="K471">
         <v>3.630682325121323</v>
       </c>
-    </row>
-    <row r="472" spans="1:11">
+      <c r="M471">
+        <v>1.033078458653215</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13">
       <c r="A472" s="2">
         <v>43495</v>
       </c>
@@ -18067,8 +19483,11 @@
       <c r="K472">
         <v>4.244647269635424</v>
       </c>
-    </row>
-    <row r="473" spans="1:11">
+      <c r="M472">
+        <v>1.027174717908526</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13">
       <c r="A473" s="2">
         <v>43496</v>
       </c>
@@ -18102,8 +19521,11 @@
       <c r="K473">
         <v>4.653429519224454</v>
       </c>
-    </row>
-    <row r="474" spans="1:11">
+      <c r="M473">
+        <v>1.027172404285326</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13">
       <c r="A474" s="2">
         <v>43497</v>
       </c>
@@ -18137,8 +19559,11 @@
       <c r="K474">
         <v>5.102291336244892</v>
       </c>
-    </row>
-    <row r="475" spans="1:11">
+      <c r="M474">
+        <v>1.026911026541378</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13">
       <c r="A475" s="2">
         <v>43498</v>
       </c>
@@ -18172,8 +19597,11 @@
       <c r="K475">
         <v>5.672983409127217</v>
       </c>
-    </row>
-    <row r="476" spans="1:11">
+      <c r="M475">
+        <v>1.026478701746497</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13">
       <c r="A476" s="2">
         <v>43499</v>
       </c>
@@ -18207,8 +19635,11 @@
       <c r="K476">
         <v>5.447508283556314</v>
       </c>
-    </row>
-    <row r="477" spans="1:11">
+      <c r="M476">
+        <v>1.026471759733141</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13">
       <c r="A477" s="2">
         <v>43500</v>
       </c>
@@ -18242,8 +19673,11 @@
       <c r="K477">
         <v>5.454136484531318</v>
       </c>
-    </row>
-    <row r="478" spans="1:11">
+      <c r="M477">
+        <v>1.028584683067305</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13">
       <c r="A478" s="2">
         <v>43501</v>
       </c>
@@ -18277,8 +19711,11 @@
       <c r="K478">
         <v>7.547386833035333</v>
       </c>
-    </row>
-    <row r="479" spans="1:11">
+      <c r="M478">
+        <v>1.029988172473203</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13">
       <c r="A479" s="2">
         <v>43502</v>
       </c>
@@ -18312,8 +19749,11 @@
       <c r="K479">
         <v>7.448774855306895</v>
       </c>
-    </row>
-    <row r="480" spans="1:11">
+      <c r="M479">
+        <v>1.033347498486327</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13">
       <c r="A480" s="2">
         <v>43503</v>
       </c>
@@ -18347,8 +19787,11 @@
       <c r="K480">
         <v>7.445659805157414</v>
       </c>
-    </row>
-    <row r="481" spans="1:11">
+      <c r="M480">
+        <v>1.034356682443401</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13">
       <c r="A481" s="2">
         <v>43504</v>
       </c>
@@ -18382,8 +19825,11 @@
       <c r="K481">
         <v>5.522167497404885</v>
       </c>
-    </row>
-    <row r="482" spans="1:11">
+      <c r="M481">
+        <v>1.035035891833538</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13">
       <c r="A482" s="2">
         <v>43505</v>
       </c>
@@ -18417,8 +19863,11 @@
       <c r="K482">
         <v>5.459730797188478</v>
       </c>
-    </row>
-    <row r="483" spans="1:11">
+      <c r="M482">
+        <v>1.026908889571997</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13">
       <c r="A483" s="2">
         <v>43506</v>
       </c>
@@ -18452,8 +19901,11 @@
       <c r="K483">
         <v>5.396779946926166</v>
       </c>
-    </row>
-    <row r="484" spans="1:11">
+      <c r="M483">
+        <v>1.025232162175829</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13">
       <c r="A484" s="2">
         <v>43507</v>
       </c>
@@ -18487,8 +19939,11 @@
       <c r="K484">
         <v>5.342394192095044</v>
       </c>
-    </row>
-    <row r="485" spans="1:11">
+      <c r="M484">
+        <v>1.028284411512237</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13">
       <c r="A485" s="2">
         <v>43508</v>
       </c>
@@ -18522,8 +19977,11 @@
       <c r="K485">
         <v>6.11075432810215</v>
       </c>
-    </row>
-    <row r="486" spans="1:11">
+      <c r="M485">
+        <v>1.029889810089828</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13">
       <c r="A486" s="2">
         <v>43509</v>
       </c>
@@ -18557,8 +20015,11 @@
       <c r="K486">
         <v>9.369344859910978</v>
       </c>
-    </row>
-    <row r="487" spans="1:11">
+      <c r="M486">
+        <v>1.030205278779804</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13">
       <c r="A487" s="2">
         <v>43510</v>
       </c>
@@ -18592,8 +20053,11 @@
       <c r="K487">
         <v>10.04834255191528</v>
       </c>
-    </row>
-    <row r="488" spans="1:11">
+      <c r="M487">
+        <v>1.031813686745307</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13">
       <c r="A488" s="2">
         <v>43511</v>
       </c>
@@ -18627,8 +20091,11 @@
       <c r="K488">
         <v>10.27629958535481</v>
       </c>
-    </row>
-    <row r="489" spans="1:11">
+      <c r="M488">
+        <v>1.032038972193238</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13">
       <c r="A489" s="2">
         <v>43512</v>
       </c>
@@ -18662,8 +20129,11 @@
       <c r="K489">
         <v>10.45632906391427</v>
       </c>
-    </row>
-    <row r="490" spans="1:11">
+      <c r="M489">
+        <v>1.033492640774523</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13">
       <c r="A490" s="2">
         <v>43513</v>
       </c>
@@ -18697,8 +20167,11 @@
       <c r="K490">
         <v>9.81473161696775</v>
       </c>
-    </row>
-    <row r="491" spans="1:11">
+      <c r="M490">
+        <v>1.03677186793251</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13">
       <c r="A491" s="2">
         <v>43514</v>
       </c>
@@ -18732,8 +20205,11 @@
       <c r="K491">
         <v>6.217502791632332</v>
       </c>
-    </row>
-    <row r="492" spans="1:11">
+      <c r="M491">
+        <v>1.030414511715913</v>
+      </c>
+    </row>
+    <row r="492" spans="1:13">
       <c r="A492" s="2">
         <v>43515</v>
       </c>
@@ -18767,8 +20243,11 @@
       <c r="K492">
         <v>7.246832760730081</v>
       </c>
-    </row>
-    <row r="493" spans="1:11">
+      <c r="M492">
+        <v>1.026249830503396</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13">
       <c r="A493" s="2">
         <v>43516</v>
       </c>
@@ -18802,8 +20281,11 @@
       <c r="K493">
         <v>6.912782409901141</v>
       </c>
-    </row>
-    <row r="494" spans="1:11">
+      <c r="M493">
+        <v>1.027568688991576</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13">
       <c r="A494" s="2">
         <v>43517</v>
       </c>
@@ -18837,8 +20319,11 @@
       <c r="K494">
         <v>6.916171828041043</v>
       </c>
-    </row>
-    <row r="495" spans="1:11">
+      <c r="M494">
+        <v>1.027567651191495</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13">
       <c r="A495" s="2">
         <v>43518</v>
       </c>
@@ -18872,8 +20357,11 @@
       <c r="K495">
         <v>6.588658172692005</v>
       </c>
-    </row>
-    <row r="496" spans="1:11">
+      <c r="M495">
+        <v>1.028818026747127</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13">
       <c r="A496" s="2">
         <v>43519</v>
       </c>
@@ -18907,8 +20395,11 @@
       <c r="K496">
         <v>5.065329615638388</v>
       </c>
-    </row>
-    <row r="497" spans="1:11">
+      <c r="M496">
+        <v>1.027073826219953</v>
+      </c>
+    </row>
+    <row r="497" spans="1:13">
       <c r="A497" s="2">
         <v>43520</v>
       </c>
@@ -18942,8 +20433,11 @@
       <c r="K497">
         <v>5.029287219858988</v>
       </c>
-    </row>
-    <row r="498" spans="1:11">
+      <c r="M497">
+        <v>1.02454062779277</v>
+      </c>
+    </row>
+    <row r="498" spans="1:13">
       <c r="A498" s="2">
         <v>43521</v>
       </c>
@@ -18977,8 +20471,11 @@
       <c r="K498">
         <v>4.823181865026822</v>
       </c>
-    </row>
-    <row r="499" spans="1:11">
+      <c r="M498">
+        <v>1.033188328513402</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13">
       <c r="A499" s="2">
         <v>43522</v>
       </c>
@@ -19012,8 +20509,11 @@
       <c r="K499">
         <v>4.79333083271263</v>
       </c>
-    </row>
-    <row r="500" spans="1:11">
+      <c r="M499">
+        <v>1.029874754440609</v>
+      </c>
+    </row>
+    <row r="500" spans="1:13">
       <c r="A500" s="2">
         <v>43523</v>
       </c>
@@ -19047,8 +20547,11 @@
       <c r="K500">
         <v>5.70584373429308</v>
       </c>
-    </row>
-    <row r="501" spans="1:11">
+      <c r="M500">
+        <v>1.032373733518475</v>
+      </c>
+    </row>
+    <row r="501" spans="1:13">
       <c r="A501" s="2">
         <v>43524</v>
       </c>
@@ -19082,8 +20585,11 @@
       <c r="K501">
         <v>5.797272596673945</v>
       </c>
-    </row>
-    <row r="502" spans="1:11">
+      <c r="M501">
+        <v>1.033511883136161</v>
+      </c>
+    </row>
+    <row r="502" spans="1:13">
       <c r="A502" s="2">
         <v>43525</v>
       </c>
@@ -19117,8 +20623,11 @@
       <c r="K502">
         <v>5.836142056439952</v>
       </c>
-    </row>
-    <row r="503" spans="1:11">
+      <c r="M502">
+        <v>1.031746523511742</v>
+      </c>
+    </row>
+    <row r="503" spans="1:13">
       <c r="A503" s="2">
         <v>43526</v>
       </c>
@@ -19152,8 +20661,11 @@
       <c r="K503">
         <v>5.966169122839777</v>
       </c>
-    </row>
-    <row r="504" spans="1:11">
+      <c r="M503">
+        <v>1.032716383323435</v>
+      </c>
+    </row>
+    <row r="504" spans="1:13">
       <c r="A504" s="2">
         <v>43527</v>
       </c>
@@ -19187,8 +20699,11 @@
       <c r="K504">
         <v>5.922899510092486</v>
       </c>
-    </row>
-    <row r="505" spans="1:11">
+      <c r="M504">
+        <v>1.035252114172074</v>
+      </c>
+    </row>
+    <row r="505" spans="1:13">
       <c r="A505" s="2">
         <v>43528</v>
       </c>
@@ -19221,6 +20736,9 @@
       </c>
       <c r="K505">
         <v>5.414498483212308</v>
+      </c>
+      <c r="M505">
+        <v>1.035821446057528</v>
       </c>
     </row>
   </sheetData>

--- a/data/btc_data.xlsx
+++ b/data/btc_data.xlsx
@@ -1374,7 +1374,7 @@
         <v>1.630839866422082</v>
       </c>
       <c r="L24">
-        <v>0.9291159426493237</v>
+        <v>0.929115942649324</v>
       </c>
       <c r="M24">
         <v>1.032916894086315</v>
@@ -1535,7 +1535,7 @@
         <v>-0.6240715846835153</v>
       </c>
       <c r="L28">
-        <v>0.997155786767755</v>
+        <v>0.9971557867677547</v>
       </c>
       <c r="M28">
         <v>1.048799600090004</v>
@@ -1576,7 +1576,7 @@
         <v>-0.3207291791494929</v>
       </c>
       <c r="L29">
-        <v>0.6489750456848878</v>
+        <v>0.648975045684888</v>
       </c>
       <c r="M29">
         <v>1.055297132392146</v>
@@ -2460,7 +2460,7 @@
         <v>-0.3461859732629294</v>
       </c>
       <c r="L51">
-        <v>0.977129153162436</v>
+        <v>0.9771291531624362</v>
       </c>
       <c r="M51">
         <v>1.065469312421961</v>
@@ -3619,7 +3619,7 @@
         <v>0.1188776083834986</v>
       </c>
       <c r="L80">
-        <v>1.667211832136782</v>
+        <v>1.667211832136783</v>
       </c>
       <c r="M80">
         <v>1.087179532182131</v>
@@ -4439,7 +4439,7 @@
         <v>0.041957009351918</v>
       </c>
       <c r="L100">
-        <v>1.429388122418197</v>
+        <v>1.429388122418198</v>
       </c>
       <c r="M100">
         <v>1.081982740857093</v>
@@ -5376,7 +5376,7 @@
         <v>-0.2987234551703462</v>
       </c>
       <c r="L123">
-        <v>0.9634452849956228</v>
+        <v>0.9634452849956225</v>
       </c>
       <c r="M123">
         <v>1.073202199019439</v>
@@ -5619,7 +5619,7 @@
         <v>-0.1065766187786069</v>
       </c>
       <c r="L129">
-        <v>1.06833561145185</v>
+        <v>1.068335611451849</v>
       </c>
       <c r="M129">
         <v>1.051805313308493</v>
@@ -5947,7 +5947,7 @@
         <v>-0.1729720321045052</v>
       </c>
       <c r="L137">
-        <v>1.525894045366554</v>
+        <v>1.525894045366555</v>
       </c>
       <c r="M137">
         <v>1.058396599047589</v>
@@ -6354,7 +6354,7 @@
         <v>-1.23482794500534</v>
       </c>
       <c r="L147">
-        <v>1.221158940871007</v>
+        <v>1.221158940871006</v>
       </c>
       <c r="M147">
         <v>1.052150783406201</v>
@@ -7212,7 +7212,7 @@
         <v>-0.1461169511665018</v>
       </c>
       <c r="L168">
-        <v>1.009688438259681</v>
+        <v>1.00968843825968</v>
       </c>
       <c r="M168">
         <v>1.048745224541275</v>
@@ -7253,7 +7253,7 @@
         <v>-0.1396117576529385</v>
       </c>
       <c r="L169">
-        <v>0.849769624649436</v>
+        <v>0.8497696246494362</v>
       </c>
       <c r="M169">
         <v>1.045527141708408</v>
@@ -7865,7 +7865,7 @@
         <v>1.742358421003322</v>
       </c>
       <c r="L184">
-        <v>0.9621487490738442</v>
+        <v>0.9621487490738443</v>
       </c>
       <c r="M184">
         <v>1.032862100908814</v>
@@ -8474,7 +8474,7 @@
         <v>1.183655634461893</v>
       </c>
       <c r="L199">
-        <v>0.8838818950293855</v>
+        <v>0.8838818950293854</v>
       </c>
       <c r="M199">
         <v>1.012003244522315</v>
@@ -8515,7 +8515,7 @@
         <v>1.15970118320712</v>
       </c>
       <c r="L200">
-        <v>0.9012935574396983</v>
+        <v>0.9012935574396985</v>
       </c>
       <c r="M200">
         <v>1.019869348023324</v>
@@ -8679,7 +8679,7 @@
         <v>1.69868429321838</v>
       </c>
       <c r="L204">
-        <v>0.8602363879298859</v>
+        <v>0.860236387929886</v>
       </c>
       <c r="M204">
         <v>1.006060128798879</v>
@@ -8802,7 +8802,7 @@
         <v>1.70532100756783</v>
       </c>
       <c r="L207">
-        <v>0.9641013904012987</v>
+        <v>0.9641013904012988</v>
       </c>
       <c r="M207">
         <v>1.0030628233354</v>
@@ -9007,7 +9007,7 @@
         <v>0.6950401157623656</v>
       </c>
       <c r="L212">
-        <v>0.8974908868188278</v>
+        <v>0.8974908868188282</v>
       </c>
       <c r="M212">
         <v>1.015115083694141</v>
@@ -9130,7 +9130,7 @@
         <v>0.8266245367247473</v>
       </c>
       <c r="L215">
-        <v>0.9680546517855869</v>
+        <v>0.9680546517855867</v>
       </c>
       <c r="M215">
         <v>1.024831471117265</v>
@@ -9616,7 +9616,7 @@
         <v>0.2672575418267346</v>
       </c>
       <c r="L227">
-        <v>0.9088349655636458</v>
+        <v>0.9088349655636457</v>
       </c>
       <c r="M227">
         <v>1.011649434464328</v>
@@ -9818,7 +9818,7 @@
         <v>0.151747892688212</v>
       </c>
       <c r="L232">
-        <v>0.8114320392942208</v>
+        <v>0.8114320392942207</v>
       </c>
       <c r="M232">
         <v>1.00996463862521</v>
@@ -9900,7 +9900,7 @@
         <v>0.2961567331267596</v>
       </c>
       <c r="L234">
-        <v>0.8788423709901612</v>
+        <v>0.8788423709901613</v>
       </c>
       <c r="M234">
         <v>1.009940597187925</v>
@@ -10102,7 +10102,7 @@
         <v>3.14220646912585</v>
       </c>
       <c r="L239">
-        <v>0.9005938845646287</v>
+        <v>0.9005938845646286</v>
       </c>
       <c r="M239">
         <v>1.03091860380966</v>
@@ -10143,7 +10143,7 @@
         <v>2.528021205004207</v>
       </c>
       <c r="L240">
-        <v>0.9280570602500076</v>
+        <v>0.9280570602500074</v>
       </c>
       <c r="M240">
         <v>1.02683431317428</v>
@@ -10184,7 +10184,7 @@
         <v>2.104517848243974</v>
       </c>
       <c r="L241">
-        <v>0.8077389732314951</v>
+        <v>0.807738973231495</v>
       </c>
       <c r="M241">
         <v>1.029816986103685</v>
@@ -10225,7 +10225,7 @@
         <v>1.750613038399139</v>
       </c>
       <c r="L242">
-        <v>0.9299747641495525</v>
+        <v>0.9299747641495527</v>
       </c>
       <c r="M242">
         <v>1.030106657647533</v>
@@ -10345,7 +10345,7 @@
         <v>1.865451005759533</v>
       </c>
       <c r="L245">
-        <v>0.7517740409329028</v>
+        <v>0.7517740409329027</v>
       </c>
       <c r="M245">
         <v>1.035732194778726</v>
@@ -10509,7 +10509,7 @@
         <v>2.49146414855276</v>
       </c>
       <c r="L249">
-        <v>0.8021333764723116</v>
+        <v>0.8021333764723119</v>
       </c>
       <c r="M249">
         <v>1.017595365408472</v>
@@ -10714,7 +10714,7 @@
         <v>2.523493664718905</v>
       </c>
       <c r="L254">
-        <v>0.776746569748188</v>
+        <v>0.7767465697481882</v>
       </c>
       <c r="M254">
         <v>1.012524075097643</v>
@@ -10919,7 +10919,7 @@
         <v>2.105544522604514</v>
       </c>
       <c r="L259">
-        <v>0.7544078262462345</v>
+        <v>0.7544078262462344</v>
       </c>
       <c r="M259">
         <v>1.025226450638104</v>
@@ -11042,7 +11042,7 @@
         <v>2.10030673681431</v>
       </c>
       <c r="L262">
-        <v>0.6340433186388656</v>
+        <v>0.6340433186388655</v>
       </c>
       <c r="M262">
         <v>1.014279339634409</v>
@@ -11285,7 +11285,7 @@
         <v>1.529355161814965</v>
       </c>
       <c r="L268">
-        <v>0.9005630689560618</v>
+        <v>0.9005630689560616</v>
       </c>
       <c r="M268">
         <v>1.028296535481901</v>
@@ -11367,7 +11367,7 @@
         <v>2.01829675392453</v>
       </c>
       <c r="L270">
-        <v>0.9467220042930884</v>
+        <v>0.9467220042930883</v>
       </c>
       <c r="M270">
         <v>1.019284367074361</v>
@@ -11613,7 +11613,7 @@
         <v>2.74203340713373</v>
       </c>
       <c r="L276">
-        <v>0.9110384752570122</v>
+        <v>0.9110384752570124</v>
       </c>
       <c r="M276">
         <v>1.008267797882913</v>
@@ -11692,7 +11692,7 @@
         <v>2.575451991185614</v>
       </c>
       <c r="L278">
-        <v>0.9120374585080159</v>
+        <v>0.9120374585080158</v>
       </c>
       <c r="M278">
         <v>1.008196607679355</v>
@@ -12017,7 +12017,7 @@
         <v>1.034137037271233</v>
       </c>
       <c r="L286">
-        <v>0.7772245003946756</v>
+        <v>0.7772245003946758</v>
       </c>
       <c r="M286">
         <v>1.010736613616062</v>
@@ -12178,7 +12178,7 @@
         <v>1.510884278307771</v>
       </c>
       <c r="L290">
-        <v>0.8589556976930541</v>
+        <v>0.8589556976930544</v>
       </c>
       <c r="M290">
         <v>1.005657108550768</v>
@@ -12462,7 +12462,7 @@
         <v>0.8812642916626949</v>
       </c>
       <c r="L297">
-        <v>0.8308608149791386</v>
+        <v>0.8308608149791387</v>
       </c>
       <c r="M297">
         <v>1.008456647829106</v>
@@ -12746,7 +12746,7 @@
         <v>1.072092223734881</v>
       </c>
       <c r="L304">
-        <v>0.9980089330284122</v>
+        <v>0.998008933028412</v>
       </c>
       <c r="M304">
         <v>1.008668629244033</v>
@@ -13033,7 +13033,7 @@
         <v>1.181577333422946</v>
       </c>
       <c r="L311">
-        <v>0.9540846826118425</v>
+        <v>0.9540846826118426</v>
       </c>
       <c r="M311">
         <v>1.003954711888591</v>
@@ -13074,7 +13074,7 @@
         <v>-0.4184565460311828</v>
       </c>
       <c r="L312">
-        <v>0.7753219412904719</v>
+        <v>0.7753219412904718</v>
       </c>
       <c r="M312">
         <v>1.010012881401207</v>
@@ -13115,7 +13115,7 @@
         <v>-0.423276137449555</v>
       </c>
       <c r="L313">
-        <v>0.8590504486134907</v>
+        <v>0.8590504486134908</v>
       </c>
       <c r="M313">
         <v>1.007782198961263</v>
@@ -13156,7 +13156,7 @@
         <v>-0.2669110387112087</v>
       </c>
       <c r="L314">
-        <v>0.7823144978910688</v>
+        <v>0.7823144978910685</v>
       </c>
       <c r="M314">
         <v>1.008536305373514</v>
@@ -13197,7 +13197,7 @@
         <v>-0.15026563534834</v>
       </c>
       <c r="L315">
-        <v>0.7886527938944995</v>
+        <v>0.7886527938944994</v>
       </c>
       <c r="M315">
         <v>1.014081867396611</v>
@@ -13320,7 +13320,7 @@
         <v>-0.4137883665441996</v>
       </c>
       <c r="L318">
-        <v>0.8062001874518865</v>
+        <v>0.8062001874518864</v>
       </c>
       <c r="M318">
         <v>1.005586581038564</v>
@@ -13361,7 +13361,7 @@
         <v>-0.04640218142652061</v>
       </c>
       <c r="L319">
-        <v>0.8615351408572197</v>
+        <v>0.8615351408572198</v>
       </c>
       <c r="M319">
         <v>1.006144019940761</v>
@@ -13566,7 +13566,7 @@
         <v>0.8048391931620822</v>
       </c>
       <c r="L324">
-        <v>0.6933618284435155</v>
+        <v>0.6933618284435152</v>
       </c>
       <c r="M324">
         <v>1.012826612559946</v>
@@ -13771,7 +13771,7 @@
         <v>2.082307436795082</v>
       </c>
       <c r="L329">
-        <v>0.8105905755847894</v>
+        <v>0.8105905755847893</v>
       </c>
       <c r="M329">
         <v>1.029927690527371</v>
@@ -13812,7 +13812,7 @@
         <v>2.144518279951354</v>
       </c>
       <c r="L330">
-        <v>0.6746482833060189</v>
+        <v>0.6746482833060187</v>
       </c>
       <c r="M330">
         <v>1.02607939766945</v>
@@ -13853,7 +13853,7 @@
         <v>2.114237500329645</v>
       </c>
       <c r="L331">
-        <v>0.6976604975750317</v>
+        <v>0.6976604975750318</v>
       </c>
       <c r="M331">
         <v>1.020188542697558</v>
@@ -13976,7 +13976,7 @@
         <v>2.319083034798462</v>
       </c>
       <c r="L334">
-        <v>0.7348759271977114</v>
+        <v>0.7348759271977116</v>
       </c>
       <c r="M334">
         <v>1.007876532141188</v>
@@ -14415,7 +14415,7 @@
         <v>2.834886971002653</v>
       </c>
       <c r="L345">
-        <v>0.6809910452713447</v>
+        <v>0.6809910452713448</v>
       </c>
       <c r="M345">
         <v>1.005496042645922</v>
@@ -14699,7 +14699,7 @@
         <v>3.499597401572549</v>
       </c>
       <c r="L352">
-        <v>0.9345104441676049</v>
+        <v>0.9345104441676048</v>
       </c>
       <c r="M352">
         <v>1.010986996660299</v>
@@ -14740,7 +14740,7 @@
         <v>3.421644766285006</v>
       </c>
       <c r="L353">
-        <v>0.7146620001194546</v>
+        <v>0.7146620001194547</v>
       </c>
       <c r="M353">
         <v>1.019498995548959</v>
@@ -14781,7 +14781,7 @@
         <v>3.465805550262973</v>
       </c>
       <c r="L354">
-        <v>0.7086944696004895</v>
+        <v>0.7086944696004897</v>
       </c>
       <c r="M354">
         <v>1.014705863309336</v>
@@ -14945,7 +14945,7 @@
         <v>1.453076323483755</v>
       </c>
       <c r="L358">
-        <v>0.6354992674825619</v>
+        <v>0.6354992674825617</v>
       </c>
       <c r="M358">
         <v>1.011214024244272</v>
@@ -15109,7 +15109,7 @@
         <v>2.223389542008064</v>
       </c>
       <c r="L362">
-        <v>0.8922127628369441</v>
+        <v>0.892212762836944</v>
       </c>
       <c r="M362">
         <v>1.039902691632606</v>
@@ -15513,7 +15513,7 @@
         <v>5.502468634373349</v>
       </c>
       <c r="L372">
-        <v>0.5082270132036125</v>
+        <v>0.5082270132036126</v>
       </c>
       <c r="M372">
         <v>1.028511438484733</v>
@@ -15554,7 +15554,7 @@
         <v>5.502282178952311</v>
       </c>
       <c r="L373">
-        <v>0.5436757497527039</v>
+        <v>0.5436757497527038</v>
       </c>
       <c r="M373">
         <v>1.030689781475715</v>
@@ -15636,7 +15636,7 @@
         <v>7.453805663200608</v>
       </c>
       <c r="L375">
-        <v>0.4996561758346491</v>
+        <v>0.4996561758346492</v>
       </c>
       <c r="M375">
         <v>1.031863119306413</v>
@@ -15677,7 +15677,7 @@
         <v>7.632076660214287</v>
       </c>
       <c r="L376">
-        <v>0.4386632727381166</v>
+        <v>0.4386632727381165</v>
       </c>
       <c r="M376">
         <v>1.033526089324868</v>
@@ -15841,7 +15841,7 @@
         <v>8.441969554355387</v>
       </c>
       <c r="L380">
-        <v>0.3700074114985634</v>
+        <v>0.3700074114985632</v>
       </c>
       <c r="M380">
         <v>1.031371622615059</v>
@@ -15882,7 +15882,7 @@
         <v>8.504102292706486</v>
       </c>
       <c r="L381">
-        <v>0.5600066982626706</v>
+        <v>0.5600066982626707</v>
       </c>
       <c r="M381">
         <v>1.028000607260587</v>
@@ -16485,7 +16485,7 @@
         <v>21.52829887973725</v>
       </c>
       <c r="L396">
-        <v>1.021150434269421</v>
+        <v>1.02115043426942</v>
       </c>
       <c r="M396">
         <v>1.06708606362593</v>
@@ -16687,7 +16687,7 @@
         <v>7.406751869128358</v>
       </c>
       <c r="L401">
-        <v>0.8613248460903569</v>
+        <v>0.8613248460903565</v>
       </c>
       <c r="M401">
         <v>1.049716339006902</v>
@@ -16886,7 +16886,7 @@
         <v>2.884100149092606</v>
       </c>
       <c r="L406">
-        <v>0.9752562810422187</v>
+        <v>0.9752562810422186</v>
       </c>
       <c r="M406">
         <v>1.054549254984246</v>
@@ -16927,7 +16927,7 @@
         <v>2.207533075533347</v>
       </c>
       <c r="L407">
-        <v>1.617051848996045</v>
+        <v>1.617051848996046</v>
       </c>
       <c r="M407">
         <v>1.046128330979007</v>
@@ -17337,7 +17337,7 @@
         <v>0.7368445950736185</v>
       </c>
       <c r="L417">
-        <v>1.356413611616036</v>
+        <v>1.356413611616037</v>
       </c>
       <c r="M417">
         <v>1.056480294709534</v>
@@ -17864,7 +17864,7 @@
         <v>0.01188541993527901</v>
       </c>
       <c r="L430">
-        <v>0.9768622692577406</v>
+        <v>0.9768622692577403</v>
       </c>
       <c r="M430">
         <v>1.034055554078014</v>
@@ -18259,7 +18259,7 @@
         <v>-0.4865619104617092</v>
       </c>
       <c r="L440">
-        <v>0.8594468839436316</v>
+        <v>0.8594468839436317</v>
       </c>
       <c r="M440">
         <v>1.037853519816124</v>

--- a/data/btc_data.xlsx
+++ b/data/btc_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>amihud</t>
+  </si>
+  <si>
+    <t>weighted_ISD</t>
+  </si>
+  <si>
+    <t>maxmin_ratio</t>
   </si>
 </sst>
 </file>
@@ -420,13 +426,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O505"/>
+  <dimension ref="A1:Q505"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +478,14 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="2">
         <v>43025</v>
       </c>
@@ -519,8 +531,14 @@
       <c r="O2">
         <v>0.04464146719940733</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.5337937810591779</v>
+      </c>
+      <c r="Q2">
+        <v>1.03894213482107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="2">
         <v>43026</v>
       </c>
@@ -566,8 +584,14 @@
       <c r="O3">
         <v>0.03885893585058579</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.4898628407342375</v>
+      </c>
+      <c r="Q3">
+        <v>1.048513305019906</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="2">
         <v>43027</v>
       </c>
@@ -613,8 +637,14 @@
       <c r="O4">
         <v>0.03817996566833015</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.5274062619244864</v>
+      </c>
+      <c r="Q4">
+        <v>1.02617208170327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="2">
         <v>43028</v>
       </c>
@@ -660,8 +690,14 @@
       <c r="O5">
         <v>0.04034380229202189</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.6791190184279399</v>
+      </c>
+      <c r="Q5">
+        <v>1.028792787916983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="2">
         <v>43029</v>
       </c>
@@ -707,8 +743,11 @@
       <c r="O6">
         <v>0.03703520929103012</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="Q6">
+        <v>1.028234422823834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="2">
         <v>43030</v>
       </c>
@@ -754,8 +793,11 @@
       <c r="O7">
         <v>0.03721037696789623</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="Q7">
+        <v>1.027362528277747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="2">
         <v>43031</v>
       </c>
@@ -801,8 +843,14 @@
       <c r="O8">
         <v>0.03570587727871618</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.9823539703265092</v>
+      </c>
+      <c r="Q8">
+        <v>1.028370176370099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="2">
         <v>43032</v>
       </c>
@@ -848,8 +896,14 @@
       <c r="O9">
         <v>0.03751736902937304</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.7295736266987723</v>
+      </c>
+      <c r="Q9">
+        <v>1.040414076216062</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="2">
         <v>43033</v>
       </c>
@@ -895,8 +949,14 @@
       <c r="O10">
         <v>0.03633577517635195</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>1.113620618405296</v>
+      </c>
+      <c r="Q10">
+        <v>1.027084568466698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="2">
         <v>43034</v>
       </c>
@@ -942,8 +1002,14 @@
       <c r="O11">
         <v>0.03715738250762227</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.7969292926514975</v>
+      </c>
+      <c r="Q11">
+        <v>1.033509386404909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="2">
         <v>43035</v>
       </c>
@@ -989,8 +1055,14 @@
       <c r="O12">
         <v>0.03456710923890841</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.6309425345606529</v>
+      </c>
+      <c r="Q12">
+        <v>1.034200424412412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="2">
         <v>43036</v>
       </c>
@@ -1036,8 +1108,11 @@
       <c r="O13">
         <v>0.03450471328749567</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="Q13">
+        <v>1.028976792407763</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="2">
         <v>43037</v>
       </c>
@@ -1083,8 +1158,11 @@
       <c r="O14">
         <v>0.03746450623971335</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="Q14">
+        <v>1.046309851713302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="2">
         <v>43038</v>
       </c>
@@ -1130,8 +1208,14 @@
       <c r="O15">
         <v>0.03566666780389812</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.6956670805733582</v>
+      </c>
+      <c r="Q15">
+        <v>1.02618277266953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="2">
         <v>43039</v>
       </c>
@@ -1177,8 +1261,11 @@
       <c r="O16">
         <v>0.03744343046249831</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="Q16">
+        <v>1.019573086816105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="2">
         <v>43040</v>
       </c>
@@ -1224,8 +1311,14 @@
       <c r="O17">
         <v>0.03945773063986067</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.9498229689350616</v>
+      </c>
+      <c r="Q17">
+        <v>1.019466410536396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="2">
         <v>43041</v>
       </c>
@@ -1271,8 +1364,11 @@
       <c r="O18">
         <v>0.04047389495837021</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="Q18">
+        <v>1.033173804128119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="2">
         <v>43042</v>
       </c>
@@ -1318,8 +1414,14 @@
       <c r="O19">
         <v>0.04030896842190311</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>3.270738136534184</v>
+      </c>
+      <c r="Q19">
+        <v>1.035015143912767</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="2">
         <v>43043</v>
       </c>
@@ -1365,8 +1467,11 @@
       <c r="O20">
         <v>0.04029123356157894</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="Q20">
+        <v>1.035491872000923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="2">
         <v>43044</v>
       </c>
@@ -1412,8 +1517,11 @@
       <c r="O21">
         <v>0.03999438933732914</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="Q21">
+        <v>1.041553978359165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="2">
         <v>43045</v>
       </c>
@@ -1459,8 +1567,14 @@
       <c r="O22">
         <v>0.04181580894921915</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>1.038990859731872</v>
+      </c>
+      <c r="Q22">
+        <v>1.047455700030619</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="2">
         <v>43046</v>
       </c>
@@ -1506,8 +1620,14 @@
       <c r="O23">
         <v>0.04067656900190472</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.5557645611523719</v>
+      </c>
+      <c r="Q23">
+        <v>1.052536437481902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="2">
         <v>43047</v>
       </c>
@@ -1553,8 +1673,14 @@
       <c r="O24">
         <v>0.04100842249210179</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.929115942649324</v>
+      </c>
+      <c r="Q24">
+        <v>1.032916894086315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="2">
         <v>43048</v>
       </c>
@@ -1600,8 +1726,11 @@
       <c r="O25">
         <v>0.04288758464426188</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="Q25">
+        <v>1.028433232191035</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="2">
         <v>43049</v>
       </c>
@@ -1647,8 +1776,14 @@
       <c r="O26">
         <v>0.04585973805231031</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26">
+        <v>0.7371874872032307</v>
+      </c>
+      <c r="Q26">
+        <v>1.042230605978984</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="2">
         <v>43050</v>
       </c>
@@ -1694,8 +1829,14 @@
       <c r="O27">
         <v>0.04209955832725769</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27">
+        <v>0.596944150496803</v>
+      </c>
+      <c r="Q27">
+        <v>1.044271312748839</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="2">
         <v>43051</v>
       </c>
@@ -1741,8 +1882,14 @@
       <c r="O28">
         <v>0.04334962220563894</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28">
+        <v>0.997155786767755</v>
+      </c>
+      <c r="Q28">
+        <v>1.048799600090004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="2">
         <v>43052</v>
       </c>
@@ -1788,8 +1935,14 @@
       <c r="O29">
         <v>0.0461577021523186</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29">
+        <v>0.648975045684888</v>
+      </c>
+      <c r="Q29">
+        <v>1.055297132392146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="2">
         <v>43053</v>
       </c>
@@ -1835,8 +1988,14 @@
       <c r="O30">
         <v>0.04543884188455769</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30">
+        <v>0.7183666829079451</v>
+      </c>
+      <c r="Q30">
+        <v>1.050482268963113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="2">
         <v>43054</v>
       </c>
@@ -1882,8 +2041,14 @@
       <c r="O31">
         <v>0.04945217199653638</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31">
+        <v>0.73145248680463</v>
+      </c>
+      <c r="Q31">
+        <v>1.043030403279685</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="2">
         <v>43055</v>
       </c>
@@ -1929,8 +2094,14 @@
       <c r="O32">
         <v>0.05173548251060139</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="P32">
+        <v>0.711158140396243</v>
+      </c>
+      <c r="Q32">
+        <v>1.048558625395656</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="2">
         <v>43056</v>
       </c>
@@ -1976,8 +2147,14 @@
       <c r="O33">
         <v>0.05255114826450932</v>
       </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="P33">
+        <v>1.052250792614836</v>
+      </c>
+      <c r="Q33">
+        <v>1.033727510735897</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="2">
         <v>43057</v>
       </c>
@@ -2023,8 +2200,14 @@
       <c r="O34">
         <v>0.05204750294919178</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="P34">
+        <v>0.7729354039949319</v>
+      </c>
+      <c r="Q34">
+        <v>1.036884275703118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="2">
         <v>43058</v>
       </c>
@@ -2070,8 +2253,14 @@
       <c r="O35">
         <v>0.05107491807821846</v>
       </c>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="P35">
+        <v>0.8881702079905344</v>
+      </c>
+      <c r="Q35">
+        <v>1.032786046915833</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="2">
         <v>43059</v>
       </c>
@@ -2117,8 +2306,14 @@
       <c r="O36">
         <v>0.05183960468097543</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="P36">
+        <v>0.8786717630980753</v>
+      </c>
+      <c r="Q36">
+        <v>1.034465346478362</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="2">
         <v>43060</v>
       </c>
@@ -2164,8 +2359,14 @@
       <c r="O37">
         <v>0.0523770438816137</v>
       </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="P37">
+        <v>1.178530058176851</v>
+      </c>
+      <c r="Q37">
+        <v>1.030829380351123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="2">
         <v>43061</v>
       </c>
@@ -2211,8 +2412,11 @@
       <c r="O38">
         <v>0.05278585744788945</v>
       </c>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="Q38">
+        <v>1.129565647678338</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="2">
         <v>43062</v>
       </c>
@@ -2258,8 +2462,11 @@
       <c r="O39">
         <v>0.05073115758186794</v>
       </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="Q39">
+        <v>1.028219563103363</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="2">
         <v>43063</v>
       </c>
@@ -2305,8 +2512,14 @@
       <c r="O40">
         <v>0.05005404635841165</v>
       </c>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="P40">
+        <v>1.66431609388024</v>
+      </c>
+      <c r="Q40">
+        <v>1.026611540751408</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="2">
         <v>43064</v>
       </c>
@@ -2352,8 +2565,14 @@
       <c r="O41">
         <v>0.05165862653671172</v>
       </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="P41">
+        <v>0.9595746065806643</v>
+      </c>
+      <c r="Q41">
+        <v>1.028605825525063</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="2">
         <v>43065</v>
       </c>
@@ -2399,8 +2618,14 @@
       <c r="O42">
         <v>0.05331769558487331</v>
       </c>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="P42">
+        <v>0.8182236018027951</v>
+      </c>
+      <c r="Q42">
+        <v>1.038713047206259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="2">
         <v>43066</v>
       </c>
@@ -2446,8 +2671,11 @@
       <c r="O43">
         <v>0.05535808224213143</v>
       </c>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="Q43">
+        <v>1.045113364785541</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="2">
         <v>43067</v>
       </c>
@@ -2493,8 +2721,14 @@
       <c r="O44">
         <v>0.05333724688298861</v>
       </c>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="P44">
+        <v>0.8910046211632141</v>
+      </c>
+      <c r="Q44">
+        <v>1.047738396299529</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="2">
         <v>43068</v>
       </c>
@@ -2540,8 +2774,14 @@
       <c r="O45">
         <v>0.05389539190505192</v>
       </c>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="P45">
+        <v>1.282074283293139</v>
+      </c>
+      <c r="Q45">
+        <v>1.072076320993058</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="2">
         <v>43069</v>
       </c>
@@ -2587,8 +2827,11 @@
       <c r="O46">
         <v>0.05290861247054868</v>
       </c>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="Q46">
+        <v>1.069193568464566</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="2">
         <v>43070</v>
       </c>
@@ -2634,8 +2877,14 @@
       <c r="O47">
         <v>0.05392635426862574</v>
       </c>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="P47">
+        <v>0.8254562797031066</v>
+      </c>
+      <c r="Q47">
+        <v>1.062861043163756</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="2">
         <v>43071</v>
       </c>
@@ -2681,8 +2930,11 @@
       <c r="O48">
         <v>0.05230833774970205</v>
       </c>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="Q48">
+        <v>1.09066962742207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="2">
         <v>43072</v>
       </c>
@@ -2728,8 +2980,11 @@
       <c r="O49">
         <v>0.05246523959831205</v>
       </c>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="Q49">
+        <v>1.054250005305119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="2">
         <v>43073</v>
       </c>
@@ -2775,8 +3030,14 @@
       <c r="O50">
         <v>0.05266381750378476</v>
       </c>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="P50">
+        <v>1.358998481242353</v>
+      </c>
+      <c r="Q50">
+        <v>1.115483265849143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="2">
         <v>43074</v>
       </c>
@@ -2822,8 +3083,14 @@
       <c r="O51">
         <v>0.05346366489297695</v>
       </c>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="P51">
+        <v>0.977129153162436</v>
+      </c>
+      <c r="Q51">
+        <v>1.065469312421961</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="2">
         <v>43075</v>
       </c>
@@ -2869,8 +3136,14 @@
       <c r="O52">
         <v>0.05883638719207333</v>
       </c>
-    </row>
-    <row r="53" spans="1:15">
+      <c r="P52">
+        <v>1.773017600918141</v>
+      </c>
+      <c r="Q52">
+        <v>1.093257521540695</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="2">
         <v>43076</v>
       </c>
@@ -2916,8 +3189,14 @@
       <c r="O53">
         <v>0.06757483570964708</v>
       </c>
-    </row>
-    <row r="54" spans="1:15">
+      <c r="P53">
+        <v>2.257988015309359</v>
+      </c>
+      <c r="Q53">
+        <v>1.1134615416717</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="2">
         <v>43077</v>
       </c>
@@ -2963,8 +3242,14 @@
       <c r="O54">
         <v>0.0688821116748381</v>
       </c>
-    </row>
-    <row r="55" spans="1:15">
+      <c r="P54">
+        <v>2.32437142071045</v>
+      </c>
+      <c r="Q54">
+        <v>1.104292850303349</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="2">
         <v>43078</v>
       </c>
@@ -3010,8 +3295,14 @@
       <c r="O55">
         <v>0.07065928178830116</v>
       </c>
-    </row>
-    <row r="56" spans="1:15">
+      <c r="P55">
+        <v>1.082502345151752</v>
+      </c>
+      <c r="Q55">
+        <v>1.084581173617583</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="2">
         <v>43079</v>
       </c>
@@ -3057,8 +3348,14 @@
       <c r="O56">
         <v>0.06802059338752003</v>
       </c>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="P56">
+        <v>1.384932925450595</v>
+      </c>
+      <c r="Q56">
+        <v>1.091624760823588</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="2">
         <v>43080</v>
       </c>
@@ -3104,8 +3401,14 @@
       <c r="O57">
         <v>0.07016241362761431</v>
       </c>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="P57">
+        <v>2.209195869430994</v>
+      </c>
+      <c r="Q57">
+        <v>1.077152050484166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="2">
         <v>43081</v>
       </c>
@@ -3151,8 +3454,14 @@
       <c r="O58">
         <v>0.0684621042469185</v>
       </c>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="P58">
+        <v>1.530865181096964</v>
+      </c>
+      <c r="Q58">
+        <v>1.055724886902415</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="2">
         <v>43082</v>
       </c>
@@ -3198,8 +3507,14 @@
       <c r="O59">
         <v>0.06669776701570293</v>
       </c>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="P59">
+        <v>1.670720986214234</v>
+      </c>
+      <c r="Q59">
+        <v>1.116392770147889</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="2">
         <v>43083</v>
       </c>
@@ -3245,8 +3560,11 @@
       <c r="O60">
         <v>0.06657441129020582</v>
       </c>
-    </row>
-    <row r="61" spans="1:15">
+      <c r="Q60">
+        <v>1.07357984857124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="2">
         <v>43084</v>
       </c>
@@ -3292,8 +3610,11 @@
       <c r="O61">
         <v>0.06502631241042947</v>
       </c>
-    </row>
-    <row r="62" spans="1:15">
+      <c r="Q61">
+        <v>1.148466183740518</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="2">
         <v>43085</v>
       </c>
@@ -3339,8 +3660,14 @@
       <c r="O62">
         <v>0.06588884643215551</v>
       </c>
-    </row>
-    <row r="63" spans="1:15">
+      <c r="P62">
+        <v>2.103311513756069</v>
+      </c>
+      <c r="Q62">
+        <v>1.156574766374094</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="2">
         <v>43086</v>
       </c>
@@ -3386,8 +3713,14 @@
       <c r="O63">
         <v>0.06574242737944855</v>
       </c>
-    </row>
-    <row r="64" spans="1:15">
+      <c r="P63">
+        <v>1.577401467303795</v>
+      </c>
+      <c r="Q63">
+        <v>1.097499083596828</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="2">
         <v>43087</v>
       </c>
@@ -3433,8 +3766,14 @@
       <c r="O64">
         <v>0.06532625347987017</v>
       </c>
-    </row>
-    <row r="65" spans="1:15">
+      <c r="P64">
+        <v>1.964277006453284</v>
+      </c>
+      <c r="Q64">
+        <v>1.129883505519101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="2">
         <v>43088</v>
       </c>
@@ -3480,8 +3819,11 @@
       <c r="O65">
         <v>0.0669831112789737</v>
       </c>
-    </row>
-    <row r="66" spans="1:15">
+      <c r="Q65">
+        <v>1.120966370928684</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" s="2">
         <v>43089</v>
       </c>
@@ -3527,8 +3869,14 @@
       <c r="O66">
         <v>0.06887573663765351</v>
       </c>
-    </row>
-    <row r="67" spans="1:15">
+      <c r="P66">
+        <v>1.482660113014721</v>
+      </c>
+      <c r="Q66">
+        <v>1.151476918828819</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="2">
         <v>43090</v>
       </c>
@@ -3574,8 +3922,11 @@
       <c r="O67">
         <v>0.07031314005762697</v>
       </c>
-    </row>
-    <row r="68" spans="1:15">
+      <c r="Q67">
+        <v>1.131283115126605</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" s="2">
         <v>43091</v>
       </c>
@@ -3621,8 +3972,14 @@
       <c r="O68">
         <v>0.07489073361373677</v>
       </c>
-    </row>
-    <row r="69" spans="1:15">
+      <c r="P68">
+        <v>2.231747644802363</v>
+      </c>
+      <c r="Q68">
+        <v>1.155351013000651</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" s="2">
         <v>43092</v>
       </c>
@@ -3668,8 +4025,11 @@
       <c r="O69">
         <v>0.0763121062617314</v>
       </c>
-    </row>
-    <row r="70" spans="1:15">
+      <c r="Q69">
+        <v>1.190162461652872</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" s="2">
         <v>43093</v>
       </c>
@@ -3715,8 +4075,11 @@
       <c r="O70">
         <v>0.07746386467675671</v>
       </c>
-    </row>
-    <row r="71" spans="1:15">
+      <c r="Q70">
+        <v>1.203937922326163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="2">
         <v>43094</v>
       </c>
@@ -3762,8 +4125,14 @@
       <c r="O71">
         <v>0.07493464887271846</v>
       </c>
-    </row>
-    <row r="72" spans="1:15">
+      <c r="P71">
+        <v>1.182176808021072</v>
+      </c>
+      <c r="Q71">
+        <v>1.165703044795297</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" s="2">
         <v>43095</v>
       </c>
@@ -3809,8 +4178,11 @@
       <c r="O72">
         <v>0.07818850540172387</v>
       </c>
-    </row>
-    <row r="73" spans="1:15">
+      <c r="Q72">
+        <v>1.118326863364333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" s="2">
         <v>43096</v>
       </c>
@@ -3856,8 +4228,11 @@
       <c r="O73">
         <v>0.07662302073774242</v>
       </c>
-    </row>
-    <row r="74" spans="1:15">
+      <c r="Q73">
+        <v>1.116707152825138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" s="2">
         <v>43097</v>
       </c>
@@ -3903,8 +4278,14 @@
       <c r="O74">
         <v>0.07903611285065355</v>
       </c>
-    </row>
-    <row r="75" spans="1:15">
+      <c r="P74">
+        <v>1.754981451847617</v>
+      </c>
+      <c r="Q74">
+        <v>1.145883342205924</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" s="2">
         <v>43098</v>
       </c>
@@ -3950,8 +4331,14 @@
       <c r="O75">
         <v>0.07844552890984238</v>
       </c>
-    </row>
-    <row r="76" spans="1:15">
+      <c r="P75">
+        <v>1.696193204501041</v>
+      </c>
+      <c r="Q75">
+        <v>1.088035936389968</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" s="2">
         <v>43099</v>
       </c>
@@ -3997,8 +4384,11 @@
       <c r="O76">
         <v>0.08222742461471406</v>
       </c>
-    </row>
-    <row r="77" spans="1:15">
+      <c r="Q76">
+        <v>1.151821090101831</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" s="2">
         <v>43100</v>
       </c>
@@ -4044,8 +4434,14 @@
       <c r="O77">
         <v>0.08296405143278156</v>
       </c>
-    </row>
-    <row r="78" spans="1:15">
+      <c r="P77">
+        <v>1.551071015867133</v>
+      </c>
+      <c r="Q77">
+        <v>1.209420567118876</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" s="2">
         <v>43101</v>
       </c>
@@ -4091,8 +4487,11 @@
       <c r="O78">
         <v>0.08411963553018353</v>
       </c>
-    </row>
-    <row r="79" spans="1:15">
+      <c r="Q78">
+        <v>1.145437231783298</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" s="2">
         <v>43102</v>
       </c>
@@ -4138,8 +4537,14 @@
       <c r="O79">
         <v>0.08706989626776067</v>
       </c>
-    </row>
-    <row r="80" spans="1:15">
+      <c r="P79">
+        <v>1.093142433136</v>
+      </c>
+      <c r="Q79">
+        <v>1.131187839294234</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" s="2">
         <v>43103</v>
       </c>
@@ -4185,8 +4590,14 @@
       <c r="O80">
         <v>0.08639595035026836</v>
       </c>
-    </row>
-    <row r="81" spans="1:15">
+      <c r="P80">
+        <v>1.667211832136782</v>
+      </c>
+      <c r="Q80">
+        <v>1.087179532182131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" s="2">
         <v>43104</v>
       </c>
@@ -4232,8 +4643,14 @@
       <c r="O81">
         <v>0.08651037077646392</v>
       </c>
-    </row>
-    <row r="82" spans="1:15">
+      <c r="P81">
+        <v>1.566408585243089</v>
+      </c>
+      <c r="Q81">
+        <v>1.091120837793743</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" s="2">
         <v>43105</v>
       </c>
@@ -4279,8 +4696,14 @@
       <c r="O82">
         <v>0.08334118152001935</v>
       </c>
-    </row>
-    <row r="83" spans="1:15">
+      <c r="P82">
+        <v>1.435181231255983</v>
+      </c>
+      <c r="Q82">
+        <v>1.093376644177765</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" s="2">
         <v>43106</v>
       </c>
@@ -4326,8 +4749,14 @@
       <c r="O83">
         <v>0.0740427046846114</v>
       </c>
-    </row>
-    <row r="84" spans="1:15">
+      <c r="P83">
+        <v>1.387602901878703</v>
+      </c>
+      <c r="Q83">
+        <v>1.096320380248174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" s="2">
         <v>43107</v>
       </c>
@@ -4373,8 +4802,14 @@
       <c r="O84">
         <v>0.07342305231769283</v>
       </c>
-    </row>
-    <row r="85" spans="1:15">
+      <c r="P84">
+        <v>1.453209229731478</v>
+      </c>
+      <c r="Q84">
+        <v>1.09756133327795</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" s="2">
         <v>43108</v>
       </c>
@@ -4420,8 +4855,14 @@
       <c r="O85">
         <v>0.07316604151041729</v>
       </c>
-    </row>
-    <row r="86" spans="1:15">
+      <c r="P85">
+        <v>1.242513277315604</v>
+      </c>
+      <c r="Q85">
+        <v>1.124458242767323</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" s="2">
         <v>43109</v>
       </c>
@@ -4467,8 +4908,14 @@
       <c r="O86">
         <v>0.07403086150016489</v>
       </c>
-    </row>
-    <row r="87" spans="1:15">
+      <c r="P86">
+        <v>1.306159940698201</v>
+      </c>
+      <c r="Q86">
+        <v>1.110621775560936</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" s="2">
         <v>43110</v>
       </c>
@@ -4514,8 +4961,14 @@
       <c r="O87">
         <v>0.07117040519634577</v>
       </c>
-    </row>
-    <row r="88" spans="1:15">
+      <c r="P87">
+        <v>1.319476127177362</v>
+      </c>
+      <c r="Q87">
+        <v>1.194965183820528</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" s="2">
         <v>43111</v>
       </c>
@@ -4561,8 +5014,14 @@
       <c r="O88">
         <v>0.07467962105434114</v>
       </c>
-    </row>
-    <row r="89" spans="1:15">
+      <c r="P88">
+        <v>1.759015203674794</v>
+      </c>
+      <c r="Q88">
+        <v>1.113282530916619</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89" s="2">
         <v>43112</v>
       </c>
@@ -4608,8 +5067,14 @@
       <c r="O89">
         <v>0.07392988047146368</v>
       </c>
-    </row>
-    <row r="90" spans="1:15">
+      <c r="P89">
+        <v>1.242042417154467</v>
+      </c>
+      <c r="Q89">
+        <v>1.179130360620804</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90" s="2">
         <v>43113</v>
       </c>
@@ -4655,8 +5120,14 @@
       <c r="O90">
         <v>0.07467635328681217</v>
       </c>
-    </row>
-    <row r="91" spans="1:15">
+      <c r="P90">
+        <v>1.054012074897954</v>
+      </c>
+      <c r="Q90">
+        <v>1.140407635390397</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" s="2">
         <v>43114</v>
       </c>
@@ -4702,8 +5173,14 @@
       <c r="O91">
         <v>0.07363129544132294</v>
       </c>
-    </row>
-    <row r="92" spans="1:15">
+      <c r="P91">
+        <v>1.659469504305007</v>
+      </c>
+      <c r="Q91">
+        <v>1.101180392993917</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92" s="2">
         <v>43115</v>
       </c>
@@ -4749,8 +5226,14 @@
       <c r="O92">
         <v>0.06964032889160765</v>
       </c>
-    </row>
-    <row r="93" spans="1:15">
+      <c r="P92">
+        <v>1.480956954691722</v>
+      </c>
+      <c r="Q92">
+        <v>1.103792487152142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93" s="2">
         <v>43116</v>
       </c>
@@ -4796,8 +5279,14 @@
       <c r="O93">
         <v>0.0766499442883343</v>
       </c>
-    </row>
-    <row r="94" spans="1:15">
+      <c r="P93">
+        <v>1.175764417027213</v>
+      </c>
+      <c r="Q93">
+        <v>1.160132328234265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" s="2">
         <v>43117</v>
       </c>
@@ -4843,8 +5332,14 @@
       <c r="O94">
         <v>0.07771595131805911</v>
       </c>
-    </row>
-    <row r="95" spans="1:15">
+      <c r="P94">
+        <v>1.570293204841233</v>
+      </c>
+      <c r="Q94">
+        <v>1.11731762814299</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95" s="2">
         <v>43118</v>
       </c>
@@ -4890,8 +5385,14 @@
       <c r="O95">
         <v>0.07571387169559197</v>
       </c>
-    </row>
-    <row r="96" spans="1:15">
+      <c r="P95">
+        <v>1.467063248189543</v>
+      </c>
+      <c r="Q95">
+        <v>1.115253637346062</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96" s="2">
         <v>43119</v>
       </c>
@@ -4937,8 +5438,14 @@
       <c r="O96">
         <v>0.07339808674840051</v>
       </c>
-    </row>
-    <row r="97" spans="1:15">
+      <c r="P96">
+        <v>1.467633057849023</v>
+      </c>
+      <c r="Q96">
+        <v>1.134745110933317</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97" s="2">
         <v>43120</v>
       </c>
@@ -4984,8 +5491,14 @@
       <c r="O97">
         <v>0.07579364370818656</v>
       </c>
-    </row>
-    <row r="98" spans="1:15">
+      <c r="P97">
+        <v>1.528979653809659</v>
+      </c>
+      <c r="Q97">
+        <v>1.103568232741998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98" s="2">
         <v>43121</v>
       </c>
@@ -5031,8 +5544,14 @@
       <c r="O98">
         <v>0.07481290503661081</v>
       </c>
-    </row>
-    <row r="99" spans="1:15">
+      <c r="P98">
+        <v>1.541192254019038</v>
+      </c>
+      <c r="Q98">
+        <v>1.11603417970154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99" s="2">
         <v>43122</v>
       </c>
@@ -5078,8 +5597,14 @@
       <c r="O99">
         <v>0.07477464944774387</v>
       </c>
-    </row>
-    <row r="100" spans="1:15">
+      <c r="P99">
+        <v>1.403306867539194</v>
+      </c>
+      <c r="Q99">
+        <v>1.123792587938829</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100" s="2">
         <v>43123</v>
       </c>
@@ -5125,8 +5650,14 @@
       <c r="O100">
         <v>0.07269348215702591</v>
       </c>
-    </row>
-    <row r="101" spans="1:15">
+      <c r="P100">
+        <v>1.429388122418198</v>
+      </c>
+      <c r="Q100">
+        <v>1.081982740857093</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101" s="2">
         <v>43124</v>
       </c>
@@ -5172,8 +5703,14 @@
       <c r="O101">
         <v>0.07430060053765029</v>
       </c>
-    </row>
-    <row r="102" spans="1:15">
+      <c r="P101">
+        <v>1.707420023903137</v>
+      </c>
+      <c r="Q101">
+        <v>1.085307415664864</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102" s="2">
         <v>43125</v>
       </c>
@@ -5219,8 +5756,14 @@
       <c r="O102">
         <v>0.06877597756265191</v>
       </c>
-    </row>
-    <row r="103" spans="1:15">
+      <c r="P102">
+        <v>1.240665939566049</v>
+      </c>
+      <c r="Q102">
+        <v>1.080014342097242</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
       <c r="A103" s="2">
         <v>43126</v>
       </c>
@@ -5266,8 +5809,14 @@
       <c r="O103">
         <v>0.06841327050675322</v>
       </c>
-    </row>
-    <row r="104" spans="1:15">
+      <c r="P103">
+        <v>1.374328728142037</v>
+      </c>
+      <c r="Q103">
+        <v>1.091166577095946</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
       <c r="A104" s="2">
         <v>43127</v>
       </c>
@@ -5313,8 +5862,14 @@
       <c r="O104">
         <v>0.06597534189431492</v>
       </c>
-    </row>
-    <row r="105" spans="1:15">
+      <c r="P104">
+        <v>1.373271189197504</v>
+      </c>
+      <c r="Q104">
+        <v>1.077457078617866</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
       <c r="A105" s="2">
         <v>43128</v>
       </c>
@@ -5360,8 +5915,14 @@
       <c r="O105">
         <v>0.06713218289574463</v>
       </c>
-    </row>
-    <row r="106" spans="1:15">
+      <c r="P105">
+        <v>1.611062013148057</v>
+      </c>
+      <c r="Q105">
+        <v>1.126653169589122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
       <c r="A106" s="2">
         <v>43129</v>
       </c>
@@ -5407,8 +5968,14 @@
       <c r="O106">
         <v>0.06372039837364543</v>
       </c>
-    </row>
-    <row r="107" spans="1:15">
+      <c r="P106">
+        <v>1.411567651762444</v>
+      </c>
+      <c r="Q106">
+        <v>1.120700172277122</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
       <c r="A107" s="2">
         <v>43130</v>
       </c>
@@ -5454,8 +6021,14 @@
       <c r="O107">
         <v>0.0647573950979696</v>
       </c>
-    </row>
-    <row r="108" spans="1:15">
+      <c r="P107">
+        <v>1.598232109998765</v>
+      </c>
+      <c r="Q107">
+        <v>1.116827372990645</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
       <c r="A108" s="2">
         <v>43131</v>
       </c>
@@ -5501,8 +6074,14 @@
       <c r="O108">
         <v>0.06369545474894599</v>
       </c>
-    </row>
-    <row r="109" spans="1:15">
+      <c r="P108">
+        <v>1.583407037775779</v>
+      </c>
+      <c r="Q108">
+        <v>1.07908343448582</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
       <c r="A109" s="2">
         <v>43132</v>
       </c>
@@ -5548,8 +6127,14 @@
       <c r="O109">
         <v>0.06447452313488744</v>
       </c>
-    </row>
-    <row r="110" spans="1:15">
+      <c r="P109">
+        <v>1.409598958134283</v>
+      </c>
+      <c r="Q109">
+        <v>1.070388104516514</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
       <c r="A110" s="2">
         <v>43133</v>
       </c>
@@ -5595,8 +6180,14 @@
       <c r="O110">
         <v>0.06548130686403568</v>
       </c>
-    </row>
-    <row r="111" spans="1:15">
+      <c r="P110">
+        <v>1.278111547703957</v>
+      </c>
+      <c r="Q110">
+        <v>1.102732248826254</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
       <c r="A111" s="2">
         <v>43134</v>
       </c>
@@ -5642,8 +6233,14 @@
       <c r="O111">
         <v>0.06607881945692655</v>
       </c>
-    </row>
-    <row r="112" spans="1:15">
+      <c r="P111">
+        <v>1.271286533925858</v>
+      </c>
+      <c r="Q111">
+        <v>1.087406988333765</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
       <c r="A112" s="2">
         <v>43135</v>
       </c>
@@ -5689,8 +6286,14 @@
       <c r="O112">
         <v>0.06597686729631988</v>
       </c>
-    </row>
-    <row r="113" spans="1:15">
+      <c r="P112">
+        <v>1.130541838575444</v>
+      </c>
+      <c r="Q112">
+        <v>1.08824857418872</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
       <c r="A113" s="2">
         <v>43136</v>
       </c>
@@ -5736,8 +6339,14 @@
       <c r="O113">
         <v>0.07332116596163891</v>
       </c>
-    </row>
-    <row r="114" spans="1:15">
+      <c r="P113">
+        <v>1.393986195870157</v>
+      </c>
+      <c r="Q113">
+        <v>1.161535331857852</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
       <c r="A114" s="2">
         <v>43137</v>
       </c>
@@ -5783,8 +6392,14 @@
       <c r="O114">
         <v>0.07534568617740636</v>
       </c>
-    </row>
-    <row r="115" spans="1:15">
+      <c r="P114">
+        <v>1.349961523624935</v>
+      </c>
+      <c r="Q114">
+        <v>1.080058071963988</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
       <c r="A115" s="2">
         <v>43138</v>
       </c>
@@ -5830,8 +6445,14 @@
       <c r="O115">
         <v>0.07260038609785927</v>
       </c>
-    </row>
-    <row r="116" spans="1:15">
+      <c r="P115">
+        <v>1.468602903740703</v>
+      </c>
+      <c r="Q115">
+        <v>1.045020613784591</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
       <c r="A116" s="2">
         <v>43139</v>
       </c>
@@ -5877,8 +6498,11 @@
       <c r="O116">
         <v>0.07449436710102507</v>
       </c>
-    </row>
-    <row r="117" spans="1:15">
+      <c r="Q116">
+        <v>1.053492899612181</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
       <c r="A117" s="2">
         <v>43140</v>
       </c>
@@ -5924,8 +6548,14 @@
       <c r="O117">
         <v>0.07586312668736711</v>
       </c>
-    </row>
-    <row r="118" spans="1:15">
+      <c r="P117">
+        <v>1.134157375665974</v>
+      </c>
+      <c r="Q117">
+        <v>1.046184034519503</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
       <c r="A118" s="2">
         <v>43141</v>
       </c>
@@ -5971,8 +6601,11 @@
       <c r="O118">
         <v>0.07174546295901951</v>
       </c>
-    </row>
-    <row r="119" spans="1:15">
+      <c r="Q118">
+        <v>1.0564825102862</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
       <c r="A119" s="2">
         <v>43142</v>
       </c>
@@ -6018,8 +6651,14 @@
       <c r="O119">
         <v>0.07254386108033765</v>
       </c>
-    </row>
-    <row r="120" spans="1:15">
+      <c r="P119">
+        <v>1.484626230625993</v>
+      </c>
+      <c r="Q119">
+        <v>1.038271926769177</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
       <c r="A120" s="2">
         <v>43143</v>
       </c>
@@ -6065,8 +6704,14 @@
       <c r="O120">
         <v>0.07553656213231058</v>
       </c>
-    </row>
-    <row r="121" spans="1:15">
+      <c r="P120">
+        <v>1.485199687394109</v>
+      </c>
+      <c r="Q120">
+        <v>1.046656740582506</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
       <c r="A121" s="2">
         <v>43144</v>
       </c>
@@ -6112,8 +6757,14 @@
       <c r="O121">
         <v>0.07539620890516954</v>
       </c>
-    </row>
-    <row r="122" spans="1:15">
+      <c r="P121">
+        <v>1.043158986537796</v>
+      </c>
+      <c r="Q121">
+        <v>1.030809729455541</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
       <c r="A122" s="2">
         <v>43145</v>
       </c>
@@ -6159,8 +6810,14 @@
       <c r="O122">
         <v>0.07959810630124924</v>
       </c>
-    </row>
-    <row r="123" spans="1:15">
+      <c r="P122">
+        <v>1.18210904127625</v>
+      </c>
+      <c r="Q122">
+        <v>1.031860281540766</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
       <c r="A123" s="2">
         <v>43146</v>
       </c>
@@ -6206,8 +6863,14 @@
       <c r="O123">
         <v>0.07477833521103558</v>
       </c>
-    </row>
-    <row r="124" spans="1:15">
+      <c r="P123">
+        <v>0.9634452849956225</v>
+      </c>
+      <c r="Q123">
+        <v>1.073202199019439</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
       <c r="A124" s="2">
         <v>43147</v>
       </c>
@@ -6253,8 +6916,11 @@
       <c r="O124">
         <v>0.07394433692087071</v>
       </c>
-    </row>
-    <row r="125" spans="1:15">
+      <c r="Q124">
+        <v>1.025741282364365</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
       <c r="A125" s="2">
         <v>43148</v>
       </c>
@@ -6300,8 +6966,14 @@
       <c r="O125">
         <v>0.07646639350310552</v>
       </c>
-    </row>
-    <row r="126" spans="1:15">
+      <c r="P125">
+        <v>1.010042850305365</v>
+      </c>
+      <c r="Q125">
+        <v>1.029841337612731</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
       <c r="A126" s="2">
         <v>43149</v>
       </c>
@@ -6347,8 +7019,14 @@
       <c r="O126">
         <v>0.07823182312999671</v>
       </c>
-    </row>
-    <row r="127" spans="1:15">
+      <c r="P126">
+        <v>1.184897959812041</v>
+      </c>
+      <c r="Q126">
+        <v>1.031436919814899</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17">
       <c r="A127" s="2">
         <v>43150</v>
       </c>
@@ -6394,8 +7072,14 @@
       <c r="O127">
         <v>0.07640051339983728</v>
       </c>
-    </row>
-    <row r="128" spans="1:15">
+      <c r="P127">
+        <v>1.652383906895717</v>
+      </c>
+      <c r="Q127">
+        <v>1.023933796026091</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
       <c r="A128" s="2">
         <v>43151</v>
       </c>
@@ -6441,8 +7125,14 @@
       <c r="O128">
         <v>0.07247410874291357</v>
       </c>
-    </row>
-    <row r="129" spans="1:15">
+      <c r="P128">
+        <v>1.343151421243151</v>
+      </c>
+      <c r="Q128">
+        <v>1.024473006448793</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
       <c r="A129" s="2">
         <v>43152</v>
       </c>
@@ -6488,8 +7178,14 @@
       <c r="O129">
         <v>0.07271403451240123</v>
       </c>
-    </row>
-    <row r="130" spans="1:15">
+      <c r="P129">
+        <v>1.06833561145185</v>
+      </c>
+      <c r="Q129">
+        <v>1.051805313308493</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
       <c r="A130" s="2">
         <v>43153</v>
       </c>
@@ -6535,8 +7231,14 @@
       <c r="O130">
         <v>0.0753678503891064</v>
       </c>
-    </row>
-    <row r="131" spans="1:15">
+      <c r="P130">
+        <v>1.476090976201058</v>
+      </c>
+      <c r="Q130">
+        <v>1.046419828929189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17">
       <c r="A131" s="2">
         <v>43154</v>
       </c>
@@ -6582,8 +7284,14 @@
       <c r="O131">
         <v>0.07472928497688978</v>
       </c>
-    </row>
-    <row r="132" spans="1:15">
+      <c r="P131">
+        <v>4.114448917667623</v>
+      </c>
+      <c r="Q131">
+        <v>1.047506549231384</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
       <c r="A132" s="2">
         <v>43155</v>
       </c>
@@ -6629,8 +7337,14 @@
       <c r="O132">
         <v>0.07648541640825154</v>
       </c>
-    </row>
-    <row r="133" spans="1:15">
+      <c r="P132">
+        <v>1.21565846621108</v>
+      </c>
+      <c r="Q132">
+        <v>1.046586271388509</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17">
       <c r="A133" s="2">
         <v>43156</v>
       </c>
@@ -6676,8 +7390,14 @@
       <c r="O133">
         <v>0.07682230473256206</v>
       </c>
-    </row>
-    <row r="134" spans="1:15">
+      <c r="P133">
+        <v>1.340364548122905</v>
+      </c>
+      <c r="Q133">
+        <v>1.062116120564692</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
       <c r="A134" s="2">
         <v>43157</v>
       </c>
@@ -6723,8 +7443,14 @@
       <c r="O134">
         <v>0.07886273116780645</v>
       </c>
-    </row>
-    <row r="135" spans="1:15">
+      <c r="P134">
+        <v>1.302177739009962</v>
+      </c>
+      <c r="Q134">
+        <v>1.04137117134282</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
       <c r="A135" s="2">
         <v>43158</v>
       </c>
@@ -6770,8 +7496,14 @@
       <c r="O135">
         <v>0.07906172623796255</v>
       </c>
-    </row>
-    <row r="136" spans="1:15">
+      <c r="P135">
+        <v>1.197051087922599</v>
+      </c>
+      <c r="Q135">
+        <v>1.030048362984543</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
       <c r="A136" s="2">
         <v>43159</v>
       </c>
@@ -6817,8 +7549,14 @@
       <c r="O136">
         <v>0.07855958274582228</v>
       </c>
-    </row>
-    <row r="137" spans="1:15">
+      <c r="P136">
+        <v>1.077398649392737</v>
+      </c>
+      <c r="Q136">
+        <v>1.027498806070156</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17">
       <c r="A137" s="2">
         <v>43160</v>
       </c>
@@ -6864,8 +7602,14 @@
       <c r="O137">
         <v>0.07597561856784553</v>
       </c>
-    </row>
-    <row r="138" spans="1:15">
+      <c r="P137">
+        <v>1.525894045366554</v>
+      </c>
+      <c r="Q137">
+        <v>1.058396599047589</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17">
       <c r="A138" s="2">
         <v>43161</v>
       </c>
@@ -6911,8 +7655,14 @@
       <c r="O138">
         <v>0.07602043419079388</v>
       </c>
-    </row>
-    <row r="139" spans="1:15">
+      <c r="P138">
+        <v>1.339826594781887</v>
+      </c>
+      <c r="Q138">
+        <v>1.031463488286195</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
       <c r="A139" s="2">
         <v>43162</v>
       </c>
@@ -6958,8 +7708,14 @@
       <c r="O139">
         <v>0.07288870959040181</v>
       </c>
-    </row>
-    <row r="140" spans="1:15">
+      <c r="P139">
+        <v>1.123199515557101</v>
+      </c>
+      <c r="Q139">
+        <v>1.032490929119419</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17">
       <c r="A140" s="2">
         <v>43163</v>
       </c>
@@ -7005,8 +7761,14 @@
       <c r="O140">
         <v>0.07135435124727932</v>
       </c>
-    </row>
-    <row r="141" spans="1:15">
+      <c r="P140">
+        <v>1.22670586532594</v>
+      </c>
+      <c r="Q140">
+        <v>1.034194536079512</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
       <c r="A141" s="2">
         <v>43164</v>
       </c>
@@ -7052,8 +7814,14 @@
       <c r="O141">
         <v>0.0699033353047628</v>
       </c>
-    </row>
-    <row r="142" spans="1:15">
+      <c r="P141">
+        <v>1.125430159166009</v>
+      </c>
+      <c r="Q141">
+        <v>1.085005421653974</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
       <c r="A142" s="2">
         <v>43165</v>
       </c>
@@ -7099,8 +7867,14 @@
       <c r="O142">
         <v>0.06849835311801622</v>
       </c>
-    </row>
-    <row r="143" spans="1:15">
+      <c r="P142">
+        <v>1.06383465478543</v>
+      </c>
+      <c r="Q142">
+        <v>1.02525612820747</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17">
       <c r="A143" s="2">
         <v>43166</v>
       </c>
@@ -7146,8 +7920,14 @@
       <c r="O143">
         <v>0.0643483308237137</v>
       </c>
-    </row>
-    <row r="144" spans="1:15">
+      <c r="P143">
+        <v>1.181305057413228</v>
+      </c>
+      <c r="Q143">
+        <v>1.039806714748797</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17">
       <c r="A144" s="2">
         <v>43167</v>
       </c>
@@ -7193,8 +7973,14 @@
       <c r="O144">
         <v>0.06229291339656735</v>
       </c>
-    </row>
-    <row r="145" spans="1:15">
+      <c r="P144">
+        <v>1.097372236452566</v>
+      </c>
+      <c r="Q144">
+        <v>1.058006101702534</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17">
       <c r="A145" s="2">
         <v>43168</v>
       </c>
@@ -7240,8 +8026,14 @@
       <c r="O145">
         <v>0.06180845134203591</v>
       </c>
-    </row>
-    <row r="146" spans="1:15">
+      <c r="P145">
+        <v>1.112973735913098</v>
+      </c>
+      <c r="Q145">
+        <v>1.054015471082382</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17">
       <c r="A146" s="2">
         <v>43169</v>
       </c>
@@ -7287,8 +8079,11 @@
       <c r="O146">
         <v>0.06058626458697785</v>
       </c>
-    </row>
-    <row r="147" spans="1:15">
+      <c r="Q146">
+        <v>1.045385024008043</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17">
       <c r="A147" s="2">
         <v>43170</v>
       </c>
@@ -7334,8 +8129,14 @@
       <c r="O147">
         <v>0.0615626498057595</v>
       </c>
-    </row>
-    <row r="148" spans="1:15">
+      <c r="P147">
+        <v>1.221158940871007</v>
+      </c>
+      <c r="Q147">
+        <v>1.052150783406201</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17">
       <c r="A148" s="2">
         <v>43171</v>
       </c>
@@ -7381,8 +8182,14 @@
       <c r="O148">
         <v>0.06274131010973731</v>
       </c>
-    </row>
-    <row r="149" spans="1:15">
+      <c r="P148">
+        <v>1.292233185441977</v>
+      </c>
+      <c r="Q148">
+        <v>1.037297642622881</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17">
       <c r="A149" s="2">
         <v>43172</v>
       </c>
@@ -7428,8 +8235,14 @@
       <c r="O149">
         <v>0.06018393755785745</v>
       </c>
-    </row>
-    <row r="150" spans="1:15">
+      <c r="P149">
+        <v>1.336532248390902</v>
+      </c>
+      <c r="Q149">
+        <v>1.057067464638285</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17">
       <c r="A150" s="2">
         <v>43173</v>
       </c>
@@ -7475,8 +8288,14 @@
       <c r="O150">
         <v>0.06073465893819688</v>
       </c>
-    </row>
-    <row r="151" spans="1:15">
+      <c r="P150">
+        <v>1.011469889265709</v>
+      </c>
+      <c r="Q150">
+        <v>1.063233959393254</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17">
       <c r="A151" s="2">
         <v>43174</v>
       </c>
@@ -7522,8 +8341,14 @@
       <c r="O151">
         <v>0.05923223901989879</v>
       </c>
-    </row>
-    <row r="152" spans="1:15">
+      <c r="P151">
+        <v>1.131508005535947</v>
+      </c>
+      <c r="Q151">
+        <v>1.051490407099702</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17">
       <c r="A152" s="2">
         <v>43175</v>
       </c>
@@ -7569,8 +8394,14 @@
       <c r="O152">
         <v>0.05508270888296842</v>
       </c>
-    </row>
-    <row r="153" spans="1:15">
+      <c r="P152">
+        <v>1.011044295217478</v>
+      </c>
+      <c r="Q152">
+        <v>1.039574005001171</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17">
       <c r="A153" s="2">
         <v>43176</v>
       </c>
@@ -7616,8 +8447,14 @@
       <c r="O153">
         <v>0.05443631570735335</v>
       </c>
-    </row>
-    <row r="154" spans="1:15">
+      <c r="P153">
+        <v>1.291998173797273</v>
+      </c>
+      <c r="Q153">
+        <v>1.040503490465763</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17">
       <c r="A154" s="2">
         <v>43177</v>
       </c>
@@ -7663,8 +8500,14 @@
       <c r="O154">
         <v>0.05582604748869982</v>
       </c>
-    </row>
-    <row r="155" spans="1:15">
+      <c r="P154">
+        <v>1.120193949233692</v>
+      </c>
+      <c r="Q154">
+        <v>1.056837460606507</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17">
       <c r="A155" s="2">
         <v>43178</v>
       </c>
@@ -7710,8 +8553,14 @@
       <c r="O155">
         <v>0.05436017752923657</v>
       </c>
-    </row>
-    <row r="156" spans="1:15">
+      <c r="P155">
+        <v>1.235428119935445</v>
+      </c>
+      <c r="Q155">
+        <v>1.046645818259122</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17">
       <c r="A156" s="2">
         <v>43179</v>
       </c>
@@ -7757,8 +8606,14 @@
       <c r="O156">
         <v>0.05352607236270793</v>
       </c>
-    </row>
-    <row r="157" spans="1:15">
+      <c r="P156">
+        <v>1.25425497132132</v>
+      </c>
+      <c r="Q156">
+        <v>1.033036321419168</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17">
       <c r="A157" s="2">
         <v>43180</v>
       </c>
@@ -7804,8 +8659,14 @@
       <c r="O157">
         <v>0.05088601923115225</v>
       </c>
-    </row>
-    <row r="158" spans="1:15">
+      <c r="P157">
+        <v>1.242172502523862</v>
+      </c>
+      <c r="Q157">
+        <v>1.02745950397782</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17">
       <c r="A158" s="2">
         <v>43181</v>
       </c>
@@ -7851,8 +8712,14 @@
       <c r="O158">
         <v>0.0512149313259399</v>
       </c>
-    </row>
-    <row r="159" spans="1:15">
+      <c r="P158">
+        <v>1.130812645808172</v>
+      </c>
+      <c r="Q158">
+        <v>1.03433457819533</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17">
       <c r="A159" s="2">
         <v>43182</v>
       </c>
@@ -7898,8 +8765,14 @@
       <c r="O159">
         <v>0.04916506230086791</v>
       </c>
-    </row>
-    <row r="160" spans="1:15">
+      <c r="P159">
+        <v>1.149890053186726</v>
+      </c>
+      <c r="Q159">
+        <v>1.042259365639048</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17">
       <c r="A160" s="2">
         <v>43183</v>
       </c>
@@ -7945,8 +8818,14 @@
       <c r="O160">
         <v>0.0473332946346504</v>
       </c>
-    </row>
-    <row r="161" spans="1:15">
+      <c r="P160">
+        <v>0.9081373322984752</v>
+      </c>
+      <c r="Q160">
+        <v>1.038292299759724</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17">
       <c r="A161" s="2">
         <v>43184</v>
       </c>
@@ -7992,8 +8871,14 @@
       <c r="O161">
         <v>0.04695526075097207</v>
       </c>
-    </row>
-    <row r="162" spans="1:15">
+      <c r="P161">
+        <v>0.9700656776436031</v>
+      </c>
+      <c r="Q161">
+        <v>1.03256348383805</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17">
       <c r="A162" s="2">
         <v>43185</v>
       </c>
@@ -8039,8 +8924,14 @@
       <c r="O162">
         <v>0.04633697821096214</v>
       </c>
-    </row>
-    <row r="163" spans="1:15">
+      <c r="P162">
+        <v>0.9697988495390623</v>
+      </c>
+      <c r="Q162">
+        <v>1.038776228238695</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17">
       <c r="A163" s="2">
         <v>43186</v>
       </c>
@@ -8086,8 +8977,11 @@
       <c r="O163">
         <v>0.04775346962146922</v>
       </c>
-    </row>
-    <row r="164" spans="1:15">
+      <c r="Q163">
+        <v>1.050709269593872</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17">
       <c r="A164" s="2">
         <v>43187</v>
       </c>
@@ -8133,8 +9027,14 @@
       <c r="O164">
         <v>0.0453552481528061</v>
       </c>
-    </row>
-    <row r="165" spans="1:15">
+      <c r="P164">
+        <v>0.8748091915304186</v>
+      </c>
+      <c r="Q164">
+        <v>1.05263047466832</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17">
       <c r="A165" s="2">
         <v>43188</v>
       </c>
@@ -8180,8 +9080,14 @@
       <c r="O165">
         <v>0.0484797674637914</v>
       </c>
-    </row>
-    <row r="166" spans="1:15">
+      <c r="P165">
+        <v>0.9206637111265852</v>
+      </c>
+      <c r="Q165">
+        <v>1.172133890342204</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17">
       <c r="A166" s="2">
         <v>43189</v>
       </c>
@@ -8227,8 +9133,14 @@
       <c r="O166">
         <v>0.04884603013361264</v>
       </c>
-    </row>
-    <row r="167" spans="1:15">
+      <c r="P166">
+        <v>1.091055650944258</v>
+      </c>
+      <c r="Q166">
+        <v>1.051690468494556</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17">
       <c r="A167" s="2">
         <v>43190</v>
       </c>
@@ -8274,8 +9186,14 @@
       <c r="O167">
         <v>0.04710272934358468</v>
       </c>
-    </row>
-    <row r="168" spans="1:15">
+      <c r="P167">
+        <v>1.016878607781012</v>
+      </c>
+      <c r="Q167">
+        <v>1.047569091264257</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17">
       <c r="A168" s="2">
         <v>43191</v>
       </c>
@@ -8321,8 +9239,14 @@
       <c r="O168">
         <v>0.0474044180310795</v>
       </c>
-    </row>
-    <row r="169" spans="1:15">
+      <c r="P168">
+        <v>1.009688438259681</v>
+      </c>
+      <c r="Q168">
+        <v>1.048745224541275</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17">
       <c r="A169" s="2">
         <v>43192</v>
       </c>
@@ -8368,8 +9292,14 @@
       <c r="O169">
         <v>0.04737551531288541</v>
       </c>
-    </row>
-    <row r="170" spans="1:15">
+      <c r="P169">
+        <v>0.8497696246494362</v>
+      </c>
+      <c r="Q169">
+        <v>1.045527141708408</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17">
       <c r="A170" s="2">
         <v>43193</v>
       </c>
@@ -8415,8 +9345,14 @@
       <c r="O170">
         <v>0.04957104111031634</v>
       </c>
-    </row>
-    <row r="171" spans="1:15">
+      <c r="P170">
+        <v>0.8683048562283079</v>
+      </c>
+      <c r="Q170">
+        <v>1.037077400320566</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17">
       <c r="A171" s="2">
         <v>43194</v>
       </c>
@@ -8462,8 +9398,14 @@
       <c r="O171">
         <v>0.05311179805875892</v>
       </c>
-    </row>
-    <row r="172" spans="1:15">
+      <c r="P171">
+        <v>0.9456178721993229</v>
+      </c>
+      <c r="Q171">
+        <v>1.035623052148475</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17">
       <c r="A172" s="2">
         <v>43195</v>
       </c>
@@ -8509,8 +9451,14 @@
       <c r="O172">
         <v>0.0502518476141211</v>
       </c>
-    </row>
-    <row r="173" spans="1:15">
+      <c r="P172">
+        <v>0.887844162245638</v>
+      </c>
+      <c r="Q172">
+        <v>1.047138664680296</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17">
       <c r="A173" s="2">
         <v>43196</v>
       </c>
@@ -8556,8 +9504,14 @@
       <c r="O173">
         <v>0.0480029585452446</v>
       </c>
-    </row>
-    <row r="174" spans="1:15">
+      <c r="P173">
+        <v>0.9267935806294685</v>
+      </c>
+      <c r="Q173">
+        <v>1.053343180506411</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17">
       <c r="A174" s="2">
         <v>43197</v>
       </c>
@@ -8603,8 +9557,14 @@
       <c r="O174">
         <v>0.04724061840090824</v>
       </c>
-    </row>
-    <row r="175" spans="1:15">
+      <c r="P174">
+        <v>0.9150166019470466</v>
+      </c>
+      <c r="Q174">
+        <v>1.058814191489172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17">
       <c r="A175" s="2">
         <v>43198</v>
       </c>
@@ -8650,8 +9610,11 @@
       <c r="O175">
         <v>0.04770545677882992</v>
       </c>
-    </row>
-    <row r="176" spans="1:15">
+      <c r="Q175">
+        <v>1.039240206476615</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17">
       <c r="A176" s="2">
         <v>43199</v>
       </c>
@@ -8697,8 +9660,14 @@
       <c r="O176">
         <v>0.04703570989475324</v>
       </c>
-    </row>
-    <row r="177" spans="1:15">
+      <c r="P176">
+        <v>1.006916886796487</v>
+      </c>
+      <c r="Q176">
+        <v>1.048239046606838</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17">
       <c r="A177" s="2">
         <v>43200</v>
       </c>
@@ -8744,8 +9713,14 @@
       <c r="O177">
         <v>0.04403375500511492</v>
       </c>
-    </row>
-    <row r="178" spans="1:15">
+      <c r="P177">
+        <v>1.031626437526851</v>
+      </c>
+      <c r="Q177">
+        <v>1.054792154945917</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17">
       <c r="A178" s="2">
         <v>43201</v>
       </c>
@@ -8791,8 +9766,14 @@
       <c r="O178">
         <v>0.04314237616586212</v>
       </c>
-    </row>
-    <row r="179" spans="1:15">
+      <c r="P178">
+        <v>0.9587529504180584</v>
+      </c>
+      <c r="Q178">
+        <v>1.040199494606137</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17">
       <c r="A179" s="2">
         <v>43202</v>
       </c>
@@ -8838,8 +9819,14 @@
       <c r="O179">
         <v>0.04851081104097905</v>
       </c>
-    </row>
-    <row r="180" spans="1:15">
+      <c r="P179">
+        <v>0.6709613126770592</v>
+      </c>
+      <c r="Q179">
+        <v>1.027382825609995</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17">
       <c r="A180" s="2">
         <v>43203</v>
       </c>
@@ -8885,8 +9872,14 @@
       <c r="O180">
         <v>0.04385345347733545</v>
       </c>
-    </row>
-    <row r="181" spans="1:15">
+      <c r="P180">
+        <v>0.9420349183418983</v>
+      </c>
+      <c r="Q180">
+        <v>1.035060846127132</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17">
       <c r="A181" s="2">
         <v>43204</v>
       </c>
@@ -8932,8 +9925,14 @@
       <c r="O181">
         <v>0.04419617339892265</v>
       </c>
-    </row>
-    <row r="182" spans="1:15">
+      <c r="P181">
+        <v>1.04486434049591</v>
+      </c>
+      <c r="Q181">
+        <v>1.025464073378223</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17">
       <c r="A182" s="2">
         <v>43205</v>
       </c>
@@ -8979,8 +9978,14 @@
       <c r="O182">
         <v>0.04587317476014603</v>
       </c>
-    </row>
-    <row r="183" spans="1:15">
+      <c r="P182">
+        <v>0.9117865567662031</v>
+      </c>
+      <c r="Q182">
+        <v>1.043697926781146</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17">
       <c r="A183" s="2">
         <v>43206</v>
       </c>
@@ -9026,8 +10031,14 @@
       <c r="O183">
         <v>0.04500809420027369</v>
       </c>
-    </row>
-    <row r="184" spans="1:15">
+      <c r="P183">
+        <v>0.8039060266843737</v>
+      </c>
+      <c r="Q183">
+        <v>1.030543253167582</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17">
       <c r="A184" s="2">
         <v>43207</v>
       </c>
@@ -9073,8 +10084,14 @@
       <c r="O184">
         <v>0.04419306796595768</v>
       </c>
-    </row>
-    <row r="185" spans="1:15">
+      <c r="P184">
+        <v>0.9621487490738442</v>
+      </c>
+      <c r="Q184">
+        <v>1.032862100908814</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17">
       <c r="A185" s="2">
         <v>43208</v>
       </c>
@@ -9120,8 +10137,14 @@
       <c r="O185">
         <v>0.04349828021123796</v>
       </c>
-    </row>
-    <row r="186" spans="1:15">
+      <c r="P185">
+        <v>1.225477136972791</v>
+      </c>
+      <c r="Q185">
+        <v>1.034836166875857</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17">
       <c r="A186" s="2">
         <v>43209</v>
       </c>
@@ -9167,8 +10190,14 @@
       <c r="O186">
         <v>0.04277129676744468</v>
       </c>
-    </row>
-    <row r="187" spans="1:15">
+      <c r="P186">
+        <v>0.9542109765782957</v>
+      </c>
+      <c r="Q186">
+        <v>1.0389175973669</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17">
       <c r="A187" s="2">
         <v>43210</v>
       </c>
@@ -9214,8 +10243,14 @@
       <c r="O187">
         <v>0.04550921858755798</v>
       </c>
-    </row>
-    <row r="188" spans="1:15">
+      <c r="P187">
+        <v>1.145693703010475</v>
+      </c>
+      <c r="Q187">
+        <v>1.038927098974419</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17">
       <c r="A188" s="2">
         <v>43211</v>
       </c>
@@ -9261,8 +10296,14 @@
       <c r="O188">
         <v>0.04474188416112879</v>
       </c>
-    </row>
-    <row r="189" spans="1:15">
+      <c r="P188">
+        <v>1.188495972685492</v>
+      </c>
+      <c r="Q188">
+        <v>1.02873771290643</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17">
       <c r="A189" s="2">
         <v>43212</v>
       </c>
@@ -9308,8 +10349,14 @@
       <c r="O189">
         <v>0.0444444081818794</v>
       </c>
-    </row>
-    <row r="190" spans="1:15">
+      <c r="P189">
+        <v>1.554283939696675</v>
+      </c>
+      <c r="Q189">
+        <v>1.0291290012657</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17">
       <c r="A190" s="2">
         <v>43213</v>
       </c>
@@ -9355,8 +10402,14 @@
       <c r="O190">
         <v>0.04401018504016466</v>
       </c>
-    </row>
-    <row r="191" spans="1:15">
+      <c r="P190">
+        <v>0.8141040314671385</v>
+      </c>
+      <c r="Q190">
+        <v>1.026894569201644</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17">
       <c r="A191" s="2">
         <v>43214</v>
       </c>
@@ -9402,8 +10455,11 @@
       <c r="O191">
         <v>0.04667369430080472</v>
       </c>
-    </row>
-    <row r="192" spans="1:15">
+      <c r="Q191">
+        <v>1.041725359667647</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17">
       <c r="A192" s="2">
         <v>43215</v>
       </c>
@@ -9449,8 +10505,14 @@
       <c r="O192">
         <v>0.04912463650781521</v>
       </c>
-    </row>
-    <row r="193" spans="1:15">
+      <c r="P192">
+        <v>1.067641161274536</v>
+      </c>
+      <c r="Q192">
+        <v>1.017047184629667</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17">
       <c r="A193" s="2">
         <v>43216</v>
       </c>
@@ -9496,8 +10558,14 @@
       <c r="O193">
         <v>0.04912845809275231</v>
       </c>
-    </row>
-    <row r="194" spans="1:15">
+      <c r="P193">
+        <v>1.023186577079925</v>
+      </c>
+      <c r="Q193">
+        <v>1.012343896644995</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17">
       <c r="A194" s="2">
         <v>43217</v>
       </c>
@@ -9543,8 +10611,14 @@
       <c r="O194">
         <v>0.04985648760368157</v>
       </c>
-    </row>
-    <row r="195" spans="1:15">
+      <c r="P194">
+        <v>0.7558607060006171</v>
+      </c>
+      <c r="Q194">
+        <v>1.017252835275979</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17">
       <c r="A195" s="2">
         <v>43218</v>
       </c>
@@ -9590,8 +10664,14 @@
       <c r="O195">
         <v>0.04696129476688769</v>
       </c>
-    </row>
-    <row r="196" spans="1:15">
+      <c r="P195">
+        <v>0.9948443665689497</v>
+      </c>
+      <c r="Q195">
+        <v>1.025571246193173</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17">
       <c r="A196" s="2">
         <v>43219</v>
       </c>
@@ -9637,8 +10717,14 @@
       <c r="O196">
         <v>0.04555416619876974</v>
       </c>
-    </row>
-    <row r="197" spans="1:15">
+      <c r="P196">
+        <v>0.9781850565420122</v>
+      </c>
+      <c r="Q196">
+        <v>1.032000231547205</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17">
       <c r="A197" s="2">
         <v>43220</v>
       </c>
@@ -9684,8 +10770,11 @@
       <c r="O197">
         <v>0.04585193354384215</v>
       </c>
-    </row>
-    <row r="198" spans="1:15">
+      <c r="Q197">
+        <v>1.025529363226023</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17">
       <c r="A198" s="2">
         <v>43221</v>
       </c>
@@ -9731,8 +10820,14 @@
       <c r="O198">
         <v>0.04559176679274417</v>
       </c>
-    </row>
-    <row r="199" spans="1:15">
+      <c r="P198">
+        <v>0.9173367886470698</v>
+      </c>
+      <c r="Q198">
+        <v>1.007760927640926</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17">
       <c r="A199" s="2">
         <v>43222</v>
       </c>
@@ -9778,8 +10873,14 @@
       <c r="O199">
         <v>0.04460134540859411</v>
       </c>
-    </row>
-    <row r="200" spans="1:15">
+      <c r="P199">
+        <v>0.8838818950293855</v>
+      </c>
+      <c r="Q199">
+        <v>1.012003244522315</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17">
       <c r="A200" s="2">
         <v>43223</v>
       </c>
@@ -9825,8 +10926,14 @@
       <c r="O200">
         <v>0.04464045702440694</v>
       </c>
-    </row>
-    <row r="201" spans="1:15">
+      <c r="P200">
+        <v>0.9012935574396986</v>
+      </c>
+      <c r="Q200">
+        <v>1.019869348023324</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17">
       <c r="A201" s="2">
         <v>43224</v>
       </c>
@@ -9872,8 +10979,14 @@
       <c r="O201">
         <v>0.04106109921224724</v>
       </c>
-    </row>
-    <row r="202" spans="1:15">
+      <c r="P201">
+        <v>0.961943994409282</v>
+      </c>
+      <c r="Q201">
+        <v>1.024132938977121</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17">
       <c r="A202" s="2">
         <v>43225</v>
       </c>
@@ -9919,8 +11032,14 @@
       <c r="O202">
         <v>0.04149210288035249</v>
       </c>
-    </row>
-    <row r="203" spans="1:15">
+      <c r="P202">
+        <v>0.9345929368176206</v>
+      </c>
+      <c r="Q202">
+        <v>1.027050253339018</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17">
       <c r="A203" s="2">
         <v>43226</v>
       </c>
@@ -9966,8 +11085,14 @@
       <c r="O203">
         <v>0.04122884384680082</v>
       </c>
-    </row>
-    <row r="204" spans="1:15">
+      <c r="P203">
+        <v>0.8923562697650855</v>
+      </c>
+      <c r="Q203">
+        <v>1.019095917378414</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17">
       <c r="A204" s="2">
         <v>43227</v>
       </c>
@@ -10013,8 +11138,14 @@
       <c r="O204">
         <v>0.04069692605642719</v>
       </c>
-    </row>
-    <row r="205" spans="1:15">
+      <c r="P204">
+        <v>0.8602363879298859</v>
+      </c>
+      <c r="Q204">
+        <v>1.006060128798879</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17">
       <c r="A205" s="2">
         <v>43228</v>
       </c>
@@ -10060,8 +11191,14 @@
       <c r="O205">
         <v>0.04061759159791724</v>
       </c>
-    </row>
-    <row r="206" spans="1:15">
+      <c r="P205">
+        <v>0.8837237364587804</v>
+      </c>
+      <c r="Q205">
+        <v>1.005188754714453</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17">
       <c r="A206" s="2">
         <v>43229</v>
       </c>
@@ -10107,8 +11244,14 @@
       <c r="O206">
         <v>0.03940360288350193</v>
       </c>
-    </row>
-    <row r="207" spans="1:15">
+      <c r="P206">
+        <v>0.9173480015636796</v>
+      </c>
+      <c r="Q206">
+        <v>1.00512108877092</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17">
       <c r="A207" s="2">
         <v>43230</v>
       </c>
@@ -10154,8 +11297,14 @@
       <c r="O207">
         <v>0.04033083142888284</v>
       </c>
-    </row>
-    <row r="208" spans="1:15">
+      <c r="P207">
+        <v>0.9641013904012987</v>
+      </c>
+      <c r="Q207">
+        <v>1.0030628233354</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17">
       <c r="A208" s="2">
         <v>43231</v>
       </c>
@@ -10201,8 +11350,14 @@
       <c r="O208">
         <v>0.04247668573902158</v>
       </c>
-    </row>
-    <row r="209" spans="1:15">
+      <c r="P208">
+        <v>1.093324607707391</v>
+      </c>
+      <c r="Q208">
+        <v>1.017553680943109</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17">
       <c r="A209" s="2">
         <v>43232</v>
       </c>
@@ -10248,8 +11403,14 @@
       <c r="O209">
         <v>0.03738911583717346</v>
       </c>
-    </row>
-    <row r="210" spans="1:15">
+      <c r="P209">
+        <v>0.9978813408019005</v>
+      </c>
+      <c r="Q209">
+        <v>1.023756292675458</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17">
       <c r="A210" s="2">
         <v>43233</v>
       </c>
@@ -10295,8 +11456,14 @@
       <c r="O210">
         <v>0.03848236810705242</v>
       </c>
-    </row>
-    <row r="211" spans="1:15">
+      <c r="P210">
+        <v>0.918781452737808</v>
+      </c>
+      <c r="Q210">
+        <v>1.022182561539245</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17">
       <c r="A211" s="2">
         <v>43234</v>
       </c>
@@ -10342,8 +11509,14 @@
       <c r="O211">
         <v>0.03801024509593994</v>
       </c>
-    </row>
-    <row r="212" spans="1:15">
+      <c r="P211">
+        <v>0.8361572557548886</v>
+      </c>
+      <c r="Q211">
+        <v>1.02103113190233</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17">
       <c r="A212" s="2">
         <v>43235</v>
       </c>
@@ -10389,8 +11562,14 @@
       <c r="O212">
         <v>0.03719111867900332</v>
       </c>
-    </row>
-    <row r="213" spans="1:15">
+      <c r="P212">
+        <v>0.8974908868188282</v>
+      </c>
+      <c r="Q212">
+        <v>1.015115083694141</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17">
       <c r="A213" s="2">
         <v>43236</v>
       </c>
@@ -10436,8 +11615,14 @@
       <c r="O213">
         <v>0.03646195190404831</v>
       </c>
-    </row>
-    <row r="214" spans="1:15">
+      <c r="P213">
+        <v>0.907353125801213</v>
+      </c>
+      <c r="Q213">
+        <v>1.019380853880381</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17">
       <c r="A214" s="2">
         <v>43237</v>
       </c>
@@ -10483,8 +11668,14 @@
       <c r="O214">
         <v>0.03707868610130661</v>
       </c>
-    </row>
-    <row r="215" spans="1:15">
+      <c r="P214">
+        <v>0.8275191793063581</v>
+      </c>
+      <c r="Q214">
+        <v>1.016048051645695</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17">
       <c r="A215" s="2">
         <v>43238</v>
       </c>
@@ -10530,8 +11721,14 @@
       <c r="O215">
         <v>0.03649189175122594</v>
       </c>
-    </row>
-    <row r="216" spans="1:15">
+      <c r="P215">
+        <v>0.9680546517855867</v>
+      </c>
+      <c r="Q215">
+        <v>1.024831471117265</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17">
       <c r="A216" s="2">
         <v>43239</v>
       </c>
@@ -10577,8 +11774,14 @@
       <c r="O216">
         <v>0.03581111599345928</v>
       </c>
-    </row>
-    <row r="217" spans="1:15">
+      <c r="P216">
+        <v>0.9656705062623321</v>
+      </c>
+      <c r="Q216">
+        <v>1.015098790815378</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17">
       <c r="A217" s="2">
         <v>43240</v>
       </c>
@@ -10624,8 +11827,14 @@
       <c r="O217">
         <v>0.03441391775029441</v>
       </c>
-    </row>
-    <row r="218" spans="1:15">
+      <c r="P217">
+        <v>0.8897869730009355</v>
+      </c>
+      <c r="Q217">
+        <v>1.01396506003084</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17">
       <c r="A218" s="2">
         <v>43241</v>
       </c>
@@ -10671,8 +11880,14 @@
       <c r="O218">
         <v>0.03466520457209737</v>
       </c>
-    </row>
-    <row r="219" spans="1:15">
+      <c r="P218">
+        <v>0.7797032110489285</v>
+      </c>
+      <c r="Q218">
+        <v>1.015398892776823</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17">
       <c r="A219" s="2">
         <v>43242</v>
       </c>
@@ -10718,8 +11933,14 @@
       <c r="O219">
         <v>0.0362499653353465</v>
       </c>
-    </row>
-    <row r="220" spans="1:15">
+      <c r="P219">
+        <v>1.002976696991186</v>
+      </c>
+      <c r="Q219">
+        <v>1.012832482795068</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17">
       <c r="A220" s="2">
         <v>43243</v>
       </c>
@@ -10765,8 +11986,14 @@
       <c r="O220">
         <v>0.03835786848696594</v>
       </c>
-    </row>
-    <row r="221" spans="1:15">
+      <c r="P220">
+        <v>1.033027527732388</v>
+      </c>
+      <c r="Q220">
+        <v>1.018512450028356</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17">
       <c r="A221" s="2">
         <v>43244</v>
       </c>
@@ -10812,8 +12039,14 @@
       <c r="O221">
         <v>0.03496456572306526</v>
       </c>
-    </row>
-    <row r="222" spans="1:15">
+      <c r="P221">
+        <v>0.9610792178985067</v>
+      </c>
+      <c r="Q221">
+        <v>1.015786568426666</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17">
       <c r="A222" s="2">
         <v>43245</v>
       </c>
@@ -10859,8 +12092,14 @@
       <c r="O222">
         <v>0.03162768361168525</v>
       </c>
-    </row>
-    <row r="223" spans="1:15">
+      <c r="P222">
+        <v>1.013563411969143</v>
+      </c>
+      <c r="Q222">
+        <v>1.019996961414491</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17">
       <c r="A223" s="2">
         <v>43246</v>
       </c>
@@ -10906,8 +12145,14 @@
       <c r="O223">
         <v>0.0302865577107874</v>
       </c>
-    </row>
-    <row r="224" spans="1:15">
+      <c r="P223">
+        <v>0.9969403577745515</v>
+      </c>
+      <c r="Q223">
+        <v>1.028980527062331</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17">
       <c r="A224" s="2">
         <v>43247</v>
       </c>
@@ -10953,8 +12198,11 @@
       <c r="O224">
         <v>0.02894500737291161</v>
       </c>
-    </row>
-    <row r="225" spans="1:15">
+      <c r="Q224">
+        <v>1.020746710436148</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17">
       <c r="A225" s="2">
         <v>43248</v>
       </c>
@@ -11000,8 +12248,11 @@
       <c r="O225">
         <v>0.02864748096891677</v>
       </c>
-    </row>
-    <row r="226" spans="1:15">
+      <c r="Q225">
+        <v>1.014455949049235</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17">
       <c r="A226" s="2">
         <v>43249</v>
       </c>
@@ -11047,8 +12298,14 @@
       <c r="O226">
         <v>0.03037137652004528</v>
       </c>
-    </row>
-    <row r="227" spans="1:15">
+      <c r="P226">
+        <v>0.9506511019474216</v>
+      </c>
+      <c r="Q226">
+        <v>1.012466862323083</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17">
       <c r="A227" s="2">
         <v>43250</v>
       </c>
@@ -11094,8 +12351,14 @@
       <c r="O227">
         <v>0.02993308807596261</v>
       </c>
-    </row>
-    <row r="228" spans="1:15">
+      <c r="P227">
+        <v>0.9088349655636458</v>
+      </c>
+      <c r="Q227">
+        <v>1.011649434464328</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17">
       <c r="A228" s="2">
         <v>43251</v>
       </c>
@@ -11141,8 +12404,14 @@
       <c r="O228">
         <v>0.02987771692382616</v>
       </c>
-    </row>
-    <row r="229" spans="1:15">
+      <c r="P228">
+        <v>0.8478163973099161</v>
+      </c>
+      <c r="Q228">
+        <v>1.008830389350139</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17">
       <c r="A229" s="2">
         <v>43252</v>
       </c>
@@ -11188,8 +12457,14 @@
       <c r="O229">
         <v>0.02959946909031665</v>
       </c>
-    </row>
-    <row r="230" spans="1:15">
+      <c r="P229">
+        <v>0.7004289106942143</v>
+      </c>
+      <c r="Q229">
+        <v>1.014487194549846</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17">
       <c r="A230" s="2">
         <v>43253</v>
       </c>
@@ -11235,8 +12510,11 @@
       <c r="O230">
         <v>0.02787834724399471</v>
       </c>
-    </row>
-    <row r="231" spans="1:15">
+      <c r="Q230">
+        <v>1.014366731322004</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17">
       <c r="A231" s="2">
         <v>43254</v>
       </c>
@@ -11282,8 +12560,14 @@
       <c r="O231">
         <v>0.02813243826891632</v>
       </c>
-    </row>
-    <row r="232" spans="1:15">
+      <c r="P231">
+        <v>0.9133582407878466</v>
+      </c>
+      <c r="Q231">
+        <v>1.01123660536448</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17">
       <c r="A232" s="2">
         <v>43255</v>
       </c>
@@ -11329,8 +12613,14 @@
       <c r="O232">
         <v>0.02863504363910175</v>
       </c>
-    </row>
-    <row r="233" spans="1:15">
+      <c r="P232">
+        <v>0.8114320392942208</v>
+      </c>
+      <c r="Q232">
+        <v>1.00996463862521</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17">
       <c r="A233" s="2">
         <v>43256</v>
       </c>
@@ -11376,8 +12666,14 @@
       <c r="O233">
         <v>0.02842234055864962</v>
       </c>
-    </row>
-    <row r="234" spans="1:15">
+      <c r="P233">
+        <v>0.8793006277239448</v>
+      </c>
+      <c r="Q233">
+        <v>1.020092036316861</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17">
       <c r="A234" s="2">
         <v>43257</v>
       </c>
@@ -11423,8 +12719,14 @@
       <c r="O234">
         <v>0.02723761447802084</v>
       </c>
-    </row>
-    <row r="235" spans="1:15">
+      <c r="P234">
+        <v>0.8788423709901613</v>
+      </c>
+      <c r="Q234">
+        <v>1.009940597187925</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17">
       <c r="A235" s="2">
         <v>43258</v>
       </c>
@@ -11470,8 +12772,14 @@
       <c r="O235">
         <v>0.0267264579157642</v>
       </c>
-    </row>
-    <row r="236" spans="1:15">
+      <c r="P235">
+        <v>0.8063682259649453</v>
+      </c>
+      <c r="Q235">
+        <v>1.009088474770705</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17">
       <c r="A236" s="2">
         <v>43259</v>
       </c>
@@ -11517,8 +12825,14 @@
       <c r="O236">
         <v>0.02661192366934773</v>
       </c>
-    </row>
-    <row r="237" spans="1:15">
+      <c r="P236">
+        <v>0.6544439103838092</v>
+      </c>
+      <c r="Q236">
+        <v>1.002116231536087</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17">
       <c r="A237" s="2">
         <v>43260</v>
       </c>
@@ -11564,8 +12878,11 @@
       <c r="O237">
         <v>0.02581592143659617</v>
       </c>
-    </row>
-    <row r="238" spans="1:15">
+      <c r="Q237">
+        <v>1.004960058689685</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17">
       <c r="A238" s="2">
         <v>43261</v>
       </c>
@@ -11611,8 +12928,14 @@
       <c r="O238">
         <v>0.02743958532793034</v>
       </c>
-    </row>
-    <row r="239" spans="1:15">
+      <c r="P238">
+        <v>0.9806106249761118</v>
+      </c>
+      <c r="Q238">
+        <v>1.018808220550316</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17">
       <c r="A239" s="2">
         <v>43262</v>
       </c>
@@ -11658,8 +12981,14 @@
       <c r="O239">
         <v>0.02790172482680432</v>
       </c>
-    </row>
-    <row r="240" spans="1:15">
+      <c r="P239">
+        <v>0.9005938845646284</v>
+      </c>
+      <c r="Q239">
+        <v>1.03091860380966</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17">
       <c r="A240" s="2">
         <v>43263</v>
       </c>
@@ -11705,8 +13034,14 @@
       <c r="O240">
         <v>0.02893323098344118</v>
       </c>
-    </row>
-    <row r="241" spans="1:15">
+      <c r="P240">
+        <v>0.9280570602500074</v>
+      </c>
+      <c r="Q240">
+        <v>1.02683431317428</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17">
       <c r="A241" s="2">
         <v>43264</v>
       </c>
@@ -11752,8 +13087,14 @@
       <c r="O241">
         <v>0.03050633076025907</v>
       </c>
-    </row>
-    <row r="242" spans="1:15">
+      <c r="P241">
+        <v>0.807738973231495</v>
+      </c>
+      <c r="Q241">
+        <v>1.029816986103685</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17">
       <c r="A242" s="2">
         <v>43265</v>
       </c>
@@ -11799,8 +13140,14 @@
       <c r="O242">
         <v>0.03168253541296008</v>
       </c>
-    </row>
-    <row r="243" spans="1:15">
+      <c r="P242">
+        <v>0.9299747641495527</v>
+      </c>
+      <c r="Q242">
+        <v>1.030106657647533</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17">
       <c r="A243" s="2">
         <v>43266</v>
       </c>
@@ -11846,8 +13193,11 @@
       <c r="O243">
         <v>0.03244940442347474</v>
       </c>
-    </row>
-    <row r="244" spans="1:15">
+      <c r="Q243">
+        <v>1.032380748028242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17">
       <c r="A244" s="2">
         <v>43267</v>
       </c>
@@ -11893,8 +13243,14 @@
       <c r="O244">
         <v>0.03162410485092703</v>
       </c>
-    </row>
-    <row r="245" spans="1:15">
+      <c r="P244">
+        <v>0.7655372478554686</v>
+      </c>
+      <c r="Q244">
+        <v>1.039733217809118</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17">
       <c r="A245" s="2">
         <v>43268</v>
       </c>
@@ -11940,8 +13296,14 @@
       <c r="O245">
         <v>0.03112809944564535</v>
       </c>
-    </row>
-    <row r="246" spans="1:15">
+      <c r="P245">
+        <v>0.7517740409329025</v>
+      </c>
+      <c r="Q245">
+        <v>1.035732194778726</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17">
       <c r="A246" s="2">
         <v>43269</v>
       </c>
@@ -11987,8 +13349,14 @@
       <c r="O246">
         <v>0.03271698042195969</v>
       </c>
-    </row>
-    <row r="247" spans="1:15">
+      <c r="P246">
+        <v>0.8775457723439205</v>
+      </c>
+      <c r="Q246">
+        <v>1.031968675800555</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17">
       <c r="A247" s="2">
         <v>43270</v>
       </c>
@@ -12034,8 +13402,14 @@
       <c r="O247">
         <v>0.0315326657120211</v>
       </c>
-    </row>
-    <row r="248" spans="1:15">
+      <c r="P247">
+        <v>0.7658253594049144</v>
+      </c>
+      <c r="Q247">
+        <v>1.020121725805841</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17">
       <c r="A248" s="2">
         <v>43271</v>
       </c>
@@ -12081,8 +13455,14 @@
       <c r="O248">
         <v>0.0310789948134043</v>
       </c>
-    </row>
-    <row r="249" spans="1:15">
+      <c r="P248">
+        <v>0.7785782310941164</v>
+      </c>
+      <c r="Q248">
+        <v>1.016156103952555</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17">
       <c r="A249" s="2">
         <v>43272</v>
       </c>
@@ -12128,8 +13508,14 @@
       <c r="O249">
         <v>0.02934420541936425</v>
       </c>
-    </row>
-    <row r="250" spans="1:15">
+      <c r="P249">
+        <v>0.8021333764723119</v>
+      </c>
+      <c r="Q249">
+        <v>1.017595365408472</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17">
       <c r="A250" s="2">
         <v>43273</v>
       </c>
@@ -12175,8 +13561,14 @@
       <c r="O250">
         <v>0.03111304202825229</v>
       </c>
-    </row>
-    <row r="251" spans="1:15">
+      <c r="P250">
+        <v>0.9859338919807922</v>
+      </c>
+      <c r="Q250">
+        <v>1.021460737014527</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17">
       <c r="A251" s="2">
         <v>43274</v>
       </c>
@@ -12222,8 +13614,14 @@
       <c r="O251">
         <v>0.03152603314590605</v>
       </c>
-    </row>
-    <row r="252" spans="1:15">
+      <c r="P251">
+        <v>0.7978818260602014</v>
+      </c>
+      <c r="Q251">
+        <v>1.025453168887232</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17">
       <c r="A252" s="2">
         <v>43275</v>
       </c>
@@ -12269,8 +13667,14 @@
       <c r="O252">
         <v>0.03096646619393885</v>
       </c>
-    </row>
-    <row r="253" spans="1:15">
+      <c r="P252">
+        <v>0.9329095449269572</v>
+      </c>
+      <c r="Q252">
+        <v>1.027897608547062</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17">
       <c r="A253" s="2">
         <v>43276</v>
       </c>
@@ -12316,8 +13720,14 @@
       <c r="O253">
         <v>0.03075445512240925</v>
       </c>
-    </row>
-    <row r="254" spans="1:15">
+      <c r="P253">
+        <v>1.012470837619953</v>
+      </c>
+      <c r="Q253">
+        <v>1.023515508133917</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17">
       <c r="A254" s="2">
         <v>43277</v>
       </c>
@@ -12363,8 +13773,14 @@
       <c r="O254">
         <v>0.03182878440636949</v>
       </c>
-    </row>
-    <row r="255" spans="1:15">
+      <c r="P254">
+        <v>0.7767465697481879</v>
+      </c>
+      <c r="Q254">
+        <v>1.012524075097643</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17">
       <c r="A255" s="2">
         <v>43278</v>
       </c>
@@ -12410,8 +13826,14 @@
       <c r="O255">
         <v>0.03086802423391359</v>
       </c>
-    </row>
-    <row r="256" spans="1:15">
+      <c r="P255">
+        <v>0.8020719239817594</v>
+      </c>
+      <c r="Q255">
+        <v>1.014572527197181</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17">
       <c r="A256" s="2">
         <v>43279</v>
       </c>
@@ -12457,8 +13879,14 @@
       <c r="O256">
         <v>0.03073105818351022</v>
       </c>
-    </row>
-    <row r="257" spans="1:15">
+      <c r="P256">
+        <v>2.659272104977236</v>
+      </c>
+      <c r="Q256">
+        <v>1.017414224044613</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17">
       <c r="A257" s="2">
         <v>43280</v>
       </c>
@@ -12504,8 +13932,14 @@
       <c r="O257">
         <v>0.03268418968588349</v>
       </c>
-    </row>
-    <row r="258" spans="1:15">
+      <c r="P257">
+        <v>1.34224336768347</v>
+      </c>
+      <c r="Q257">
+        <v>1.017741396395458</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17">
       <c r="A258" s="2">
         <v>43281</v>
       </c>
@@ -12551,8 +13985,14 @@
       <c r="O258">
         <v>0.03348128735100783</v>
       </c>
-    </row>
-    <row r="259" spans="1:15">
+      <c r="P258">
+        <v>0.7023077491938953</v>
+      </c>
+      <c r="Q258">
+        <v>1.022669455286182</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17">
       <c r="A259" s="2">
         <v>43282</v>
       </c>
@@ -12598,8 +14038,14 @@
       <c r="O259">
         <v>0.03332702294750868</v>
       </c>
-    </row>
-    <row r="260" spans="1:15">
+      <c r="P259">
+        <v>0.7544078262462345</v>
+      </c>
+      <c r="Q259">
+        <v>1.025226450638104</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17">
       <c r="A260" s="2">
         <v>43283</v>
       </c>
@@ -12645,8 +14091,14 @@
       <c r="O260">
         <v>0.03430752929147057</v>
       </c>
-    </row>
-    <row r="261" spans="1:15">
+      <c r="P260">
+        <v>0.6715654578787924</v>
+      </c>
+      <c r="Q260">
+        <v>1.020420866621292</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17">
       <c r="A261" s="2">
         <v>43284</v>
       </c>
@@ -12692,8 +14144,14 @@
       <c r="O261">
         <v>0.03443737007391644</v>
       </c>
-    </row>
-    <row r="262" spans="1:15">
+      <c r="P261">
+        <v>0.6776887032627776</v>
+      </c>
+      <c r="Q261">
+        <v>1.015772634527267</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17">
       <c r="A262" s="2">
         <v>43285</v>
       </c>
@@ -12739,8 +14197,14 @@
       <c r="O262">
         <v>0.03369497910189637</v>
       </c>
-    </row>
-    <row r="263" spans="1:15">
+      <c r="P262">
+        <v>0.6340433186388656</v>
+      </c>
+      <c r="Q262">
+        <v>1.014279339634409</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17">
       <c r="A263" s="2">
         <v>43286</v>
       </c>
@@ -12786,8 +14250,14 @@
       <c r="O263">
         <v>0.03327087784145882</v>
       </c>
-    </row>
-    <row r="264" spans="1:15">
+      <c r="P263">
+        <v>0.8630433961369978</v>
+      </c>
+      <c r="Q263">
+        <v>1.016082444215315</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17">
       <c r="A264" s="2">
         <v>43287</v>
       </c>
@@ -12833,8 +14303,14 @@
       <c r="O264">
         <v>0.03338477170780429</v>
       </c>
-    </row>
-    <row r="265" spans="1:15">
+      <c r="P264">
+        <v>0.7827602518857337</v>
+      </c>
+      <c r="Q264">
+        <v>1.021723237121402</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17">
       <c r="A265" s="2">
         <v>43288</v>
       </c>
@@ -12880,8 +14356,14 @@
       <c r="O265">
         <v>0.03446932958648329</v>
       </c>
-    </row>
-    <row r="266" spans="1:15">
+      <c r="P265">
+        <v>0.6945961458937664</v>
+      </c>
+      <c r="Q265">
+        <v>1.022714173446168</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17">
       <c r="A266" s="2">
         <v>43289</v>
       </c>
@@ -12927,8 +14409,11 @@
       <c r="O266">
         <v>0.03471027349163437</v>
       </c>
-    </row>
-    <row r="267" spans="1:15">
+      <c r="Q266">
+        <v>1.019515182957753</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17">
       <c r="A267" s="2">
         <v>43290</v>
       </c>
@@ -12974,8 +14459,14 @@
       <c r="O267">
         <v>0.0343703511333148</v>
       </c>
-    </row>
-    <row r="268" spans="1:15">
+      <c r="P267">
+        <v>0.6545270286201986</v>
+      </c>
+      <c r="Q267">
+        <v>1.021968615822131</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17">
       <c r="A268" s="2">
         <v>43291</v>
       </c>
@@ -13021,8 +14512,14 @@
       <c r="O268">
         <v>0.03258036982830054</v>
       </c>
-    </row>
-    <row r="269" spans="1:15">
+      <c r="P268">
+        <v>0.9005630689560616</v>
+      </c>
+      <c r="Q268">
+        <v>1.028296535481901</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17">
       <c r="A269" s="2">
         <v>43292</v>
       </c>
@@ -13068,8 +14565,14 @@
       <c r="O269">
         <v>0.03225010349876299</v>
       </c>
-    </row>
-    <row r="270" spans="1:15">
+      <c r="P269">
+        <v>1.120220039367288</v>
+      </c>
+      <c r="Q269">
+        <v>1.032034527488887</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17">
       <c r="A270" s="2">
         <v>43293</v>
       </c>
@@ -13115,8 +14618,14 @@
       <c r="O270">
         <v>0.03128009084892468</v>
       </c>
-    </row>
-    <row r="271" spans="1:15">
+      <c r="P270">
+        <v>0.9467220042930881</v>
+      </c>
+      <c r="Q270">
+        <v>1.019284367074361</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17">
       <c r="A271" s="2">
         <v>43294</v>
       </c>
@@ -13162,8 +14671,14 @@
       <c r="O271">
         <v>0.02973809921468855</v>
       </c>
-    </row>
-    <row r="272" spans="1:15">
+      <c r="P271">
+        <v>0.9496522045252666</v>
+      </c>
+      <c r="Q271">
+        <v>1.009460842519362</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17">
       <c r="A272" s="2">
         <v>43295</v>
       </c>
@@ -13209,8 +14724,14 @@
       <c r="O272">
         <v>0.02778189663680256</v>
       </c>
-    </row>
-    <row r="273" spans="1:15">
+      <c r="P272">
+        <v>0.8431142137161451</v>
+      </c>
+      <c r="Q272">
+        <v>1.012888295540417</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17">
       <c r="A273" s="2">
         <v>43296</v>
       </c>
@@ -13256,8 +14777,14 @@
       <c r="O273">
         <v>0.02687729947774994</v>
       </c>
-    </row>
-    <row r="274" spans="1:15">
+      <c r="P273">
+        <v>0.8788655543226525</v>
+      </c>
+      <c r="Q273">
+        <v>1.011122509743463</v>
+      </c>
+    </row>
+    <row r="274" spans="1:17">
       <c r="A274" s="2">
         <v>43297</v>
       </c>
@@ -13303,8 +14830,14 @@
       <c r="O274">
         <v>0.02883904749311959</v>
       </c>
-    </row>
-    <row r="275" spans="1:15">
+      <c r="P274">
+        <v>0.6964666122451461</v>
+      </c>
+      <c r="Q274">
+        <v>1.007837340306578</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17">
       <c r="A275" s="2">
         <v>43298</v>
       </c>
@@ -13350,8 +14883,14 @@
       <c r="O275">
         <v>0.03214445566060556</v>
       </c>
-    </row>
-    <row r="276" spans="1:15">
+      <c r="P275">
+        <v>0.8006193147249095</v>
+      </c>
+      <c r="Q275">
+        <v>1.008421279665257</v>
+      </c>
+    </row>
+    <row r="276" spans="1:17">
       <c r="A276" s="2">
         <v>43299</v>
       </c>
@@ -13397,8 +14936,14 @@
       <c r="O276">
         <v>0.03083545787924123</v>
       </c>
-    </row>
-    <row r="277" spans="1:15">
+      <c r="P276">
+        <v>0.9110384752570122</v>
+      </c>
+      <c r="Q276">
+        <v>1.008267797882913</v>
+      </c>
+    </row>
+    <row r="277" spans="1:17">
       <c r="A277" s="2">
         <v>43300</v>
       </c>
@@ -13444,8 +14989,11 @@
       <c r="O277">
         <v>0.03117970474924603</v>
       </c>
-    </row>
-    <row r="278" spans="1:15">
+      <c r="Q277">
+        <v>1.006964288018186</v>
+      </c>
+    </row>
+    <row r="278" spans="1:17">
       <c r="A278" s="2">
         <v>43301</v>
       </c>
@@ -13491,8 +15039,14 @@
       <c r="O278">
         <v>0.03181707290939275</v>
       </c>
-    </row>
-    <row r="279" spans="1:15">
+      <c r="P278">
+        <v>0.9120374585080158</v>
+      </c>
+      <c r="Q278">
+        <v>1.008196607679355</v>
+      </c>
+    </row>
+    <row r="279" spans="1:17">
       <c r="A279" s="2">
         <v>43302</v>
       </c>
@@ -13538,8 +15092,11 @@
       <c r="O279">
         <v>0.03190203796670383</v>
       </c>
-    </row>
-    <row r="280" spans="1:15">
+      <c r="Q279">
+        <v>1.006773247798879</v>
+      </c>
+    </row>
+    <row r="280" spans="1:17">
       <c r="A280" s="2">
         <v>43303</v>
       </c>
@@ -13585,8 +15142,14 @@
       <c r="O280">
         <v>0.02739097365210582</v>
       </c>
-    </row>
-    <row r="281" spans="1:15">
+      <c r="P280">
+        <v>0.671230074851345</v>
+      </c>
+      <c r="Q280">
+        <v>1.008677810276675</v>
+      </c>
+    </row>
+    <row r="281" spans="1:17">
       <c r="A281" s="2">
         <v>43304</v>
       </c>
@@ -13632,8 +15195,14 @@
       <c r="O281">
         <v>0.0285351632445142</v>
       </c>
-    </row>
-    <row r="282" spans="1:15">
+      <c r="P281">
+        <v>0.7892681735042361</v>
+      </c>
+      <c r="Q281">
+        <v>1.011100061116945</v>
+      </c>
+    </row>
+    <row r="282" spans="1:17">
       <c r="A282" s="2">
         <v>43305</v>
       </c>
@@ -13679,8 +15248,14 @@
       <c r="O282">
         <v>0.03235209800976601</v>
       </c>
-    </row>
-    <row r="283" spans="1:15">
+      <c r="P282">
+        <v>0.7540555809275906</v>
+      </c>
+      <c r="Q282">
+        <v>1.010404419734099</v>
+      </c>
+    </row>
+    <row r="283" spans="1:17">
       <c r="A283" s="2">
         <v>43306</v>
       </c>
@@ -13726,8 +15301,14 @@
       <c r="O283">
         <v>0.03310774043128906</v>
       </c>
-    </row>
-    <row r="284" spans="1:15">
+      <c r="P283">
+        <v>0.7547493018870615</v>
+      </c>
+      <c r="Q283">
+        <v>1.011285584736807</v>
+      </c>
+    </row>
+    <row r="284" spans="1:17">
       <c r="A284" s="2">
         <v>43307</v>
       </c>
@@ -13773,8 +15354,14 @@
       <c r="O284">
         <v>0.0332345840887051</v>
       </c>
-    </row>
-    <row r="285" spans="1:15">
+      <c r="P284">
+        <v>1.121344624054627</v>
+      </c>
+      <c r="Q284">
+        <v>1.011426573445161</v>
+      </c>
+    </row>
+    <row r="285" spans="1:17">
       <c r="A285" s="2">
         <v>43308</v>
       </c>
@@ -13820,8 +15407,14 @@
       <c r="O285">
         <v>0.03394585503137384</v>
       </c>
-    </row>
-    <row r="286" spans="1:15">
+      <c r="P285">
+        <v>0.8180686515099419</v>
+      </c>
+      <c r="Q285">
+        <v>1.010848572124731</v>
+      </c>
+    </row>
+    <row r="286" spans="1:17">
       <c r="A286" s="2">
         <v>43309</v>
       </c>
@@ -13867,8 +15460,14 @@
       <c r="O286">
         <v>0.03218054858129323</v>
       </c>
-    </row>
-    <row r="287" spans="1:15">
+      <c r="P286">
+        <v>0.7772245003946756</v>
+      </c>
+      <c r="Q286">
+        <v>1.010736613616062</v>
+      </c>
+    </row>
+    <row r="287" spans="1:17">
       <c r="A287" s="2">
         <v>43310</v>
       </c>
@@ -13914,8 +15513,11 @@
       <c r="O287">
         <v>0.02997432538591012</v>
       </c>
-    </row>
-    <row r="288" spans="1:15">
+      <c r="Q287">
+        <v>1.010471701910696</v>
+      </c>
+    </row>
+    <row r="288" spans="1:17">
       <c r="A288" s="2">
         <v>43311</v>
       </c>
@@ -13961,8 +15563,14 @@
       <c r="O288">
         <v>0.02885746970399294</v>
       </c>
-    </row>
-    <row r="289" spans="1:15">
+      <c r="P288">
+        <v>0.7268821183797248</v>
+      </c>
+      <c r="Q288">
+        <v>1.007925674860148</v>
+      </c>
+    </row>
+    <row r="289" spans="1:17">
       <c r="A289" s="2">
         <v>43312</v>
       </c>
@@ -14008,8 +15616,14 @@
       <c r="O289">
         <v>0.0309693642600592</v>
       </c>
-    </row>
-    <row r="290" spans="1:15">
+      <c r="P289">
+        <v>0.7903419657804106</v>
+      </c>
+      <c r="Q289">
+        <v>1.004064215189283</v>
+      </c>
+    </row>
+    <row r="290" spans="1:17">
       <c r="A290" s="2">
         <v>43313</v>
       </c>
@@ -14055,8 +15669,14 @@
       <c r="O290">
         <v>0.03029279995940275</v>
       </c>
-    </row>
-    <row r="291" spans="1:15">
+      <c r="P290">
+        <v>0.8589556976930544</v>
+      </c>
+      <c r="Q290">
+        <v>1.005657108550768</v>
+      </c>
+    </row>
+    <row r="291" spans="1:17">
       <c r="A291" s="2">
         <v>43314</v>
       </c>
@@ -14102,8 +15722,14 @@
       <c r="O291">
         <v>0.03005780015697953</v>
       </c>
-    </row>
-    <row r="292" spans="1:15">
+      <c r="P291">
+        <v>0.7674986631881905</v>
+      </c>
+      <c r="Q291">
+        <v>1.004817950252584</v>
+      </c>
+    </row>
+    <row r="292" spans="1:17">
       <c r="A292" s="2">
         <v>43315</v>
       </c>
@@ -14149,8 +15775,14 @@
       <c r="O292">
         <v>0.03038571857970398</v>
       </c>
-    </row>
-    <row r="293" spans="1:15">
+      <c r="P292">
+        <v>0.889200526842277</v>
+      </c>
+      <c r="Q292">
+        <v>1.004478871136232</v>
+      </c>
+    </row>
+    <row r="293" spans="1:17">
       <c r="A293" s="2">
         <v>43316</v>
       </c>
@@ -14196,8 +15828,11 @@
       <c r="O293">
         <v>0.03260831215583514</v>
       </c>
-    </row>
-    <row r="294" spans="1:15">
+      <c r="Q293">
+        <v>1.00333480578476</v>
+      </c>
+    </row>
+    <row r="294" spans="1:17">
       <c r="A294" s="2">
         <v>43317</v>
       </c>
@@ -14243,8 +15878,14 @@
       <c r="O294">
         <v>0.03260506376110089</v>
       </c>
-    </row>
-    <row r="295" spans="1:15">
+      <c r="P294">
+        <v>0.8697913542850703</v>
+      </c>
+      <c r="Q294">
+        <v>1.006913499119547</v>
+      </c>
+    </row>
+    <row r="295" spans="1:17">
       <c r="A295" s="2">
         <v>43318</v>
       </c>
@@ -14290,8 +15931,14 @@
       <c r="O295">
         <v>0.0321315843085928</v>
       </c>
-    </row>
-    <row r="296" spans="1:15">
+      <c r="P295">
+        <v>0.7704904432108537</v>
+      </c>
+      <c r="Q295">
+        <v>1.002894995769494</v>
+      </c>
+    </row>
+    <row r="296" spans="1:17">
       <c r="A296" s="2">
         <v>43319</v>
       </c>
@@ -14337,8 +15984,14 @@
       <c r="O296">
         <v>0.03287843232950254</v>
       </c>
-    </row>
-    <row r="297" spans="1:15">
+      <c r="P296">
+        <v>0.7442327236516572</v>
+      </c>
+      <c r="Q296">
+        <v>1.001297431106947</v>
+      </c>
+    </row>
+    <row r="297" spans="1:17">
       <c r="A297" s="2">
         <v>43320</v>
       </c>
@@ -14384,8 +16037,14 @@
       <c r="O297">
         <v>0.03572972574160815</v>
       </c>
-    </row>
-    <row r="298" spans="1:15">
+      <c r="P297">
+        <v>0.8308608149791387</v>
+      </c>
+      <c r="Q297">
+        <v>1.008456647829106</v>
+      </c>
+    </row>
+    <row r="298" spans="1:17">
       <c r="A298" s="2">
         <v>43321</v>
       </c>
@@ -14431,8 +16090,14 @@
       <c r="O298">
         <v>0.03471955691715312</v>
       </c>
-    </row>
-    <row r="299" spans="1:15">
+      <c r="P298">
+        <v>0.7993550415162062</v>
+      </c>
+      <c r="Q298">
+        <v>1.009254794787105</v>
+      </c>
+    </row>
+    <row r="299" spans="1:17">
       <c r="A299" s="2">
         <v>43322</v>
       </c>
@@ -14478,8 +16143,14 @@
       <c r="O299">
         <v>0.03696323008695163</v>
       </c>
-    </row>
-    <row r="300" spans="1:15">
+      <c r="P299">
+        <v>0.9609312454236248</v>
+      </c>
+      <c r="Q299">
+        <v>1.019769381110905</v>
+      </c>
+    </row>
+    <row r="300" spans="1:17">
       <c r="A300" s="2">
         <v>43323</v>
       </c>
@@ -14525,8 +16196,14 @@
       <c r="O300">
         <v>0.03657541693226914</v>
       </c>
-    </row>
-    <row r="301" spans="1:15">
+      <c r="P300">
+        <v>0.9216076926831613</v>
+      </c>
+      <c r="Q300">
+        <v>1.014823102111727</v>
+      </c>
+    </row>
+    <row r="301" spans="1:17">
       <c r="A301" s="2">
         <v>43324</v>
       </c>
@@ -14572,8 +16249,14 @@
       <c r="O301">
         <v>0.03669849566540169</v>
       </c>
-    </row>
-    <row r="302" spans="1:15">
+      <c r="P301">
+        <v>0.852577230551014</v>
+      </c>
+      <c r="Q301">
+        <v>1.017029604521994</v>
+      </c>
+    </row>
+    <row r="302" spans="1:17">
       <c r="A302" s="2">
         <v>43325</v>
       </c>
@@ -14619,8 +16302,11 @@
       <c r="O302">
         <v>0.03659923302315701</v>
       </c>
-    </row>
-    <row r="303" spans="1:15">
+      <c r="Q302">
+        <v>1.013637258363019</v>
+      </c>
+    </row>
+    <row r="303" spans="1:17">
       <c r="A303" s="2">
         <v>43326</v>
       </c>
@@ -14666,8 +16352,14 @@
       <c r="O303">
         <v>0.03669537856106395</v>
       </c>
-    </row>
-    <row r="304" spans="1:15">
+      <c r="P303">
+        <v>0.8535324603598125</v>
+      </c>
+      <c r="Q303">
+        <v>1.018425141493246</v>
+      </c>
+    </row>
+    <row r="304" spans="1:17">
       <c r="A304" s="2">
         <v>43327</v>
       </c>
@@ -14713,8 +16405,14 @@
       <c r="O304">
         <v>0.03485590444001169</v>
       </c>
-    </row>
-    <row r="305" spans="1:15">
+      <c r="P304">
+        <v>0.9980089330284122</v>
+      </c>
+      <c r="Q304">
+        <v>1.008668629244033</v>
+      </c>
+    </row>
+    <row r="305" spans="1:17">
       <c r="A305" s="2">
         <v>43328</v>
       </c>
@@ -14760,8 +16458,14 @@
       <c r="O305">
         <v>0.03138048989475451</v>
       </c>
-    </row>
-    <row r="306" spans="1:15">
+      <c r="P305">
+        <v>0.9298872692324772</v>
+      </c>
+      <c r="Q305">
+        <v>1.00559311999216</v>
+      </c>
+    </row>
+    <row r="306" spans="1:17">
       <c r="A306" s="2">
         <v>43329</v>
       </c>
@@ -14807,8 +16511,14 @@
       <c r="O306">
         <v>0.0327853564966162</v>
       </c>
-    </row>
-    <row r="307" spans="1:15">
+      <c r="P306">
+        <v>0.7909092764142346</v>
+      </c>
+      <c r="Q306">
+        <v>1.00308125851842</v>
+      </c>
+    </row>
+    <row r="307" spans="1:17">
       <c r="A307" s="2">
         <v>43330</v>
       </c>
@@ -14854,8 +16564,14 @@
       <c r="O307">
         <v>0.03329744908423992</v>
       </c>
-    </row>
-    <row r="308" spans="1:15">
+      <c r="P307">
+        <v>1.017050128664767</v>
+      </c>
+      <c r="Q307">
+        <v>1.002469511339502</v>
+      </c>
+    </row>
+    <row r="308" spans="1:17">
       <c r="A308" s="2">
         <v>43331</v>
       </c>
@@ -14901,8 +16617,14 @@
       <c r="O308">
         <v>0.03319670833795569</v>
       </c>
-    </row>
-    <row r="309" spans="1:15">
+      <c r="P308">
+        <v>0.7797206270181236</v>
+      </c>
+      <c r="Q308">
+        <v>1.003171786983911</v>
+      </c>
+    </row>
+    <row r="309" spans="1:17">
       <c r="A309" s="2">
         <v>43332</v>
       </c>
@@ -14948,8 +16670,14 @@
       <c r="O309">
         <v>0.03419653290491774</v>
       </c>
-    </row>
-    <row r="310" spans="1:15">
+      <c r="P309">
+        <v>0.8959064482607382</v>
+      </c>
+      <c r="Q309">
+        <v>1.004782062904379</v>
+      </c>
+    </row>
+    <row r="310" spans="1:17">
       <c r="A310" s="2">
         <v>43333</v>
       </c>
@@ -14995,8 +16723,14 @@
       <c r="O310">
         <v>0.0354755200939189</v>
       </c>
-    </row>
-    <row r="311" spans="1:15">
+      <c r="P310">
+        <v>0.8337489590547803</v>
+      </c>
+      <c r="Q310">
+        <v>1.006420351323658</v>
+      </c>
+    </row>
+    <row r="311" spans="1:17">
       <c r="A311" s="2">
         <v>43334</v>
       </c>
@@ -15042,8 +16776,14 @@
       <c r="O311">
         <v>0.03452765146861066</v>
       </c>
-    </row>
-    <row r="312" spans="1:15">
+      <c r="P311">
+        <v>0.9540846826118423</v>
+      </c>
+      <c r="Q311">
+        <v>1.003954711888591</v>
+      </c>
+    </row>
+    <row r="312" spans="1:17">
       <c r="A312" s="2">
         <v>43335</v>
       </c>
@@ -15089,8 +16829,14 @@
       <c r="O312">
         <v>0.0317483666826287</v>
       </c>
-    </row>
-    <row r="313" spans="1:15">
+      <c r="P312">
+        <v>0.7753219412904719</v>
+      </c>
+      <c r="Q312">
+        <v>1.010012881401207</v>
+      </c>
+    </row>
+    <row r="313" spans="1:17">
       <c r="A313" s="2">
         <v>43336</v>
       </c>
@@ -15136,8 +16882,14 @@
       <c r="O313">
         <v>0.03170930943221947</v>
       </c>
-    </row>
-    <row r="314" spans="1:15">
+      <c r="P313">
+        <v>0.8590504486134907</v>
+      </c>
+      <c r="Q313">
+        <v>1.007782198961263</v>
+      </c>
+    </row>
+    <row r="314" spans="1:17">
       <c r="A314" s="2">
         <v>43337</v>
       </c>
@@ -15183,8 +16935,14 @@
       <c r="O314">
         <v>0.03072489920356796</v>
       </c>
-    </row>
-    <row r="315" spans="1:15">
+      <c r="P314">
+        <v>0.7823144978910688</v>
+      </c>
+      <c r="Q314">
+        <v>1.008536305373514</v>
+      </c>
+    </row>
+    <row r="315" spans="1:17">
       <c r="A315" s="2">
         <v>43338</v>
       </c>
@@ -15230,8 +16988,14 @@
       <c r="O315">
         <v>0.02991981573633501</v>
       </c>
-    </row>
-    <row r="316" spans="1:15">
+      <c r="P315">
+        <v>0.7886527938944995</v>
+      </c>
+      <c r="Q315">
+        <v>1.014081867396611</v>
+      </c>
+    </row>
+    <row r="316" spans="1:17">
       <c r="A316" s="2">
         <v>43339</v>
       </c>
@@ -15277,8 +17041,14 @@
       <c r="O316">
         <v>0.03095004327488753</v>
       </c>
-    </row>
-    <row r="317" spans="1:15">
+      <c r="P316">
+        <v>0.7234441324762937</v>
+      </c>
+      <c r="Q316">
+        <v>1.009583855260841</v>
+      </c>
+    </row>
+    <row r="317" spans="1:17">
       <c r="A317" s="2">
         <v>43340</v>
       </c>
@@ -15324,8 +17094,14 @@
       <c r="O317">
         <v>0.03216524312824477</v>
       </c>
-    </row>
-    <row r="318" spans="1:15">
+      <c r="P317">
+        <v>0.763725521205428</v>
+      </c>
+      <c r="Q317">
+        <v>1.009637823139854</v>
+      </c>
+    </row>
+    <row r="318" spans="1:17">
       <c r="A318" s="2">
         <v>43341</v>
       </c>
@@ -15371,8 +17147,14 @@
       <c r="O318">
         <v>0.03227245542318017</v>
       </c>
-    </row>
-    <row r="319" spans="1:15">
+      <c r="P318">
+        <v>0.8062001874518864</v>
+      </c>
+      <c r="Q318">
+        <v>1.005586581038564</v>
+      </c>
+    </row>
+    <row r="319" spans="1:17">
       <c r="A319" s="2">
         <v>43342</v>
       </c>
@@ -15418,8 +17200,14 @@
       <c r="O319">
         <v>0.03047540077715292</v>
       </c>
-    </row>
-    <row r="320" spans="1:15">
+      <c r="P319">
+        <v>0.8615351408572198</v>
+      </c>
+      <c r="Q319">
+        <v>1.006144019940761</v>
+      </c>
+    </row>
+    <row r="320" spans="1:17">
       <c r="A320" s="2">
         <v>43343</v>
       </c>
@@ -15465,8 +17253,14 @@
       <c r="O320">
         <v>0.02995059968845824</v>
       </c>
-    </row>
-    <row r="321" spans="1:15">
+      <c r="P320">
+        <v>0.7618617666330177</v>
+      </c>
+      <c r="Q320">
+        <v>1.007180553262577</v>
+      </c>
+    </row>
+    <row r="321" spans="1:17">
       <c r="A321" s="2">
         <v>43344</v>
       </c>
@@ -15512,8 +17306,14 @@
       <c r="O321">
         <v>0.03059576600234104</v>
       </c>
-    </row>
-    <row r="322" spans="1:15">
+      <c r="P321">
+        <v>0.7018000653308428</v>
+      </c>
+      <c r="Q321">
+        <v>1.010084781844119</v>
+      </c>
+    </row>
+    <row r="322" spans="1:17">
       <c r="A322" s="2">
         <v>43345</v>
       </c>
@@ -15559,8 +17359,14 @@
       <c r="O322">
         <v>0.0302956212482227</v>
       </c>
-    </row>
-    <row r="323" spans="1:15">
+      <c r="P322">
+        <v>0.6392788976773836</v>
+      </c>
+      <c r="Q322">
+        <v>1.01234793857017</v>
+      </c>
+    </row>
+    <row r="323" spans="1:17">
       <c r="A323" s="2">
         <v>43346</v>
       </c>
@@ -15606,8 +17412,14 @@
       <c r="O323">
         <v>0.0278703659187363</v>
       </c>
-    </row>
-    <row r="324" spans="1:15">
+      <c r="P323">
+        <v>0.8492016673624868</v>
+      </c>
+      <c r="Q323">
+        <v>1.012977077931024</v>
+      </c>
+    </row>
+    <row r="324" spans="1:17">
       <c r="A324" s="2">
         <v>43347</v>
       </c>
@@ -15653,8 +17465,14 @@
       <c r="O324">
         <v>0.02826762699597989</v>
       </c>
-    </row>
-    <row r="325" spans="1:15">
+      <c r="P324">
+        <v>0.6933618284435153</v>
+      </c>
+      <c r="Q324">
+        <v>1.012826612559946</v>
+      </c>
+    </row>
+    <row r="325" spans="1:17">
       <c r="A325" s="2">
         <v>43348</v>
       </c>
@@ -15700,8 +17518,14 @@
       <c r="O325">
         <v>0.03109126815104447</v>
       </c>
-    </row>
-    <row r="326" spans="1:15">
+      <c r="P325">
+        <v>0.7338992833629292</v>
+      </c>
+      <c r="Q325">
+        <v>1.012994946160287</v>
+      </c>
+    </row>
+    <row r="326" spans="1:17">
       <c r="A326" s="2">
         <v>43349</v>
       </c>
@@ -15747,8 +17571,14 @@
       <c r="O326">
         <v>0.03155385223066699</v>
       </c>
-    </row>
-    <row r="327" spans="1:15">
+      <c r="P326">
+        <v>0.7500041967661513</v>
+      </c>
+      <c r="Q326">
+        <v>1.013883296872953</v>
+      </c>
+    </row>
+    <row r="327" spans="1:17">
       <c r="A327" s="2">
         <v>43350</v>
       </c>
@@ -15794,8 +17624,14 @@
       <c r="O327">
         <v>0.02891779592056712</v>
       </c>
-    </row>
-    <row r="328" spans="1:15">
+      <c r="P327">
+        <v>0.7859621440292341</v>
+      </c>
+      <c r="Q327">
+        <v>1.019672043058086</v>
+      </c>
+    </row>
+    <row r="328" spans="1:17">
       <c r="A328" s="2">
         <v>43351</v>
       </c>
@@ -15841,8 +17677,14 @@
       <c r="O328">
         <v>0.02880061020165604</v>
       </c>
-    </row>
-    <row r="329" spans="1:15">
+      <c r="P328">
+        <v>0.7172663593065867</v>
+      </c>
+      <c r="Q328">
+        <v>1.024650223791164</v>
+      </c>
+    </row>
+    <row r="329" spans="1:17">
       <c r="A329" s="2">
         <v>43352</v>
       </c>
@@ -15888,8 +17730,14 @@
       <c r="O329">
         <v>0.02663744510557538</v>
       </c>
-    </row>
-    <row r="330" spans="1:15">
+      <c r="P329">
+        <v>0.8105905755847893</v>
+      </c>
+      <c r="Q329">
+        <v>1.029927690527371</v>
+      </c>
+    </row>
+    <row r="330" spans="1:17">
       <c r="A330" s="2">
         <v>43353</v>
       </c>
@@ -15935,8 +17783,14 @@
       <c r="O330">
         <v>0.02604042435065534</v>
       </c>
-    </row>
-    <row r="331" spans="1:15">
+      <c r="P330">
+        <v>0.6746482833060189</v>
+      </c>
+      <c r="Q330">
+        <v>1.02607939766945</v>
+      </c>
+    </row>
+    <row r="331" spans="1:17">
       <c r="A331" s="2">
         <v>43354</v>
       </c>
@@ -15982,8 +17836,14 @@
       <c r="O331">
         <v>0.02591103274002421</v>
       </c>
-    </row>
-    <row r="332" spans="1:15">
+      <c r="P331">
+        <v>0.6976604975750318</v>
+      </c>
+      <c r="Q331">
+        <v>1.020188542697558</v>
+      </c>
+    </row>
+    <row r="332" spans="1:17">
       <c r="A332" s="2">
         <v>43355</v>
       </c>
@@ -16029,8 +17889,14 @@
       <c r="O332">
         <v>0.0259494110973797</v>
       </c>
-    </row>
-    <row r="333" spans="1:15">
+      <c r="P332">
+        <v>0.7270051205001722</v>
+      </c>
+      <c r="Q332">
+        <v>1.021638976986676</v>
+      </c>
+    </row>
+    <row r="333" spans="1:17">
       <c r="A333" s="2">
         <v>43356</v>
       </c>
@@ -16076,8 +17942,14 @@
       <c r="O333">
         <v>0.02641073004322585</v>
       </c>
-    </row>
-    <row r="334" spans="1:15">
+      <c r="P333">
+        <v>0.5100022069734775</v>
+      </c>
+      <c r="Q333">
+        <v>1.015805594100461</v>
+      </c>
+    </row>
+    <row r="334" spans="1:17">
       <c r="A334" s="2">
         <v>43357</v>
       </c>
@@ -16123,8 +17995,14 @@
       <c r="O334">
         <v>0.02566283658997595</v>
       </c>
-    </row>
-    <row r="335" spans="1:15">
+      <c r="P334">
+        <v>0.7348759271977114</v>
+      </c>
+      <c r="Q334">
+        <v>1.007876532141188</v>
+      </c>
+    </row>
+    <row r="335" spans="1:17">
       <c r="A335" s="2">
         <v>43358</v>
       </c>
@@ -16170,8 +18048,11 @@
       <c r="O335">
         <v>0.02568933499588934</v>
       </c>
-    </row>
-    <row r="336" spans="1:15">
+      <c r="Q335">
+        <v>1.008280433515047</v>
+      </c>
+    </row>
+    <row r="336" spans="1:17">
       <c r="A336" s="2">
         <v>43359</v>
       </c>
@@ -16217,8 +18098,11 @@
       <c r="O336">
         <v>0.02416582543264769</v>
       </c>
-    </row>
-    <row r="337" spans="1:15">
+      <c r="Q336">
+        <v>1.009336110565323</v>
+      </c>
+    </row>
+    <row r="337" spans="1:17">
       <c r="A337" s="2">
         <v>43360</v>
       </c>
@@ -16264,8 +18148,14 @@
       <c r="O337">
         <v>0.02474418551100199</v>
       </c>
-    </row>
-    <row r="338" spans="1:15">
+      <c r="P337">
+        <v>0.9491232219524456</v>
+      </c>
+      <c r="Q337">
+        <v>1.013003387542398</v>
+      </c>
+    </row>
+    <row r="338" spans="1:17">
       <c r="A338" s="2">
         <v>43361</v>
       </c>
@@ -16311,8 +18201,14 @@
       <c r="O338">
         <v>0.02480625959030407</v>
       </c>
-    </row>
-    <row r="339" spans="1:15">
+      <c r="P338">
+        <v>0.9300200673816976</v>
+      </c>
+      <c r="Q338">
+        <v>1.014502858230491</v>
+      </c>
+    </row>
+    <row r="339" spans="1:17">
       <c r="A339" s="2">
         <v>43362</v>
       </c>
@@ -16358,8 +18254,14 @@
       <c r="O339">
         <v>0.02359824442181245</v>
       </c>
-    </row>
-    <row r="340" spans="1:15">
+      <c r="P339">
+        <v>1.171506818402779</v>
+      </c>
+      <c r="Q339">
+        <v>1.008608025917769</v>
+      </c>
+    </row>
+    <row r="340" spans="1:17">
       <c r="A340" s="2">
         <v>43363</v>
       </c>
@@ -16405,8 +18307,14 @@
       <c r="O340">
         <v>0.02315939993304129</v>
       </c>
-    </row>
-    <row r="341" spans="1:15">
+      <c r="P340">
+        <v>0.644100903733551</v>
+      </c>
+      <c r="Q340">
+        <v>1.009048880017788</v>
+      </c>
+    </row>
+    <row r="341" spans="1:17">
       <c r="A341" s="2">
         <v>43364</v>
       </c>
@@ -16452,8 +18360,14 @@
       <c r="O341">
         <v>0.02381447257637693</v>
       </c>
-    </row>
-    <row r="342" spans="1:15">
+      <c r="P341">
+        <v>0.7656982474157081</v>
+      </c>
+      <c r="Q341">
+        <v>1.005944488612302</v>
+      </c>
+    </row>
+    <row r="342" spans="1:17">
       <c r="A342" s="2">
         <v>43365</v>
       </c>
@@ -16499,8 +18413,11 @@
       <c r="O342">
         <v>0.02278517693451839</v>
       </c>
-    </row>
-    <row r="343" spans="1:15">
+      <c r="Q342">
+        <v>1.003496709509452</v>
+      </c>
+    </row>
+    <row r="343" spans="1:17">
       <c r="A343" s="2">
         <v>43366</v>
       </c>
@@ -16546,8 +18463,11 @@
       <c r="O343">
         <v>0.02159964951013116</v>
       </c>
-    </row>
-    <row r="344" spans="1:15">
+      <c r="Q343">
+        <v>1.003831956397434</v>
+      </c>
+    </row>
+    <row r="344" spans="1:17">
       <c r="A344" s="2">
         <v>43367</v>
       </c>
@@ -16593,8 +18513,14 @@
       <c r="O344">
         <v>0.02208891053196254</v>
       </c>
-    </row>
-    <row r="345" spans="1:15">
+      <c r="P344">
+        <v>0.8368625274351764</v>
+      </c>
+      <c r="Q344">
+        <v>1.00361260402028</v>
+      </c>
+    </row>
+    <row r="345" spans="1:17">
       <c r="A345" s="2">
         <v>43368</v>
       </c>
@@ -16640,8 +18566,14 @@
       <c r="O345">
         <v>0.02273535694725333</v>
       </c>
-    </row>
-    <row r="346" spans="1:15">
+      <c r="P345">
+        <v>0.6809910452713447</v>
+      </c>
+      <c r="Q345">
+        <v>1.005496042645922</v>
+      </c>
+    </row>
+    <row r="346" spans="1:17">
       <c r="A346" s="2">
         <v>43369</v>
       </c>
@@ -16687,8 +18619,14 @@
       <c r="O346">
         <v>0.0218926535195391</v>
       </c>
-    </row>
-    <row r="347" spans="1:15">
+      <c r="P346">
+        <v>0.6068004269195216</v>
+      </c>
+      <c r="Q346">
+        <v>1.00477464687404</v>
+      </c>
+    </row>
+    <row r="347" spans="1:17">
       <c r="A347" s="2">
         <v>43370</v>
       </c>
@@ -16734,8 +18672,14 @@
       <c r="O347">
         <v>0.02177294672455015</v>
       </c>
-    </row>
-    <row r="348" spans="1:15">
+      <c r="P347">
+        <v>0.7561161146736513</v>
+      </c>
+      <c r="Q347">
+        <v>1.004477658507008</v>
+      </c>
+    </row>
+    <row r="348" spans="1:17">
       <c r="A348" s="2">
         <v>43371</v>
       </c>
@@ -16781,8 +18725,14 @@
       <c r="O348">
         <v>0.02167856465570256</v>
       </c>
-    </row>
-    <row r="349" spans="1:15">
+      <c r="P348">
+        <v>1.533532664541968</v>
+      </c>
+      <c r="Q348">
+        <v>1.002638142365915</v>
+      </c>
+    </row>
+    <row r="349" spans="1:17">
       <c r="A349" s="2">
         <v>43372</v>
       </c>
@@ -16828,8 +18778,14 @@
       <c r="O349">
         <v>0.02152303475128261</v>
       </c>
-    </row>
-    <row r="350" spans="1:15">
+      <c r="P349">
+        <v>0.6278523333105227</v>
+      </c>
+      <c r="Q349">
+        <v>1.006185244190495</v>
+      </c>
+    </row>
+    <row r="350" spans="1:17">
       <c r="A350" s="2">
         <v>43373</v>
       </c>
@@ -16875,8 +18831,11 @@
       <c r="O350">
         <v>0.02130338691693815</v>
       </c>
-    </row>
-    <row r="351" spans="1:15">
+      <c r="Q350">
+        <v>1.004684665206885</v>
+      </c>
+    </row>
+    <row r="351" spans="1:17">
       <c r="A351" s="2">
         <v>43374</v>
       </c>
@@ -16922,8 +18881,14 @@
       <c r="O351">
         <v>0.02056111491343978</v>
       </c>
-    </row>
-    <row r="352" spans="1:15">
+      <c r="P351">
+        <v>0.6437952736215216</v>
+      </c>
+      <c r="Q351">
+        <v>1.007153783842848</v>
+      </c>
+    </row>
+    <row r="352" spans="1:17">
       <c r="A352" s="2">
         <v>43375</v>
       </c>
@@ -16969,8 +18934,14 @@
       <c r="O352">
         <v>0.02029665442580075</v>
       </c>
-    </row>
-    <row r="353" spans="1:15">
+      <c r="P352">
+        <v>0.9345104441676048</v>
+      </c>
+      <c r="Q352">
+        <v>1.010986996660299</v>
+      </c>
+    </row>
+    <row r="353" spans="1:17">
       <c r="A353" s="2">
         <v>43376</v>
       </c>
@@ -17016,8 +18987,14 @@
       <c r="O353">
         <v>0.02058908001446378</v>
       </c>
-    </row>
-    <row r="354" spans="1:15">
+      <c r="P353">
+        <v>0.7146620001194547</v>
+      </c>
+      <c r="Q353">
+        <v>1.019498995548959</v>
+      </c>
+    </row>
+    <row r="354" spans="1:17">
       <c r="A354" s="2">
         <v>43377</v>
       </c>
@@ -17063,8 +19040,14 @@
       <c r="O354">
         <v>0.02047583961763812</v>
       </c>
-    </row>
-    <row r="355" spans="1:15">
+      <c r="P354">
+        <v>0.7086944696004895</v>
+      </c>
+      <c r="Q354">
+        <v>1.014705863309336</v>
+      </c>
+    </row>
+    <row r="355" spans="1:17">
       <c r="A355" s="2">
         <v>43378</v>
       </c>
@@ -17110,8 +19093,14 @@
       <c r="O355">
         <v>0.01721376394969419</v>
       </c>
-    </row>
-    <row r="356" spans="1:15">
+      <c r="P355">
+        <v>0.5099221844905554</v>
+      </c>
+      <c r="Q355">
+        <v>1.013775135773176</v>
+      </c>
+    </row>
+    <row r="356" spans="1:17">
       <c r="A356" s="2">
         <v>43379</v>
       </c>
@@ -17157,8 +19146,14 @@
       <c r="O356">
         <v>0.01568515294439248</v>
       </c>
-    </row>
-    <row r="357" spans="1:15">
+      <c r="P356">
+        <v>0.6725901989454373</v>
+      </c>
+      <c r="Q356">
+        <v>1.010410339225484</v>
+      </c>
+    </row>
+    <row r="357" spans="1:17">
       <c r="A357" s="2">
         <v>43380</v>
       </c>
@@ -17204,8 +19199,14 @@
       <c r="O357">
         <v>0.01535542507043049</v>
       </c>
-    </row>
-    <row r="358" spans="1:15">
+      <c r="P357">
+        <v>0.5153204449867342</v>
+      </c>
+      <c r="Q357">
+        <v>1.012996665319325</v>
+      </c>
+    </row>
+    <row r="358" spans="1:17">
       <c r="A358" s="2">
         <v>43381</v>
       </c>
@@ -17251,8 +19252,14 @@
       <c r="O358">
         <v>0.01397016755791598</v>
       </c>
-    </row>
-    <row r="359" spans="1:15">
+      <c r="P358">
+        <v>0.6354992674825618</v>
+      </c>
+      <c r="Q358">
+        <v>1.011214024244272</v>
+      </c>
+    </row>
+    <row r="359" spans="1:17">
       <c r="A359" s="2">
         <v>43382</v>
       </c>
@@ -17298,8 +19305,14 @@
       <c r="O359">
         <v>0.01349291654146318</v>
       </c>
-    </row>
-    <row r="360" spans="1:15">
+      <c r="P359">
+        <v>0.6816341789572231</v>
+      </c>
+      <c r="Q359">
+        <v>1.011521581537717</v>
+      </c>
+    </row>
+    <row r="360" spans="1:17">
       <c r="A360" s="2">
         <v>43383</v>
       </c>
@@ -17345,8 +19358,14 @@
       <c r="O360">
         <v>0.01367717776116781</v>
       </c>
-    </row>
-    <row r="361" spans="1:15">
+      <c r="P360">
+        <v>1.269027560453416</v>
+      </c>
+      <c r="Q360">
+        <v>1.016794819617922</v>
+      </c>
+    </row>
+    <row r="361" spans="1:17">
       <c r="A361" s="2">
         <v>43384</v>
       </c>
@@ -17392,8 +19411,14 @@
       <c r="O361">
         <v>0.01590950619679469</v>
       </c>
-    </row>
-    <row r="362" spans="1:15">
+      <c r="P361">
+        <v>0.7137374572051682</v>
+      </c>
+      <c r="Q361">
+        <v>1.034520705026158</v>
+      </c>
+    </row>
+    <row r="362" spans="1:17">
       <c r="A362" s="2">
         <v>43385</v>
       </c>
@@ -17439,8 +19464,14 @@
       <c r="O362">
         <v>0.01582397187014318</v>
       </c>
-    </row>
-    <row r="363" spans="1:15">
+      <c r="P362">
+        <v>0.8922127628369441</v>
+      </c>
+      <c r="Q362">
+        <v>1.039902691632606</v>
+      </c>
+    </row>
+    <row r="363" spans="1:17">
       <c r="A363" s="2">
         <v>43386</v>
       </c>
@@ -17486,8 +19517,14 @@
       <c r="O363">
         <v>0.01474638989812802</v>
       </c>
-    </row>
-    <row r="364" spans="1:15">
+      <c r="P363">
+        <v>0.4068171617298799</v>
+      </c>
+      <c r="Q363">
+        <v>1.040187760237724</v>
+      </c>
+    </row>
+    <row r="364" spans="1:17">
       <c r="A364" s="2">
         <v>43387</v>
       </c>
@@ -17533,8 +19570,11 @@
       <c r="O364">
         <v>0.01475043525814233</v>
       </c>
-    </row>
-    <row r="365" spans="1:15">
+      <c r="Q364">
+        <v>1.041687316448038</v>
+      </c>
+    </row>
+    <row r="365" spans="1:17">
       <c r="A365" s="2">
         <v>43388</v>
       </c>
@@ -17580,8 +19620,14 @@
       <c r="O365">
         <v>0.01662487425152314</v>
       </c>
-    </row>
-    <row r="366" spans="1:15">
+      <c r="P365">
+        <v>0.5639335693897833</v>
+      </c>
+      <c r="Q365">
+        <v>1.060780100867048</v>
+      </c>
+    </row>
+    <row r="366" spans="1:17">
       <c r="A366" s="2">
         <v>43389</v>
       </c>
@@ -17627,8 +19673,11 @@
       <c r="O366">
         <v>0.01644595246663591</v>
       </c>
-    </row>
-    <row r="367" spans="1:15">
+      <c r="Q366">
+        <v>1.047554383238642</v>
+      </c>
+    </row>
+    <row r="367" spans="1:17">
       <c r="A367" s="2">
         <v>43390</v>
       </c>
@@ -17674,8 +19723,14 @@
       <c r="O367">
         <v>0.01513157154715065</v>
       </c>
-    </row>
-    <row r="368" spans="1:15">
+      <c r="P367">
+        <v>0.3934867976899605</v>
+      </c>
+      <c r="Q367">
+        <v>1.046787142707768</v>
+      </c>
+    </row>
+    <row r="368" spans="1:17">
       <c r="A368" s="2">
         <v>43391</v>
       </c>
@@ -17721,8 +19776,14 @@
       <c r="O368">
         <v>0.01495954146618714</v>
       </c>
-    </row>
-    <row r="369" spans="1:15">
+      <c r="P368">
+        <v>0.6278257269375007</v>
+      </c>
+      <c r="Q368">
+        <v>1.042049448701405</v>
+      </c>
+    </row>
+    <row r="369" spans="1:17">
       <c r="A369" s="2">
         <v>43392</v>
       </c>
@@ -17768,8 +19829,14 @@
       <c r="O369">
         <v>0.01484684941801475</v>
       </c>
-    </row>
-    <row r="370" spans="1:15">
+      <c r="P369">
+        <v>0.7643945314656916</v>
+      </c>
+      <c r="Q369">
+        <v>1.034976163846205</v>
+      </c>
+    </row>
+    <row r="370" spans="1:17">
       <c r="A370" s="2">
         <v>43393</v>
       </c>
@@ -17815,8 +19882,14 @@
       <c r="O370">
         <v>0.01416913827994551</v>
       </c>
-    </row>
-    <row r="371" spans="1:15">
+      <c r="P370">
+        <v>0.4774700928555674</v>
+      </c>
+      <c r="Q370">
+        <v>1.031057880770478</v>
+      </c>
+    </row>
+    <row r="371" spans="1:17">
       <c r="A371" s="2">
         <v>43394</v>
       </c>
@@ -17862,8 +19935,14 @@
       <c r="O371">
         <v>0.01277982443250325</v>
       </c>
-    </row>
-    <row r="372" spans="1:15">
+      <c r="P371">
+        <v>0.08475278793808659</v>
+      </c>
+      <c r="Q371">
+        <v>1.029756516313742</v>
+      </c>
+    </row>
+    <row r="372" spans="1:17">
       <c r="A372" s="2">
         <v>43395</v>
       </c>
@@ -17909,8 +19988,14 @@
       <c r="O372">
         <v>0.0127267876849995</v>
       </c>
-    </row>
-    <row r="373" spans="1:15">
+      <c r="P372">
+        <v>0.5082270132036125</v>
+      </c>
+      <c r="Q372">
+        <v>1.028511438484733</v>
+      </c>
+    </row>
+    <row r="373" spans="1:17">
       <c r="A373" s="2">
         <v>43396</v>
       </c>
@@ -17956,8 +20041,14 @@
       <c r="O373">
         <v>0.01273047818229445</v>
       </c>
-    </row>
-    <row r="374" spans="1:15">
+      <c r="P373">
+        <v>0.5436757497527039</v>
+      </c>
+      <c r="Q373">
+        <v>1.030689781475715</v>
+      </c>
+    </row>
+    <row r="374" spans="1:17">
       <c r="A374" s="2">
         <v>43397</v>
       </c>
@@ -18003,8 +20094,14 @@
       <c r="O374">
         <v>0.01208985172793905</v>
       </c>
-    </row>
-    <row r="375" spans="1:15">
+      <c r="P374">
+        <v>0.2965688624111489</v>
+      </c>
+      <c r="Q374">
+        <v>1.031255372466071</v>
+      </c>
+    </row>
+    <row r="375" spans="1:17">
       <c r="A375" s="2">
         <v>43398</v>
       </c>
@@ -18050,8 +20147,14 @@
       <c r="O375">
         <v>0.01120215251576924</v>
       </c>
-    </row>
-    <row r="376" spans="1:15">
+      <c r="P375">
+        <v>0.4996561758346492</v>
+      </c>
+      <c r="Q375">
+        <v>1.031863119306413</v>
+      </c>
+    </row>
+    <row r="376" spans="1:17">
       <c r="A376" s="2">
         <v>43399</v>
       </c>
@@ -18097,8 +20200,14 @@
       <c r="O376">
         <v>0.01087536899937048</v>
       </c>
-    </row>
-    <row r="377" spans="1:15">
+      <c r="P376">
+        <v>0.4386632727381166</v>
+      </c>
+      <c r="Q376">
+        <v>1.033526089324868</v>
+      </c>
+    </row>
+    <row r="377" spans="1:17">
       <c r="A377" s="2">
         <v>43400</v>
       </c>
@@ -18144,8 +20253,14 @@
       <c r="O377">
         <v>0.009674628932310029</v>
       </c>
-    </row>
-    <row r="378" spans="1:15">
+      <c r="P377">
+        <v>0.557279862137476</v>
+      </c>
+      <c r="Q377">
+        <v>1.031272041444893</v>
+      </c>
+    </row>
+    <row r="378" spans="1:17">
       <c r="A378" s="2">
         <v>43401</v>
       </c>
@@ -18191,8 +20306,14 @@
       <c r="O378">
         <v>0.009497568193333628</v>
       </c>
-    </row>
-    <row r="379" spans="1:15">
+      <c r="P378">
+        <v>0.4871981120751165</v>
+      </c>
+      <c r="Q378">
+        <v>1.02921089889587</v>
+      </c>
+    </row>
+    <row r="379" spans="1:17">
       <c r="A379" s="2">
         <v>43402</v>
       </c>
@@ -18238,8 +20359,14 @@
       <c r="O379">
         <v>0.01029339959765183</v>
       </c>
-    </row>
-    <row r="380" spans="1:15">
+      <c r="P379">
+        <v>0.4559838594115759</v>
+      </c>
+      <c r="Q379">
+        <v>1.031459471533867</v>
+      </c>
+    </row>
+    <row r="380" spans="1:17">
       <c r="A380" s="2">
         <v>43403</v>
       </c>
@@ -18285,8 +20412,14 @@
       <c r="O380">
         <v>0.01014375272318485</v>
       </c>
-    </row>
-    <row r="381" spans="1:15">
+      <c r="P380">
+        <v>0.3700074114985633</v>
+      </c>
+      <c r="Q380">
+        <v>1.031371622615059</v>
+      </c>
+    </row>
+    <row r="381" spans="1:17">
       <c r="A381" s="2">
         <v>43404</v>
       </c>
@@ -18332,8 +20465,14 @@
       <c r="O381">
         <v>0.01001660852664584</v>
       </c>
-    </row>
-    <row r="382" spans="1:15">
+      <c r="P381">
+        <v>0.5600066982626706</v>
+      </c>
+      <c r="Q381">
+        <v>1.028000607260587</v>
+      </c>
+    </row>
+    <row r="382" spans="1:17">
       <c r="A382" s="2">
         <v>43405</v>
       </c>
@@ -18379,8 +20518,14 @@
       <c r="O382">
         <v>0.01021567982427663</v>
       </c>
-    </row>
-    <row r="383" spans="1:15">
+      <c r="P382">
+        <v>0.4478529910869735</v>
+      </c>
+      <c r="Q382">
+        <v>1.025744127459136</v>
+      </c>
+    </row>
+    <row r="383" spans="1:17">
       <c r="A383" s="2">
         <v>43406</v>
       </c>
@@ -18426,8 +20571,14 @@
       <c r="O383">
         <v>0.00991986990170232</v>
       </c>
-    </row>
-    <row r="384" spans="1:15">
+      <c r="P383">
+        <v>0.4846197839066882</v>
+      </c>
+      <c r="Q383">
+        <v>1.021571462519723</v>
+      </c>
+    </row>
+    <row r="384" spans="1:17">
       <c r="A384" s="2">
         <v>43407</v>
       </c>
@@ -18473,8 +20624,14 @@
       <c r="O384">
         <v>0.009600040605369717</v>
       </c>
-    </row>
-    <row r="385" spans="1:15">
+      <c r="P384">
+        <v>0.5125871199872124</v>
+      </c>
+      <c r="Q384">
+        <v>1.019936676756788</v>
+      </c>
+    </row>
+    <row r="385" spans="1:17">
       <c r="A385" s="2">
         <v>43408</v>
       </c>
@@ -18520,8 +20677,11 @@
       <c r="O385">
         <v>0.009390164671125439</v>
       </c>
-    </row>
-    <row r="386" spans="1:15">
+      <c r="Q385">
+        <v>1.014975544116414</v>
+      </c>
+    </row>
+    <row r="386" spans="1:17">
       <c r="A386" s="2">
         <v>43409</v>
       </c>
@@ -18567,8 +20727,14 @@
       <c r="O386">
         <v>0.009461143224073168</v>
       </c>
-    </row>
-    <row r="387" spans="1:15">
+      <c r="P386">
+        <v>1.041430964358083</v>
+      </c>
+      <c r="Q386">
+        <v>1.010959535244966</v>
+      </c>
+    </row>
+    <row r="387" spans="1:17">
       <c r="A387" s="2">
         <v>43410</v>
       </c>
@@ -18614,8 +20780,14 @@
       <c r="O387">
         <v>0.009648169606977203</v>
       </c>
-    </row>
-    <row r="388" spans="1:15">
+      <c r="P387">
+        <v>0.3277524964548581</v>
+      </c>
+      <c r="Q387">
+        <v>1.010788233888043</v>
+      </c>
+    </row>
+    <row r="388" spans="1:17">
       <c r="A388" s="2">
         <v>43411</v>
       </c>
@@ -18661,8 +20833,14 @@
       <c r="O388">
         <v>0.009788589362488944</v>
       </c>
-    </row>
-    <row r="389" spans="1:15">
+      <c r="P388">
+        <v>0.2752537950994578</v>
+      </c>
+      <c r="Q388">
+        <v>1.011972559805858</v>
+      </c>
+    </row>
+    <row r="389" spans="1:17">
       <c r="A389" s="2">
         <v>43412</v>
       </c>
@@ -18708,8 +20886,14 @@
       <c r="O389">
         <v>0.01025175573837786</v>
       </c>
-    </row>
-    <row r="390" spans="1:15">
+      <c r="P389">
+        <v>1.756351200838882</v>
+      </c>
+      <c r="Q389">
+        <v>1.016183765552304</v>
+      </c>
+    </row>
+    <row r="390" spans="1:17">
       <c r="A390" s="2">
         <v>43413</v>
       </c>
@@ -18755,8 +20939,14 @@
       <c r="O390">
         <v>0.01033825056547877</v>
       </c>
-    </row>
-    <row r="391" spans="1:15">
+      <c r="P390">
+        <v>0.440815747467915</v>
+      </c>
+      <c r="Q390">
+        <v>1.02091352235119</v>
+      </c>
+    </row>
+    <row r="391" spans="1:17">
       <c r="A391" s="2">
         <v>43414</v>
       </c>
@@ -18802,8 +20992,14 @@
       <c r="O391">
         <v>0.008212468675521898</v>
       </c>
-    </row>
-    <row r="392" spans="1:15">
+      <c r="P391">
+        <v>1.941799901070891</v>
+      </c>
+      <c r="Q391">
+        <v>1.024709938425109</v>
+      </c>
+    </row>
+    <row r="392" spans="1:17">
       <c r="A392" s="2">
         <v>43415</v>
       </c>
@@ -18849,8 +21045,11 @@
       <c r="O392">
         <v>0.008094214504898087</v>
       </c>
-    </row>
-    <row r="393" spans="1:15">
+      <c r="Q392">
+        <v>1.026458314479648</v>
+      </c>
+    </row>
+    <row r="393" spans="1:17">
       <c r="A393" s="2">
         <v>43416</v>
       </c>
@@ -18896,8 +21095,11 @@
       <c r="O393">
         <v>0.008293199045499392</v>
       </c>
-    </row>
-    <row r="394" spans="1:15">
+      <c r="Q393">
+        <v>1.026786616597321</v>
+      </c>
+    </row>
+    <row r="394" spans="1:17">
       <c r="A394" s="2">
         <v>43417</v>
       </c>
@@ -18943,8 +21145,11 @@
       <c r="O394">
         <v>0.008340502524911524</v>
       </c>
-    </row>
-    <row r="395" spans="1:15">
+      <c r="Q394">
+        <v>1.033583945033987</v>
+      </c>
+    </row>
+    <row r="395" spans="1:17">
       <c r="A395" s="2">
         <v>43418</v>
       </c>
@@ -18990,8 +21195,14 @@
       <c r="O395">
         <v>0.01077540333463518</v>
       </c>
-    </row>
-    <row r="396" spans="1:15">
+      <c r="P395">
+        <v>0.6331180607666242</v>
+      </c>
+      <c r="Q395">
+        <v>1.056845938400385</v>
+      </c>
+    </row>
+    <row r="396" spans="1:17">
       <c r="A396" s="2">
         <v>43419</v>
       </c>
@@ -19037,8 +21248,14 @@
       <c r="O396">
         <v>0.01147216062627454</v>
       </c>
-    </row>
-    <row r="397" spans="1:15">
+      <c r="P396">
+        <v>1.021150434269421</v>
+      </c>
+      <c r="Q396">
+        <v>1.06708606362593</v>
+      </c>
+    </row>
+    <row r="397" spans="1:17">
       <c r="A397" s="2">
         <v>43420</v>
       </c>
@@ -19084,8 +21301,14 @@
       <c r="O397">
         <v>0.01169368197305798</v>
       </c>
-    </row>
-    <row r="398" spans="1:15">
+      <c r="P397">
+        <v>0.5160845144391806</v>
+      </c>
+      <c r="Q397">
+        <v>1.060361948883737</v>
+      </c>
+    </row>
+    <row r="398" spans="1:17">
       <c r="A398" s="2">
         <v>43421</v>
       </c>
@@ -19131,8 +21354,14 @@
       <c r="O398">
         <v>0.01139471365427218</v>
       </c>
-    </row>
-    <row r="399" spans="1:15">
+      <c r="P398">
+        <v>1.709695262472703</v>
+      </c>
+      <c r="Q398">
+        <v>1.05591744726682</v>
+      </c>
+    </row>
+    <row r="399" spans="1:17">
       <c r="A399" s="2">
         <v>43422</v>
       </c>
@@ -19178,8 +21407,11 @@
       <c r="O399">
         <v>0.01187444286181871</v>
       </c>
-    </row>
-    <row r="400" spans="1:15">
+      <c r="Q399">
+        <v>1.051137255127415</v>
+      </c>
+    </row>
+    <row r="400" spans="1:17">
       <c r="A400" s="2">
         <v>43423</v>
       </c>
@@ -19225,8 +21457,14 @@
       <c r="O400">
         <v>0.01803843771679095</v>
       </c>
-    </row>
-    <row r="401" spans="1:15">
+      <c r="P400">
+        <v>0.8299755667284924</v>
+      </c>
+      <c r="Q400">
+        <v>1.047537409854317</v>
+      </c>
+    </row>
+    <row r="401" spans="1:17">
       <c r="A401" s="2">
         <v>43424</v>
       </c>
@@ -19272,8 +21510,14 @@
       <c r="O401">
         <v>0.02193149009097759</v>
       </c>
-    </row>
-    <row r="402" spans="1:15">
+      <c r="P401">
+        <v>0.8613248460903565</v>
+      </c>
+      <c r="Q401">
+        <v>1.049716339006902</v>
+      </c>
+    </row>
+    <row r="402" spans="1:17">
       <c r="A402" s="2">
         <v>43425</v>
       </c>
@@ -19319,8 +21563,14 @@
       <c r="O402">
         <v>0.02337124966662559</v>
       </c>
-    </row>
-    <row r="403" spans="1:15">
+      <c r="P402">
+        <v>0.8858806182235047</v>
+      </c>
+      <c r="Q402">
+        <v>1.053368129079905</v>
+      </c>
+    </row>
+    <row r="403" spans="1:17">
       <c r="A403" s="2">
         <v>43426</v>
       </c>
@@ -19366,8 +21616,11 @@
       <c r="O403">
         <v>0.02566036350599908</v>
       </c>
-    </row>
-    <row r="404" spans="1:15">
+      <c r="Q403">
+        <v>1.048842868306236</v>
+      </c>
+    </row>
+    <row r="404" spans="1:17">
       <c r="A404" s="2">
         <v>43427</v>
       </c>
@@ -19413,8 +21666,14 @@
       <c r="O404">
         <v>0.02571296793323692</v>
       </c>
-    </row>
-    <row r="405" spans="1:15">
+      <c r="P404">
+        <v>1.598389475645039</v>
+      </c>
+      <c r="Q404">
+        <v>1.053283421114177</v>
+      </c>
+    </row>
+    <row r="405" spans="1:17">
       <c r="A405" s="2">
         <v>43428</v>
       </c>
@@ -19460,8 +21719,11 @@
       <c r="O405">
         <v>0.03067177574844168</v>
       </c>
-    </row>
-    <row r="406" spans="1:15">
+      <c r="Q405">
+        <v>1.050421330621908</v>
+      </c>
+    </row>
+    <row r="406" spans="1:17">
       <c r="A406" s="2">
         <v>43429</v>
       </c>
@@ -19507,8 +21769,14 @@
       <c r="O406">
         <v>0.03210734959009035</v>
       </c>
-    </row>
-    <row r="407" spans="1:15">
+      <c r="P406">
+        <v>0.9752562810422187</v>
+      </c>
+      <c r="Q406">
+        <v>1.054549254984246</v>
+      </c>
+    </row>
+    <row r="407" spans="1:17">
       <c r="A407" s="2">
         <v>43430</v>
       </c>
@@ -19554,8 +21822,14 @@
       <c r="O407">
         <v>0.03469217831386354</v>
       </c>
-    </row>
-    <row r="408" spans="1:15">
+      <c r="P407">
+        <v>1.617051848996045</v>
+      </c>
+      <c r="Q407">
+        <v>1.046128330979007</v>
+      </c>
+    </row>
+    <row r="408" spans="1:17">
       <c r="A408" s="2">
         <v>43431</v>
       </c>
@@ -19601,8 +21875,14 @@
       <c r="O408">
         <v>0.03513609353801338</v>
       </c>
-    </row>
-    <row r="409" spans="1:15">
+      <c r="P408">
+        <v>0.9909363005543067</v>
+      </c>
+      <c r="Q408">
+        <v>1.047083337072177</v>
+      </c>
+    </row>
+    <row r="409" spans="1:17">
       <c r="A409" s="2">
         <v>43432</v>
       </c>
@@ -19648,8 +21928,14 @@
       <c r="O409">
         <v>0.0388192341816915</v>
       </c>
-    </row>
-    <row r="410" spans="1:15">
+      <c r="P409">
+        <v>1.490830067243284</v>
+      </c>
+      <c r="Q409">
+        <v>1.042340821745843</v>
+      </c>
+    </row>
+    <row r="410" spans="1:17">
       <c r="A410" s="2">
         <v>43433</v>
       </c>
@@ -19695,8 +21981,14 @@
       <c r="O410">
         <v>0.03902970136770791</v>
       </c>
-    </row>
-    <row r="411" spans="1:15">
+      <c r="P410">
+        <v>2.112315452898661</v>
+      </c>
+      <c r="Q410">
+        <v>1.039962384801614</v>
+      </c>
+    </row>
+    <row r="411" spans="1:17">
       <c r="A411" s="2">
         <v>43434</v>
       </c>
@@ -19742,8 +22034,14 @@
       <c r="O411">
         <v>0.04171160566685306</v>
       </c>
-    </row>
-    <row r="412" spans="1:15">
+      <c r="P411">
+        <v>0.7226235829068534</v>
+      </c>
+      <c r="Q411">
+        <v>1.042345123208261</v>
+      </c>
+    </row>
+    <row r="412" spans="1:17">
       <c r="A412" s="2">
         <v>43435</v>
       </c>
@@ -19789,8 +22087,14 @@
       <c r="O412">
         <v>0.04342279639751599</v>
       </c>
-    </row>
-    <row r="413" spans="1:15">
+      <c r="P412">
+        <v>1.298537748797145</v>
+      </c>
+      <c r="Q412">
+        <v>1.045494666564947</v>
+      </c>
+    </row>
+    <row r="413" spans="1:17">
       <c r="A413" s="2">
         <v>43436</v>
       </c>
@@ -19836,8 +22140,14 @@
       <c r="O413">
         <v>0.04414733878101184</v>
       </c>
-    </row>
-    <row r="414" spans="1:15">
+      <c r="P413">
+        <v>0.9523992742715244</v>
+      </c>
+      <c r="Q413">
+        <v>1.038083229960075</v>
+      </c>
+    </row>
+    <row r="414" spans="1:17">
       <c r="A414" s="2">
         <v>43437</v>
       </c>
@@ -19883,8 +22193,14 @@
       <c r="O414">
         <v>0.04669175894202401</v>
       </c>
-    </row>
-    <row r="415" spans="1:15">
+      <c r="P414">
+        <v>0.7060475814868674</v>
+      </c>
+      <c r="Q414">
+        <v>1.050211458468213</v>
+      </c>
+    </row>
+    <row r="415" spans="1:17">
       <c r="A415" s="2">
         <v>43438</v>
       </c>
@@ -19930,8 +22246,14 @@
       <c r="O415">
         <v>0.04730232200964191</v>
       </c>
-    </row>
-    <row r="416" spans="1:15">
+      <c r="P415">
+        <v>0.7013699171057065</v>
+      </c>
+      <c r="Q415">
+        <v>1.049799886072174</v>
+      </c>
+    </row>
+    <row r="416" spans="1:17">
       <c r="A416" s="2">
         <v>43439</v>
       </c>
@@ -19977,8 +22299,14 @@
       <c r="O416">
         <v>0.04934604145662217</v>
       </c>
-    </row>
-    <row r="417" spans="1:15">
+      <c r="P416">
+        <v>0.8433048411794007</v>
+      </c>
+      <c r="Q416">
+        <v>1.051156297116094</v>
+      </c>
+    </row>
+    <row r="417" spans="1:17">
       <c r="A417" s="2">
         <v>43440</v>
       </c>
@@ -20024,8 +22352,14 @@
       <c r="O417">
         <v>0.05190492236349853</v>
       </c>
-    </row>
-    <row r="418" spans="1:15">
+      <c r="P417">
+        <v>1.356413611616037</v>
+      </c>
+      <c r="Q417">
+        <v>1.056480294709534</v>
+      </c>
+    </row>
+    <row r="418" spans="1:17">
       <c r="A418" s="2">
         <v>43441</v>
       </c>
@@ -20071,8 +22405,14 @@
       <c r="O418">
         <v>0.0527153720572879</v>
       </c>
-    </row>
-    <row r="419" spans="1:15">
+      <c r="P418">
+        <v>1.767276751182177</v>
+      </c>
+      <c r="Q418">
+        <v>1.054779341196223</v>
+      </c>
+    </row>
+    <row r="419" spans="1:17">
       <c r="A419" s="2">
         <v>43442</v>
       </c>
@@ -20118,8 +22458,14 @@
       <c r="O419">
         <v>0.05291415903225027</v>
       </c>
-    </row>
-    <row r="420" spans="1:15">
+      <c r="P419">
+        <v>1.848770428522602</v>
+      </c>
+      <c r="Q419">
+        <v>1.049575765259663</v>
+      </c>
+    </row>
+    <row r="420" spans="1:17">
       <c r="A420" s="2">
         <v>43443</v>
       </c>
@@ -20165,8 +22511,14 @@
       <c r="O420">
         <v>0.05418173556282596</v>
       </c>
-    </row>
-    <row r="421" spans="1:15">
+      <c r="P420">
+        <v>0.7451613767733668</v>
+      </c>
+      <c r="Q420">
+        <v>1.046138680177202</v>
+      </c>
+    </row>
+    <row r="421" spans="1:17">
       <c r="A421" s="2">
         <v>43444</v>
       </c>
@@ -20212,8 +22564,14 @@
       <c r="O421">
         <v>0.05541808886935833</v>
       </c>
-    </row>
-    <row r="422" spans="1:15">
+      <c r="P421">
+        <v>2.075032077602795</v>
+      </c>
+      <c r="Q421">
+        <v>1.041707741459001</v>
+      </c>
+    </row>
+    <row r="422" spans="1:17">
       <c r="A422" s="2">
         <v>43445</v>
       </c>
@@ -20259,8 +22617,14 @@
       <c r="O422">
         <v>0.0564157734994975</v>
       </c>
-    </row>
-    <row r="423" spans="1:15">
+      <c r="P422">
+        <v>1.428205541376907</v>
+      </c>
+      <c r="Q422">
+        <v>1.045986431894652</v>
+      </c>
+    </row>
+    <row r="423" spans="1:17">
       <c r="A423" s="2">
         <v>43446</v>
       </c>
@@ -20306,8 +22670,14 @@
       <c r="O423">
         <v>0.05694854452994817</v>
       </c>
-    </row>
-    <row r="424" spans="1:15">
+      <c r="P423">
+        <v>1.844769424117006</v>
+      </c>
+      <c r="Q423">
+        <v>1.044939619057985</v>
+      </c>
+    </row>
+    <row r="424" spans="1:17">
       <c r="A424" s="2">
         <v>43447</v>
       </c>
@@ -20353,8 +22723,14 @@
       <c r="O424">
         <v>0.05916198367838357</v>
       </c>
-    </row>
-    <row r="425" spans="1:15">
+      <c r="P424">
+        <v>0.8544153011575558</v>
+      </c>
+      <c r="Q424">
+        <v>1.045094715756875</v>
+      </c>
+    </row>
+    <row r="425" spans="1:17">
       <c r="A425" s="2">
         <v>43448</v>
       </c>
@@ -20400,8 +22776,14 @@
       <c r="O425">
         <v>0.05561776478198745</v>
       </c>
-    </row>
-    <row r="426" spans="1:15">
+      <c r="P425">
+        <v>0.6863714845951842</v>
+      </c>
+      <c r="Q425">
+        <v>1.04481753901494</v>
+      </c>
+    </row>
+    <row r="426" spans="1:17">
       <c r="A426" s="2">
         <v>43449</v>
       </c>
@@ -20447,8 +22829,14 @@
       <c r="O426">
         <v>0.05499835181086604</v>
       </c>
-    </row>
-    <row r="427" spans="1:15">
+      <c r="P426">
+        <v>0.9204865623155369</v>
+      </c>
+      <c r="Q426">
+        <v>1.037359618888023</v>
+      </c>
+    </row>
+    <row r="427" spans="1:17">
       <c r="A427" s="2">
         <v>43450</v>
       </c>
@@ -20494,8 +22882,11 @@
       <c r="O427">
         <v>0.05464622999890365</v>
       </c>
-    </row>
-    <row r="428" spans="1:15">
+      <c r="Q427">
+        <v>1.035047163900129</v>
+      </c>
+    </row>
+    <row r="428" spans="1:17">
       <c r="A428" s="2">
         <v>43451</v>
       </c>
@@ -20541,8 +22932,11 @@
       <c r="O428">
         <v>0.05832292426995665</v>
       </c>
-    </row>
-    <row r="429" spans="1:15">
+      <c r="Q428">
+        <v>1.037501820066709</v>
+      </c>
+    </row>
+    <row r="429" spans="1:17">
       <c r="A429" s="2">
         <v>43452</v>
       </c>
@@ -20588,8 +22982,14 @@
       <c r="O429">
         <v>0.05960765506717434</v>
       </c>
-    </row>
-    <row r="430" spans="1:15">
+      <c r="P429">
+        <v>0.9578921020979002</v>
+      </c>
+      <c r="Q429">
+        <v>1.034516624415865</v>
+      </c>
+    </row>
+    <row r="430" spans="1:17">
       <c r="A430" s="2">
         <v>43453</v>
       </c>
@@ -20635,8 +23035,14 @@
       <c r="O430">
         <v>0.0538685082618684</v>
       </c>
-    </row>
-    <row r="431" spans="1:15">
+      <c r="P430">
+        <v>0.9768622692577406</v>
+      </c>
+      <c r="Q430">
+        <v>1.034055554078014</v>
+      </c>
+    </row>
+    <row r="431" spans="1:17">
       <c r="A431" s="2">
         <v>43454</v>
       </c>
@@ -20682,8 +23088,14 @@
       <c r="O431">
         <v>0.05423400522519759</v>
       </c>
-    </row>
-    <row r="432" spans="1:15">
+      <c r="P431">
+        <v>1.162343554672426</v>
+      </c>
+      <c r="Q431">
+        <v>1.034788154280518</v>
+      </c>
+    </row>
+    <row r="432" spans="1:17">
       <c r="A432" s="2">
         <v>43455</v>
       </c>
@@ -20729,8 +23141,14 @@
       <c r="O432">
         <v>0.05537147729879181</v>
       </c>
-    </row>
-    <row r="433" spans="1:15">
+      <c r="P432">
+        <v>0.972360100404782</v>
+      </c>
+      <c r="Q432">
+        <v>1.032974683885606</v>
+      </c>
+    </row>
+    <row r="433" spans="1:17">
       <c r="A433" s="2">
         <v>43456</v>
       </c>
@@ -20776,8 +23194,11 @@
       <c r="O433">
         <v>0.05432748303696053</v>
       </c>
-    </row>
-    <row r="434" spans="1:15">
+      <c r="Q433">
+        <v>1.037702452607376</v>
+      </c>
+    </row>
+    <row r="434" spans="1:17">
       <c r="A434" s="2">
         <v>43457</v>
       </c>
@@ -20823,8 +23244,11 @@
       <c r="O434">
         <v>0.0543020307432855</v>
       </c>
-    </row>
-    <row r="435" spans="1:15">
+      <c r="Q434">
+        <v>1.037185142320693</v>
+      </c>
+    </row>
+    <row r="435" spans="1:17">
       <c r="A435" s="2">
         <v>43458</v>
       </c>
@@ -20870,8 +23294,11 @@
       <c r="O435">
         <v>0.0500739275738658</v>
       </c>
-    </row>
-    <row r="436" spans="1:15">
+      <c r="Q435">
+        <v>1.031770100333073</v>
+      </c>
+    </row>
+    <row r="436" spans="1:17">
       <c r="A436" s="2">
         <v>43459</v>
       </c>
@@ -20917,8 +23344,11 @@
       <c r="O436">
         <v>0.05158587051376563</v>
       </c>
-    </row>
-    <row r="437" spans="1:15">
+      <c r="Q436">
+        <v>1.035568616222601</v>
+      </c>
+    </row>
+    <row r="437" spans="1:17">
       <c r="A437" s="2">
         <v>43460</v>
       </c>
@@ -20964,8 +23394,11 @@
       <c r="O437">
         <v>0.04944805737535179</v>
       </c>
-    </row>
-    <row r="438" spans="1:15">
+      <c r="Q437">
+        <v>1.037828364487288</v>
+      </c>
+    </row>
+    <row r="438" spans="1:17">
       <c r="A438" s="2">
         <v>43461</v>
       </c>
@@ -21011,8 +23444,14 @@
       <c r="O438">
         <v>0.05137345519252343</v>
       </c>
-    </row>
-    <row r="439" spans="1:15">
+      <c r="P438">
+        <v>1.279499353177004</v>
+      </c>
+      <c r="Q438">
+        <v>1.039438460237554</v>
+      </c>
+    </row>
+    <row r="439" spans="1:17">
       <c r="A439" s="2">
         <v>43462</v>
       </c>
@@ -21058,8 +23497,14 @@
       <c r="O439">
         <v>0.04977183154507271</v>
       </c>
-    </row>
-    <row r="440" spans="1:15">
+      <c r="P439">
+        <v>1.575938129119625</v>
+      </c>
+      <c r="Q439">
+        <v>1.037190475645549</v>
+      </c>
+    </row>
+    <row r="440" spans="1:17">
       <c r="A440" s="2">
         <v>43463</v>
       </c>
@@ -21105,8 +23550,14 @@
       <c r="O440">
         <v>0.05074676419751743</v>
       </c>
-    </row>
-    <row r="441" spans="1:15">
+      <c r="P440">
+        <v>0.8594468839436317</v>
+      </c>
+      <c r="Q440">
+        <v>1.037853519816124</v>
+      </c>
+    </row>
+    <row r="441" spans="1:17">
       <c r="A441" s="2">
         <v>43464</v>
       </c>
@@ -21152,8 +23603,14 @@
       <c r="O441">
         <v>0.0484777118689316</v>
       </c>
-    </row>
-    <row r="442" spans="1:15">
+      <c r="P441">
+        <v>0.744290129977735</v>
+      </c>
+      <c r="Q441">
+        <v>1.037240844952432</v>
+      </c>
+    </row>
+    <row r="442" spans="1:17">
       <c r="A442" s="2">
         <v>43465</v>
       </c>
@@ -21199,8 +23656,14 @@
       <c r="O442">
         <v>0.04779209489407394</v>
       </c>
-    </row>
-    <row r="443" spans="1:15">
+      <c r="P442">
+        <v>0.8553072992198756</v>
+      </c>
+      <c r="Q442">
+        <v>1.035089398200043</v>
+      </c>
+    </row>
+    <row r="443" spans="1:17">
       <c r="A443" s="2">
         <v>43466</v>
       </c>
@@ -21246,8 +23709,11 @@
       <c r="O443">
         <v>0.04819024499460334</v>
       </c>
-    </row>
-    <row r="444" spans="1:15">
+      <c r="Q443">
+        <v>1.040463486852392</v>
+      </c>
+    </row>
+    <row r="444" spans="1:17">
       <c r="A444" s="2">
         <v>43467</v>
       </c>
@@ -21293,8 +23759,11 @@
       <c r="O444">
         <v>0.04659861114919787</v>
       </c>
-    </row>
-    <row r="445" spans="1:15">
+      <c r="Q444">
+        <v>1.040240885598272</v>
+      </c>
+    </row>
+    <row r="445" spans="1:17">
       <c r="A445" s="2">
         <v>43468</v>
       </c>
@@ -21340,8 +23809,11 @@
       <c r="O445">
         <v>0.0471162561682995</v>
       </c>
-    </row>
-    <row r="446" spans="1:15">
+      <c r="Q445">
+        <v>1.037969085687867</v>
+      </c>
+    </row>
+    <row r="446" spans="1:17">
       <c r="A446" s="2">
         <v>43469</v>
       </c>
@@ -21387,8 +23859,11 @@
       <c r="O446">
         <v>0.04500992060009565</v>
       </c>
-    </row>
-    <row r="447" spans="1:15">
+      <c r="Q446">
+        <v>1.035977221610514</v>
+      </c>
+    </row>
+    <row r="447" spans="1:17">
       <c r="A447" s="2">
         <v>43470</v>
       </c>
@@ -21434,8 +23909,11 @@
       <c r="O447">
         <v>0.04230824629363068</v>
       </c>
-    </row>
-    <row r="448" spans="1:15">
+      <c r="Q447">
+        <v>1.035939466358055</v>
+      </c>
+    </row>
+    <row r="448" spans="1:17">
       <c r="A448" s="2">
         <v>43471</v>
       </c>
@@ -21481,8 +23959,11 @@
       <c r="O448">
         <v>0.04362497128777283</v>
       </c>
-    </row>
-    <row r="449" spans="1:15">
+      <c r="Q448">
+        <v>1.031065821604198</v>
+      </c>
+    </row>
+    <row r="449" spans="1:17">
       <c r="A449" s="2">
         <v>43472</v>
       </c>
@@ -21528,8 +24009,11 @@
       <c r="O449">
         <v>0.04346424467928301</v>
       </c>
-    </row>
-    <row r="450" spans="1:15">
+      <c r="Q449">
+        <v>1.027889446593294</v>
+      </c>
+    </row>
+    <row r="450" spans="1:17">
       <c r="A450" s="2">
         <v>43473</v>
       </c>
@@ -21575,8 +24059,11 @@
       <c r="O450">
         <v>0.04178075424232489</v>
       </c>
-    </row>
-    <row r="451" spans="1:15">
+      <c r="Q450">
+        <v>1.028095604851537</v>
+      </c>
+    </row>
+    <row r="451" spans="1:17">
       <c r="A451" s="2">
         <v>43474</v>
       </c>
@@ -21622,8 +24109,11 @@
       <c r="O451">
         <v>0.04042632659564548</v>
       </c>
-    </row>
-    <row r="452" spans="1:15">
+      <c r="Q451">
+        <v>1.025142732740507</v>
+      </c>
+    </row>
+    <row r="452" spans="1:17">
       <c r="A452" s="2">
         <v>43475</v>
       </c>
@@ -21669,8 +24159,11 @@
       <c r="O452">
         <v>0.04349616319239835</v>
       </c>
-    </row>
-    <row r="453" spans="1:15">
+      <c r="Q452">
+        <v>1.030156086262064</v>
+      </c>
+    </row>
+    <row r="453" spans="1:17">
       <c r="A453" s="2">
         <v>43476</v>
       </c>
@@ -21716,8 +24209,11 @@
       <c r="O453">
         <v>0.04278349369459498</v>
       </c>
-    </row>
-    <row r="454" spans="1:15">
+      <c r="Q453">
+        <v>1.035101792339079</v>
+      </c>
+    </row>
+    <row r="454" spans="1:17">
       <c r="A454" s="2">
         <v>43477</v>
       </c>
@@ -21763,8 +24259,11 @@
       <c r="O454">
         <v>0.04080514923508667</v>
       </c>
-    </row>
-    <row r="455" spans="1:15">
+      <c r="Q454">
+        <v>1.036357793123396</v>
+      </c>
+    </row>
+    <row r="455" spans="1:17">
       <c r="A455" s="2">
         <v>43478</v>
       </c>
@@ -21810,8 +24309,11 @@
       <c r="O455">
         <v>0.04117576453433566</v>
       </c>
-    </row>
-    <row r="456" spans="1:15">
+      <c r="Q455">
+        <v>1.038719090356169</v>
+      </c>
+    </row>
+    <row r="456" spans="1:17">
       <c r="A456" s="2">
         <v>43479</v>
       </c>
@@ -21857,8 +24359,11 @@
       <c r="O456">
         <v>0.04297425684656994</v>
       </c>
-    </row>
-    <row r="457" spans="1:15">
+      <c r="Q456">
+        <v>1.036360377528591</v>
+      </c>
+    </row>
+    <row r="457" spans="1:17">
       <c r="A457" s="2">
         <v>43480</v>
       </c>
@@ -21904,8 +24409,11 @@
       <c r="O457">
         <v>0.04366528597803239</v>
       </c>
-    </row>
-    <row r="458" spans="1:15">
+      <c r="Q457">
+        <v>1.033262480280318</v>
+      </c>
+    </row>
+    <row r="458" spans="1:17">
       <c r="A458" s="2">
         <v>43481</v>
       </c>
@@ -21951,8 +24459,11 @@
       <c r="O458">
         <v>0.04011474189312675</v>
       </c>
-    </row>
-    <row r="459" spans="1:15">
+      <c r="Q458">
+        <v>1.034049226142227</v>
+      </c>
+    </row>
+    <row r="459" spans="1:17">
       <c r="A459" s="2">
         <v>43482</v>
       </c>
@@ -21998,8 +24509,11 @@
       <c r="O459">
         <v>0.03855734678927418</v>
       </c>
-    </row>
-    <row r="460" spans="1:15">
+      <c r="Q459">
+        <v>1.033213155536186</v>
+      </c>
+    </row>
+    <row r="460" spans="1:17">
       <c r="A460" s="2">
         <v>43483</v>
       </c>
@@ -22045,8 +24559,11 @@
       <c r="O460">
         <v>0.03821809355156534</v>
       </c>
-    </row>
-    <row r="461" spans="1:15">
+      <c r="Q460">
+        <v>1.033198984505315</v>
+      </c>
+    </row>
+    <row r="461" spans="1:17">
       <c r="A461" s="2">
         <v>43484</v>
       </c>
@@ -22092,8 +24609,11 @@
       <c r="O461">
         <v>0.03476230574799764</v>
       </c>
-    </row>
-    <row r="462" spans="1:15">
+      <c r="Q461">
+        <v>1.029086731447103</v>
+      </c>
+    </row>
+    <row r="462" spans="1:17">
       <c r="A462" s="2">
         <v>43485</v>
       </c>
@@ -22139,8 +24659,11 @@
       <c r="O462">
         <v>0.03370246177281571</v>
       </c>
-    </row>
-    <row r="463" spans="1:15">
+      <c r="Q462">
+        <v>1.034612621709162</v>
+      </c>
+    </row>
+    <row r="463" spans="1:17">
       <c r="A463" s="2">
         <v>43486</v>
       </c>
@@ -22186,8 +24709,11 @@
       <c r="O463">
         <v>0.03268907252769517</v>
       </c>
-    </row>
-    <row r="464" spans="1:15">
+      <c r="Q463">
+        <v>1.038809170284003</v>
+      </c>
+    </row>
+    <row r="464" spans="1:17">
       <c r="A464" s="2">
         <v>43487</v>
       </c>
@@ -22233,8 +24759,11 @@
       <c r="O464">
         <v>0.03287586243917866</v>
       </c>
-    </row>
-    <row r="465" spans="1:15">
+      <c r="Q464">
+        <v>1.037045901505769</v>
+      </c>
+    </row>
+    <row r="465" spans="1:17">
       <c r="A465" s="2">
         <v>43488</v>
       </c>
@@ -22280,8 +24809,11 @@
       <c r="O465">
         <v>0.03224899379191024</v>
       </c>
-    </row>
-    <row r="466" spans="1:15">
+      <c r="Q465">
+        <v>1.03444342832247</v>
+      </c>
+    </row>
+    <row r="466" spans="1:17">
       <c r="A466" s="2">
         <v>43489</v>
       </c>
@@ -22327,8 +24859,11 @@
       <c r="O466">
         <v>0.02948646111715432</v>
       </c>
-    </row>
-    <row r="467" spans="1:15">
+      <c r="Q466">
+        <v>1.033588723228648</v>
+      </c>
+    </row>
+    <row r="467" spans="1:17">
       <c r="A467" s="2">
         <v>43490</v>
       </c>
@@ -22374,8 +24909,11 @@
       <c r="O467">
         <v>0.02901348872304394</v>
       </c>
-    </row>
-    <row r="468" spans="1:15">
+      <c r="Q467">
+        <v>1.031374134235234</v>
+      </c>
+    </row>
+    <row r="468" spans="1:17">
       <c r="A468" s="2">
         <v>43491</v>
       </c>
@@ -22421,8 +24959,11 @@
       <c r="O468">
         <v>0.02663538291883042</v>
       </c>
-    </row>
-    <row r="469" spans="1:15">
+      <c r="Q468">
+        <v>1.032306116961684</v>
+      </c>
+    </row>
+    <row r="469" spans="1:17">
       <c r="A469" s="2">
         <v>43492</v>
       </c>
@@ -22468,8 +25009,11 @@
       <c r="O469">
         <v>0.02370048683378917</v>
       </c>
-    </row>
-    <row r="470" spans="1:15">
+      <c r="Q469">
+        <v>1.031961497154986</v>
+      </c>
+    </row>
+    <row r="470" spans="1:17">
       <c r="A470" s="2">
         <v>43493</v>
       </c>
@@ -22515,8 +25059,11 @@
       <c r="O470">
         <v>0.02392401716089863</v>
       </c>
-    </row>
-    <row r="471" spans="1:15">
+      <c r="Q470">
+        <v>1.034997147914188</v>
+      </c>
+    </row>
+    <row r="471" spans="1:17">
       <c r="A471" s="2">
         <v>43494</v>
       </c>
@@ -22562,8 +25109,11 @@
       <c r="O471">
         <v>0.02367922307603298</v>
       </c>
-    </row>
-    <row r="472" spans="1:15">
+      <c r="Q471">
+        <v>1.033078458653215</v>
+      </c>
+    </row>
+    <row r="472" spans="1:17">
       <c r="A472" s="2">
         <v>43495</v>
       </c>
@@ -22609,8 +25159,11 @@
       <c r="O472">
         <v>0.02271158741955305</v>
       </c>
-    </row>
-    <row r="473" spans="1:15">
+      <c r="Q472">
+        <v>1.027174717908526</v>
+      </c>
+    </row>
+    <row r="473" spans="1:17">
       <c r="A473" s="2">
         <v>43496</v>
       </c>
@@ -22656,8 +25209,11 @@
       <c r="O473">
         <v>0.0218771921744346</v>
       </c>
-    </row>
-    <row r="474" spans="1:15">
+      <c r="Q473">
+        <v>1.027172404285326</v>
+      </c>
+    </row>
+    <row r="474" spans="1:17">
       <c r="A474" s="2">
         <v>43497</v>
       </c>
@@ -22703,8 +25259,11 @@
       <c r="O474">
         <v>0.02111824445601479</v>
       </c>
-    </row>
-    <row r="475" spans="1:15">
+      <c r="Q474">
+        <v>1.026911026541378</v>
+      </c>
+    </row>
+    <row r="475" spans="1:17">
       <c r="A475" s="2">
         <v>43498</v>
       </c>
@@ -22750,8 +25309,11 @@
       <c r="O475">
         <v>0.02030765823463834</v>
       </c>
-    </row>
-    <row r="476" spans="1:15">
+      <c r="Q475">
+        <v>1.026478701746497</v>
+      </c>
+    </row>
+    <row r="476" spans="1:17">
       <c r="A476" s="2">
         <v>43499</v>
       </c>
@@ -22797,8 +25359,11 @@
       <c r="O476">
         <v>0.02079429737935977</v>
       </c>
-    </row>
-    <row r="477" spans="1:15">
+      <c r="Q476">
+        <v>1.026471759733141</v>
+      </c>
+    </row>
+    <row r="477" spans="1:17">
       <c r="A477" s="2">
         <v>43500</v>
       </c>
@@ -22844,8 +25409,11 @@
       <c r="O477">
         <v>0.02071148503339594</v>
       </c>
-    </row>
-    <row r="478" spans="1:15">
+      <c r="Q477">
+        <v>1.028584683067305</v>
+      </c>
+    </row>
+    <row r="478" spans="1:17">
       <c r="A478" s="2">
         <v>43501</v>
       </c>
@@ -22891,8 +25459,11 @@
       <c r="O478">
         <v>0.01820055259611526</v>
       </c>
-    </row>
-    <row r="479" spans="1:15">
+      <c r="Q478">
+        <v>1.029988172473203</v>
+      </c>
+    </row>
+    <row r="479" spans="1:17">
       <c r="A479" s="2">
         <v>43502</v>
       </c>
@@ -22938,8 +25509,11 @@
       <c r="O479">
         <v>0.01831548403300962</v>
       </c>
-    </row>
-    <row r="480" spans="1:15">
+      <c r="Q479">
+        <v>1.033347498486327</v>
+      </c>
+    </row>
+    <row r="480" spans="1:17">
       <c r="A480" s="2">
         <v>43503</v>
       </c>
@@ -22985,8 +25559,11 @@
       <c r="O480">
         <v>0.01844135202936973</v>
       </c>
-    </row>
-    <row r="481" spans="1:15">
+      <c r="Q480">
+        <v>1.034356682443401</v>
+      </c>
+    </row>
+    <row r="481" spans="1:17">
       <c r="A481" s="2">
         <v>43504</v>
       </c>
@@ -23032,8 +25609,11 @@
       <c r="O481">
         <v>0.02171642944816014</v>
       </c>
-    </row>
-    <row r="482" spans="1:15">
+      <c r="Q481">
+        <v>1.035035891833538</v>
+      </c>
+    </row>
+    <row r="482" spans="1:17">
       <c r="A482" s="2">
         <v>43505</v>
       </c>
@@ -23079,8 +25659,11 @@
       <c r="O482">
         <v>0.01768787790062282</v>
       </c>
-    </row>
-    <row r="483" spans="1:15">
+      <c r="Q482">
+        <v>1.026908889571997</v>
+      </c>
+    </row>
+    <row r="483" spans="1:17">
       <c r="A483" s="2">
         <v>43506</v>
       </c>
@@ -23126,8 +25709,11 @@
       <c r="O483">
         <v>0.01781430165082836</v>
       </c>
-    </row>
-    <row r="484" spans="1:15">
+      <c r="Q483">
+        <v>1.025232162175829</v>
+      </c>
+    </row>
+    <row r="484" spans="1:17">
       <c r="A484" s="2">
         <v>43507</v>
       </c>
@@ -23173,8 +25759,11 @@
       <c r="O484">
         <v>0.01800042429906613</v>
       </c>
-    </row>
-    <row r="485" spans="1:15">
+      <c r="Q484">
+        <v>1.028284411512237</v>
+      </c>
+    </row>
+    <row r="485" spans="1:17">
       <c r="A485" s="2">
         <v>43508</v>
       </c>
@@ -23220,8 +25809,11 @@
       <c r="O485">
         <v>0.01671316258649312</v>
       </c>
-    </row>
-    <row r="486" spans="1:15">
+      <c r="Q485">
+        <v>1.029889810089828</v>
+      </c>
+    </row>
+    <row r="486" spans="1:17">
       <c r="A486" s="2">
         <v>43509</v>
       </c>
@@ -23267,8 +25859,11 @@
       <c r="O486">
         <v>0.01509521363114198</v>
       </c>
-    </row>
-    <row r="487" spans="1:15">
+      <c r="Q486">
+        <v>1.030205278779804</v>
+      </c>
+    </row>
+    <row r="487" spans="1:17">
       <c r="A487" s="2">
         <v>43510</v>
       </c>
@@ -23314,8 +25909,11 @@
       <c r="O487">
         <v>0.01436514883232252</v>
       </c>
-    </row>
-    <row r="488" spans="1:15">
+      <c r="Q487">
+        <v>1.031813686745307</v>
+      </c>
+    </row>
+    <row r="488" spans="1:17">
       <c r="A488" s="2">
         <v>43511</v>
       </c>
@@ -23361,8 +25959,11 @@
       <c r="O488">
         <v>0.01411530099251479</v>
       </c>
-    </row>
-    <row r="489" spans="1:15">
+      <c r="Q488">
+        <v>1.032038972193238</v>
+      </c>
+    </row>
+    <row r="489" spans="1:17">
       <c r="A489" s="2">
         <v>43512</v>
       </c>
@@ -23408,8 +26009,11 @@
       <c r="O489">
         <v>0.01393892616112604</v>
       </c>
-    </row>
-    <row r="490" spans="1:15">
+      <c r="Q489">
+        <v>1.033492640774523</v>
+      </c>
+    </row>
+    <row r="490" spans="1:17">
       <c r="A490" s="2">
         <v>43513</v>
       </c>
@@ -23455,8 +26059,11 @@
       <c r="O490">
         <v>0.0142179893988932</v>
       </c>
-    </row>
-    <row r="491" spans="1:15">
+      <c r="Q490">
+        <v>1.03677186793251</v>
+      </c>
+    </row>
+    <row r="491" spans="1:17">
       <c r="A491" s="2">
         <v>43514</v>
       </c>
@@ -23502,8 +26109,11 @@
       <c r="O491">
         <v>0.01613721600765212</v>
       </c>
-    </row>
-    <row r="492" spans="1:15">
+      <c r="Q491">
+        <v>1.030414511715913</v>
+      </c>
+    </row>
+    <row r="492" spans="1:17">
       <c r="A492" s="2">
         <v>43515</v>
       </c>
@@ -23549,8 +26159,11 @@
       <c r="O492">
         <v>0.01493290117373235</v>
       </c>
-    </row>
-    <row r="493" spans="1:15">
+      <c r="Q492">
+        <v>1.026249830503396</v>
+      </c>
+    </row>
+    <row r="493" spans="1:17">
       <c r="A493" s="2">
         <v>43516</v>
       </c>
@@ -23596,8 +26209,11 @@
       <c r="O493">
         <v>0.0152010809178763</v>
       </c>
-    </row>
-    <row r="494" spans="1:15">
+      <c r="Q493">
+        <v>1.027568688991576</v>
+      </c>
+    </row>
+    <row r="494" spans="1:17">
       <c r="A494" s="2">
         <v>43517</v>
       </c>
@@ -23643,8 +26259,11 @@
       <c r="O494">
         <v>0.01535055281276208</v>
       </c>
-    </row>
-    <row r="495" spans="1:15">
+      <c r="Q494">
+        <v>1.027567651191495</v>
+      </c>
+    </row>
+    <row r="495" spans="1:17">
       <c r="A495" s="2">
         <v>43518</v>
       </c>
@@ -23690,8 +26309,11 @@
       <c r="O495">
         <v>0.01567610796787708</v>
       </c>
-    </row>
-    <row r="496" spans="1:15">
+      <c r="Q495">
+        <v>1.028818026747127</v>
+      </c>
+    </row>
+    <row r="496" spans="1:17">
       <c r="A496" s="2">
         <v>43519</v>
       </c>
@@ -23737,8 +26359,11 @@
       <c r="O496">
         <v>0.01694811081785035</v>
       </c>
-    </row>
-    <row r="497" spans="1:15">
+      <c r="Q496">
+        <v>1.027073826219953</v>
+      </c>
+    </row>
+    <row r="497" spans="1:17">
       <c r="A497" s="2">
         <v>43520</v>
       </c>
@@ -23784,8 +26409,11 @@
       <c r="O497">
         <v>0.02055162323904017</v>
       </c>
-    </row>
-    <row r="498" spans="1:15">
+      <c r="Q497">
+        <v>1.02454062779277</v>
+      </c>
+    </row>
+    <row r="498" spans="1:17">
       <c r="A498" s="2">
         <v>43521</v>
       </c>
@@ -23831,8 +26459,11 @@
       <c r="O498">
         <v>0.02133669671479616</v>
       </c>
-    </row>
-    <row r="499" spans="1:15">
+      <c r="Q498">
+        <v>1.033188328513402</v>
+      </c>
+    </row>
+    <row r="499" spans="1:17">
       <c r="A499" s="2">
         <v>43522</v>
       </c>
@@ -23878,8 +26509,11 @@
       <c r="O499">
         <v>0.02142878132739264</v>
       </c>
-    </row>
-    <row r="500" spans="1:15">
+      <c r="Q499">
+        <v>1.029874754440609</v>
+      </c>
+    </row>
+    <row r="500" spans="1:17">
       <c r="A500" s="2">
         <v>43523</v>
       </c>
@@ -23925,8 +26559,11 @@
       <c r="O500">
         <v>0.02004572545031154</v>
       </c>
-    </row>
-    <row r="501" spans="1:15">
+      <c r="Q500">
+        <v>1.032373733518475</v>
+      </c>
+    </row>
+    <row r="501" spans="1:17">
       <c r="A501" s="2">
         <v>43524</v>
       </c>
@@ -23972,8 +26609,11 @@
       <c r="O501">
         <v>0.01980128098797062</v>
       </c>
-    </row>
-    <row r="502" spans="1:15">
+      <c r="Q501">
+        <v>1.033511883136161</v>
+      </c>
+    </row>
+    <row r="502" spans="1:17">
       <c r="A502" s="2">
         <v>43525</v>
       </c>
@@ -24019,8 +26659,11 @@
       <c r="O502">
         <v>0.01936812197511608</v>
       </c>
-    </row>
-    <row r="503" spans="1:15">
+      <c r="Q502">
+        <v>1.031746523511742</v>
+      </c>
+    </row>
+    <row r="503" spans="1:17">
       <c r="A503" s="2">
         <v>43526</v>
       </c>
@@ -24066,8 +26709,11 @@
       <c r="O503">
         <v>0.01905957542861544</v>
       </c>
-    </row>
-    <row r="504" spans="1:15">
+      <c r="Q503">
+        <v>1.032716383323435</v>
+      </c>
+    </row>
+    <row r="504" spans="1:17">
       <c r="A504" s="2">
         <v>43527</v>
       </c>
@@ -24113,8 +26759,11 @@
       <c r="O504">
         <v>0.01886904196132517</v>
       </c>
-    </row>
-    <row r="505" spans="1:15">
+      <c r="Q504">
+        <v>1.035252114172074</v>
+      </c>
+    </row>
+    <row r="505" spans="1:17">
       <c r="A505" s="2">
         <v>43528</v>
       </c>
@@ -24159,6 +26808,9 @@
       </c>
       <c r="O505">
         <v>0.01942806433985995</v>
+      </c>
+      <c r="Q505">
+        <v>1.035821446057528</v>
       </c>
     </row>
   </sheetData>

--- a/data/btc_data.xlsx
+++ b/data/btc_data.xlsx
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L545"/>
+  <dimension ref="A1:L546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21127,6 +21127,44 @@
         <v>0.02142859879153175</v>
       </c>
     </row>
+    <row r="546" spans="1:12">
+      <c r="A546" s="2">
+        <v>43569</v>
+      </c>
+      <c r="B546">
+        <v>5095.76</v>
+      </c>
+      <c r="C546">
+        <v>5184.02</v>
+      </c>
+      <c r="D546">
+        <v>5053.57</v>
+      </c>
+      <c r="E546">
+        <v>5167.72</v>
+      </c>
+      <c r="F546">
+        <v>10391952498</v>
+      </c>
+      <c r="G546">
+        <v>91188595341</v>
+      </c>
+      <c r="H546">
+        <v>0.01385989679769395</v>
+      </c>
+      <c r="I546">
+        <v>0.03243656534406333</v>
+      </c>
+      <c r="J546">
+        <v>4.023579655920527</v>
+      </c>
+      <c r="K546">
+        <v>-0.1830279551569738</v>
+      </c>
+      <c r="L546">
+        <v>0.02162592499728229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
